--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Team Meeting (Audited)</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Blender Tutorial</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group meeting </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -389,7 +401,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -518,6 +530,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2036,7 +2051,7 @@
       <c r="G8" t="s" s="42">
         <v>23</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="43">
         <f>IF(AND(G8&lt;&gt;" ",G8&lt;&gt;"ERROR",H7&lt;&gt;" ",H7&lt;&gt;"ERROR"),G8+H7," ")</f>
         <v>5</v>
       </c>
@@ -2060,17 +2075,17 @@
         <v>42964</v>
       </c>
       <c r="E9" s="39">
-        <v>42964.416666666664</v>
+        <v>42964.4375</v>
       </c>
       <c r="F9" t="s" s="40">
         <v>21</v>
       </c>
       <c r="G9" t="s" s="42">
-        <v>23</v>
-      </c>
-      <c r="H9" s="34">
+        <v>26</v>
+      </c>
+      <c r="H9" s="43">
         <f>IF(AND(G9&lt;&gt;" ",G9&lt;&gt;"ERROR",H8&lt;&gt;" ",H8&lt;&gt;"ERROR"),G9+H8," ")</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I9" s="34">
         <f>((D9+E9)-(B9+C9))*24</f>
@@ -2079,45 +2094,65 @@
       <c r="K9" s="34"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="34"/>
+      <c r="A10" s="34">
+        <v>4</v>
+      </c>
+      <c r="B10" s="38">
+        <v>42962</v>
+      </c>
+      <c r="C10" s="39">
+        <v>42967.416666666664</v>
+      </c>
+      <c r="D10" s="38">
+        <v>42962</v>
+      </c>
+      <c r="E10" s="39">
+        <v>42967.4375</v>
+      </c>
+      <c r="F10" t="s" s="40">
+        <v>27</v>
+      </c>
       <c r="G10" t="s" s="42">
-        <f>IF(I10&gt;0,I10,IF(I10=0," ","ERROR"))</f>
-        <v>26</v>
-      </c>
-      <c r="H10" t="s" s="40">
-        <f>IF(AND(G10&lt;&gt;" ",G10&lt;&gt;"ERROR",H9&lt;&gt;" ",H9&lt;&gt;"ERROR"),G10+H9," ")</f>
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="H10" s="43">
+        <f>IF(AND(G10&lt;&gt;" ",G10&lt;&gt;"ERROR",H11&lt;&gt;" ",H11&lt;&gt;"ERROR"),G10+H11," ")</f>
+        <v>8</v>
       </c>
       <c r="I10" s="34">
         <f>((D10+E10)-(B10+C10))*24</f>
-        <v>0</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="34"/>
+      <c r="A11" s="34">
+        <v>4</v>
+      </c>
+      <c r="B11" s="38">
+        <v>42967</v>
+      </c>
+      <c r="C11" s="39">
+        <v>42967.833333333336</v>
+      </c>
+      <c r="D11" s="38">
+        <v>42967</v>
+      </c>
+      <c r="E11" s="39">
+        <v>42967.875</v>
+      </c>
+      <c r="F11" t="s" s="40">
+        <v>29</v>
+      </c>
       <c r="G11" t="s" s="42">
-        <f>IF(I11&gt;0,I11,IF(I11=0," ","ERROR"))</f>
-        <v>26</v>
-      </c>
-      <c r="H11" t="s" s="40">
-        <f>IF(AND(G11&lt;&gt;" ",G11&lt;&gt;"ERROR",H10&lt;&gt;" ",H10&lt;&gt;"ERROR"),G11+H10," ")</f>
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="H11" s="43">
+        <f>IF(AND(G11&lt;&gt;" ",G11&lt;&gt;"ERROR",H9&lt;&gt;" ",H9&lt;&gt;"ERROR"),G11+H9," ")</f>
+        <v>7.5</v>
       </c>
       <c r="I11" s="34">
         <f>((D11+E11)-(B11+C11))*24</f>
-        <v>0</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
@@ -2131,11 +2166,11 @@
       <c r="F12" s="34"/>
       <c r="G12" t="s" s="42">
         <f>IF(I12&gt;0,I12,IF(I12=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s" s="40">
-        <f>IF(AND(G12&lt;&gt;" ",G12&lt;&gt;"ERROR",H11&lt;&gt;" ",H11&lt;&gt;"ERROR"),G12+H11," ")</f>
-        <v>26</v>
+        <f>IF(AND(G12&lt;&gt;" ",G12&lt;&gt;"ERROR",H10&lt;&gt;" ",H10&lt;&gt;"ERROR"),G12+H10," ")</f>
+        <v>30</v>
       </c>
       <c r="I12" s="34">
         <f>((D12+E12)-(B12+C12))*24</f>
@@ -2153,11 +2188,11 @@
       <c r="F13" s="34"/>
       <c r="G13" t="s" s="42">
         <f>IF(I13&gt;0,I13,IF(I13=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s" s="40">
         <f>IF(AND(G13&lt;&gt;" ",G13&lt;&gt;"ERROR",H12&lt;&gt;" ",H12&lt;&gt;"ERROR"),G13+H12," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I13" s="34">
         <f>((D13+E13)-(B13+C13))*24</f>
@@ -2175,11 +2210,11 @@
       <c r="F14" s="34"/>
       <c r="G14" t="s" s="42">
         <f>IF(I14&gt;0,I14,IF(I14=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s" s="40">
         <f>IF(AND(G14&lt;&gt;" ",G14&lt;&gt;"ERROR",H13&lt;&gt;" ",H13&lt;&gt;"ERROR"),G14+H13," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I14" s="34">
         <f>((D14+E14)-(B14+C14))*24</f>
@@ -2197,11 +2232,11 @@
       <c r="F15" s="34"/>
       <c r="G15" t="s" s="42">
         <f>IF(I15&gt;0,I15,IF(I15=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s" s="40">
         <f>IF(AND(G15&lt;&gt;" ",G15&lt;&gt;"ERROR",H14&lt;&gt;" ",H14&lt;&gt;"ERROR"),G15+H14," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I15" s="34">
         <f>((D15+E15)-(B15+C15))*24</f>
@@ -2219,11 +2254,11 @@
       <c r="F16" s="34"/>
       <c r="G16" t="s" s="42">
         <f>IF(I16&gt;0,I16,IF(I16=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s" s="40">
         <f>IF(AND(G16&lt;&gt;" ",G16&lt;&gt;"ERROR",H15&lt;&gt;" ",H15&lt;&gt;"ERROR"),G16+H15," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I16" s="34">
         <f>((D16+E16)-(B16+C16))*24</f>
@@ -2241,11 +2276,11 @@
       <c r="F17" s="34"/>
       <c r="G17" t="s" s="42">
         <f>IF(I17&gt;0,I17,IF(I17=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s" s="40">
         <f>IF(AND(G17&lt;&gt;" ",G17&lt;&gt;"ERROR",H16&lt;&gt;" ",H16&lt;&gt;"ERROR"),G17+H16," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I17" s="34">
         <f>((D17+E17)-(B17+C17))*24</f>
@@ -2263,11 +2298,11 @@
       <c r="F18" s="34"/>
       <c r="G18" t="s" s="42">
         <f>IF(I18&gt;0,I18,IF(I18=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s" s="40">
         <f>IF(AND(G18&lt;&gt;" ",G18&lt;&gt;"ERROR",H17&lt;&gt;" ",H17&lt;&gt;"ERROR"),G18+H17," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I18" s="34">
         <f>((D18+E18)-(B18+C18))*24</f>
@@ -2285,11 +2320,11 @@
       <c r="F19" s="34"/>
       <c r="G19" t="s" s="42">
         <f>IF(I19&gt;0,I19,IF(I19=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s" s="40">
         <f>IF(AND(G19&lt;&gt;" ",G19&lt;&gt;"ERROR",H18&lt;&gt;" ",H18&lt;&gt;"ERROR"),G19+H18," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I19" s="34">
         <f>((D19+E19)-(B19+C19))*24</f>
@@ -2307,11 +2342,11 @@
       <c r="F20" s="34"/>
       <c r="G20" t="s" s="42">
         <f>IF(I20&gt;0,I20,IF(I20=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s" s="40">
         <f>IF(AND(G20&lt;&gt;" ",G20&lt;&gt;"ERROR",H19&lt;&gt;" ",H19&lt;&gt;"ERROR"),G20+H19," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I20" s="34">
         <f>((D20+E20)-(B20+C20))*24</f>
@@ -2329,11 +2364,11 @@
       <c r="F21" s="34"/>
       <c r="G21" t="s" s="42">
         <f>IF(I21&gt;0,I21,IF(I21=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s" s="40">
         <f>IF(AND(G21&lt;&gt;" ",G21&lt;&gt;"ERROR",H20&lt;&gt;" ",H20&lt;&gt;"ERROR"),G21+H20," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I21" s="34">
         <f>((D21+E21)-(B21+C21))*24</f>
@@ -2351,11 +2386,11 @@
       <c r="F22" s="34"/>
       <c r="G22" t="s" s="42">
         <f>IF(I22&gt;0,I22,IF(I22=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s" s="40">
         <f>IF(AND(G22&lt;&gt;" ",G22&lt;&gt;"ERROR",H21&lt;&gt;" ",H21&lt;&gt;"ERROR"),G22+H21," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I22" s="34">
         <f>((D22+E22)-(B22+C22))*24</f>
@@ -2373,11 +2408,11 @@
       <c r="F23" s="34"/>
       <c r="G23" t="s" s="42">
         <f>IF(I23&gt;0,I23,IF(I23=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s" s="40">
         <f>IF(AND(G23&lt;&gt;" ",G23&lt;&gt;"ERROR",H22&lt;&gt;" ",H22&lt;&gt;"ERROR"),G23+H22," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I23" s="34">
         <f>((D23+E23)-(B23+C23))*24</f>
@@ -2395,11 +2430,11 @@
       <c r="F24" s="34"/>
       <c r="G24" t="s" s="42">
         <f>IF(I24&gt;0,I24,IF(I24=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s" s="40">
         <f>IF(AND(G24&lt;&gt;" ",G24&lt;&gt;"ERROR",H23&lt;&gt;" ",H23&lt;&gt;"ERROR"),G24+H23," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I24" s="34">
         <f>((D24+E24)-(B24+C24))*24</f>
@@ -2417,11 +2452,11 @@
       <c r="F25" s="34"/>
       <c r="G25" t="s" s="42">
         <f>IF(I25&gt;0,I25,IF(I25=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s" s="40">
         <f>IF(AND(G25&lt;&gt;" ",G25&lt;&gt;"ERROR",H24&lt;&gt;" ",H24&lt;&gt;"ERROR"),G25+H24," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I25" s="34">
         <f>((D25+E25)-(B25+C25))*24</f>
@@ -2439,11 +2474,11 @@
       <c r="F26" s="34"/>
       <c r="G26" t="s" s="42">
         <f>IF(I26&gt;0,I26,IF(I26=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s" s="40">
         <f>IF(AND(G26&lt;&gt;" ",G26&lt;&gt;"ERROR",H25&lt;&gt;" ",H25&lt;&gt;"ERROR"),G26+H25," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I26" s="34">
         <f>((D26+E26)-(B26+C26))*24</f>
@@ -2461,11 +2496,11 @@
       <c r="F27" s="34"/>
       <c r="G27" t="s" s="42">
         <f>IF(I27&gt;0,I27,IF(I27=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s" s="40">
         <f>IF(AND(G27&lt;&gt;" ",G27&lt;&gt;"ERROR",H26&lt;&gt;" ",H26&lt;&gt;"ERROR"),G27+H26," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I27" s="34">
         <f>((D27+E27)-(B27+C27))*24</f>
@@ -2483,11 +2518,11 @@
       <c r="F28" s="34"/>
       <c r="G28" t="s" s="42">
         <f>IF(I28&gt;0,I28,IF(I28=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s" s="40">
         <f>IF(AND(G28&lt;&gt;" ",G28&lt;&gt;"ERROR",H27&lt;&gt;" ",H27&lt;&gt;"ERROR"),G28+H27," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I28" s="34">
         <f>((D28+E28)-(B28+C28))*24</f>
@@ -2505,11 +2540,11 @@
       <c r="F29" s="34"/>
       <c r="G29" t="s" s="42">
         <f>IF(I29&gt;0,I29,IF(I29=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s" s="40">
         <f>IF(AND(G29&lt;&gt;" ",G29&lt;&gt;"ERROR",H28&lt;&gt;" ",H28&lt;&gt;"ERROR"),G29+H28," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I29" s="34">
         <f>((D29+E29)-(B29+C29))*24</f>
@@ -2527,11 +2562,11 @@
       <c r="F30" s="34"/>
       <c r="G30" t="s" s="42">
         <f>IF(I30&gt;0,I30,IF(I30=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s" s="40">
         <f>IF(AND(G30&lt;&gt;" ",G30&lt;&gt;"ERROR",H29&lt;&gt;" ",H29&lt;&gt;"ERROR"),G30+H29," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I30" s="34">
         <f>((D30+E30)-(B30+C30))*24</f>
@@ -2599,11 +2634,11 @@
       <c r="F33" s="34"/>
       <c r="G33" t="s" s="42">
         <f>IF(I33&gt;0,I33,IF(I33=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s" s="40">
         <f>IF(AND(G33&lt;&gt;" ",G33&lt;&gt;"ERROR",H30&lt;&gt;" ",H30&lt;&gt;"ERROR"),G33+H30," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I33" s="34">
         <f>((D33+E33)-(B33+C33))*24</f>
@@ -2621,11 +2656,11 @@
       <c r="F34" s="34"/>
       <c r="G34" t="s" s="42">
         <f>IF(I34&gt;0,I34,IF(I34=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H34" t="s" s="40">
         <f>IF(AND(G34&lt;&gt;" ",G34&lt;&gt;"ERROR",H33&lt;&gt;" ",H33&lt;&gt;"ERROR"),G34+H33," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I34" s="34">
         <f>((D34+E34)-(B34+C34))*24</f>
@@ -2643,11 +2678,11 @@
       <c r="F35" s="34"/>
       <c r="G35" t="s" s="42">
         <f>IF(I35&gt;0,I35,IF(I35=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H35" t="s" s="40">
         <f>IF(AND(G35&lt;&gt;" ",G35&lt;&gt;"ERROR",H34&lt;&gt;" ",H34&lt;&gt;"ERROR"),G35+H34," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I35" s="34">
         <f>((D35+E35)-(B35+C35))*24</f>
@@ -2665,11 +2700,11 @@
       <c r="F36" s="34"/>
       <c r="G36" t="s" s="42">
         <f>IF(I36&gt;0,I36,IF(I36=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s" s="40">
         <f>IF(AND(G36&lt;&gt;" ",G36&lt;&gt;"ERROR",H35&lt;&gt;" ",H35&lt;&gt;"ERROR"),G36+H35," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I36" s="34">
         <f>((D36+E36)-(B36+C36))*24</f>
@@ -2687,11 +2722,11 @@
       <c r="F37" s="34"/>
       <c r="G37" t="s" s="42">
         <f>IF(I37&gt;0,I37,IF(I37=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s" s="40">
         <f>IF(AND(G37&lt;&gt;" ",G37&lt;&gt;"ERROR",H36&lt;&gt;" ",H36&lt;&gt;"ERROR"),G37+H36," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I37" s="34">
         <f>((D37+E37)-(B37+C37))*24</f>
@@ -2709,11 +2744,11 @@
       <c r="F38" s="34"/>
       <c r="G38" t="s" s="42">
         <f>IF(I38&gt;0,I38,IF(I38=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s" s="40">
         <f>IF(AND(G38&lt;&gt;" ",G38&lt;&gt;"ERROR",H37&lt;&gt;" ",H37&lt;&gt;"ERROR"),G38+H37," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I38" s="34">
         <f>((D38+E38)-(B38+C38))*24</f>
@@ -2731,11 +2766,11 @@
       <c r="F39" s="34"/>
       <c r="G39" t="s" s="42">
         <f>IF(I39&gt;0,I39,IF(I39=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s" s="40">
         <f>IF(AND(G39&lt;&gt;" ",G39&lt;&gt;"ERROR",H38&lt;&gt;" ",H38&lt;&gt;"ERROR"),G39+H38," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I39" s="34">
         <f>((D39+E39)-(B39+C39))*24</f>
@@ -2753,11 +2788,11 @@
       <c r="F40" s="34"/>
       <c r="G40" t="s" s="42">
         <f>IF(I40&gt;0,I40,IF(I40=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s" s="40">
         <f>IF(AND(G40&lt;&gt;" ",G40&lt;&gt;"ERROR",H39&lt;&gt;" ",H39&lt;&gt;"ERROR"),G40+H39," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I40" s="34">
         <f>((D40+E40)-(B40+C40))*24</f>
@@ -2775,11 +2810,11 @@
       <c r="F41" s="34"/>
       <c r="G41" t="s" s="42">
         <f>IF(I41&gt;0,I41,IF(I41=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s" s="40">
         <f>IF(AND(G41&lt;&gt;" ",G41&lt;&gt;"ERROR",H40&lt;&gt;" ",H40&lt;&gt;"ERROR"),G41+H40," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I41" s="34">
         <f>((D41+E41)-(B41+C41))*24</f>
@@ -2797,11 +2832,11 @@
       <c r="F42" s="34"/>
       <c r="G42" t="s" s="42">
         <f>IF(I42&gt;0,I42,IF(I42=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s" s="40">
         <f>IF(AND(G42&lt;&gt;" ",G42&lt;&gt;"ERROR",H41&lt;&gt;" ",H41&lt;&gt;"ERROR"),G42+H41," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I42" s="34">
         <f>((D42+E42)-(B42+C42))*24</f>
@@ -2819,11 +2854,11 @@
       <c r="F43" s="34"/>
       <c r="G43" t="s" s="42">
         <f>IF(I43&gt;0,I43,IF(I43=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s" s="40">
         <f>IF(AND(G43&lt;&gt;" ",G43&lt;&gt;"ERROR",H42&lt;&gt;" ",H42&lt;&gt;"ERROR"),G43+H42," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I43" s="34">
         <f>((D43+E43)-(B43+C43))*24</f>
@@ -2841,11 +2876,11 @@
       <c r="F44" s="34"/>
       <c r="G44" t="s" s="42">
         <f>IF(I44&gt;0,I44,IF(I44=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H44" t="s" s="40">
         <f>IF(AND(G44&lt;&gt;" ",G44&lt;&gt;"ERROR",H43&lt;&gt;" ",H43&lt;&gt;"ERROR"),G44+H43," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I44" s="34">
         <f>((D44+E44)-(B44+C44))*24</f>
@@ -2863,11 +2898,11 @@
       <c r="F45" s="34"/>
       <c r="G45" t="s" s="42">
         <f>IF(I45&gt;0,I45,IF(I45=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s" s="40">
         <f>IF(AND(G45&lt;&gt;" ",G45&lt;&gt;"ERROR",H44&lt;&gt;" ",H44&lt;&gt;"ERROR"),G45+H44," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I45" s="34">
         <f>((D45+E45)-(B45+C45))*24</f>
@@ -2885,11 +2920,11 @@
       <c r="F46" s="34"/>
       <c r="G46" t="s" s="42">
         <f>IF(I46&gt;0,I46,IF(I46=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s" s="40">
         <f>IF(AND(G46&lt;&gt;" ",G46&lt;&gt;"ERROR",H45&lt;&gt;" ",H45&lt;&gt;"ERROR"),G46+H45," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I46" s="34">
         <f>((D46+E46)-(B46+C46))*24</f>
@@ -2907,11 +2942,11 @@
       <c r="F47" s="34"/>
       <c r="G47" t="s" s="42">
         <f>IF(I47&gt;0,I47,IF(I47=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s" s="40">
         <f>IF(AND(G47&lt;&gt;" ",G47&lt;&gt;"ERROR",H46&lt;&gt;" ",H46&lt;&gt;"ERROR"),G47+H46," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I47" s="34">
         <f>((D47+E47)-(B47+C47))*24</f>
@@ -2929,11 +2964,11 @@
       <c r="F48" s="34"/>
       <c r="G48" t="s" s="42">
         <f>IF(I48&gt;0,I48,IF(I48=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s" s="40">
         <f>IF(AND(G48&lt;&gt;" ",G48&lt;&gt;"ERROR",H47&lt;&gt;" ",H47&lt;&gt;"ERROR"),G48+H47," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I48" s="34">
         <f>((D48+E48)-(B48+C48))*24</f>
@@ -2951,11 +2986,11 @@
       <c r="F49" s="34"/>
       <c r="G49" t="s" s="42">
         <f>IF(I49&gt;0,I49,IF(I49=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s" s="40">
         <f>IF(AND(G49&lt;&gt;" ",G49&lt;&gt;"ERROR",H48&lt;&gt;" ",H48&lt;&gt;"ERROR"),G49+H48," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I49" s="34">
         <f>((D49+E49)-(B49+C49))*24</f>
@@ -2973,11 +3008,11 @@
       <c r="F50" s="34"/>
       <c r="G50" t="s" s="42">
         <f>IF(I50&gt;0,I50,IF(I50=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s" s="40">
         <f>IF(AND(G50&lt;&gt;" ",G50&lt;&gt;"ERROR",H49&lt;&gt;" ",H49&lt;&gt;"ERROR"),G50+H49," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I50" s="34">
         <f>((D50+E50)-(B50+C50))*24</f>
@@ -2995,11 +3030,11 @@
       <c r="F51" s="34"/>
       <c r="G51" t="s" s="42">
         <f>IF(I51&gt;0,I51,IF(I51=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s" s="40">
         <f>IF(AND(G51&lt;&gt;" ",G51&lt;&gt;"ERROR",H50&lt;&gt;" ",H50&lt;&gt;"ERROR"),G51+H50," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I51" s="34">
         <f>((D51+E51)-(B51+C51))*24</f>
@@ -3017,11 +3052,11 @@
       <c r="F52" s="34"/>
       <c r="G52" t="s" s="42">
         <f>IF(I52&gt;0,I52,IF(I52=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s" s="40">
         <f>IF(AND(G52&lt;&gt;" ",G52&lt;&gt;"ERROR",H51&lt;&gt;" ",H51&lt;&gt;"ERROR"),G52+H51," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I52" s="34">
         <f>((D52+E52)-(B52+C52))*24</f>
@@ -3039,11 +3074,11 @@
       <c r="F53" s="34"/>
       <c r="G53" t="s" s="42">
         <f>IF(I53&gt;0,I53,IF(I53=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s" s="40">
         <f>IF(AND(G53&lt;&gt;" ",G53&lt;&gt;"ERROR",H52&lt;&gt;" ",H52&lt;&gt;"ERROR"),G53+H52," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I53" s="34">
         <f>((D53+E53)-(B53+C53))*24</f>
@@ -3061,11 +3096,11 @@
       <c r="F54" s="34"/>
       <c r="G54" t="s" s="42">
         <f>IF(I54&gt;0,I54,IF(I54=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s" s="40">
         <f>IF(AND(G54&lt;&gt;" ",G54&lt;&gt;"ERROR",H53&lt;&gt;" ",H53&lt;&gt;"ERROR"),G54+H53," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I54" s="34">
         <f>((D54+E54)-(B54+C54))*24</f>
@@ -3083,11 +3118,11 @@
       <c r="F55" s="34"/>
       <c r="G55" t="s" s="42">
         <f>IF(I55&gt;0,I55,IF(I55=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s" s="40">
         <f>IF(AND(G55&lt;&gt;" ",G55&lt;&gt;"ERROR",H54&lt;&gt;" ",H54&lt;&gt;"ERROR"),G55+H54," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I55" s="34">
         <f>((D55+E55)-(B55+C55))*24</f>
@@ -3105,11 +3140,11 @@
       <c r="F56" s="34"/>
       <c r="G56" t="s" s="42">
         <f>IF(I56&gt;0,I56,IF(I56=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H56" t="s" s="40">
         <f>IF(AND(G56&lt;&gt;" ",G56&lt;&gt;"ERROR",H55&lt;&gt;" ",H55&lt;&gt;"ERROR"),G56+H55," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I56" s="34">
         <f>((D56+E56)-(B56+C56))*24</f>
@@ -3127,11 +3162,11 @@
       <c r="F57" s="34"/>
       <c r="G57" t="s" s="42">
         <f>IF(I57&gt;0,I57,IF(I57=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H57" t="s" s="40">
         <f>IF(AND(G57&lt;&gt;" ",G57&lt;&gt;"ERROR",H56&lt;&gt;" ",H56&lt;&gt;"ERROR"),G57+H56," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I57" s="34">
         <f>((D57+E57)-(B57+C57))*24</f>
@@ -3149,11 +3184,11 @@
       <c r="F58" s="34"/>
       <c r="G58" t="s" s="42">
         <f>IF(I58&gt;0,I58,IF(I58=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H58" t="s" s="40">
         <f>IF(AND(G58&lt;&gt;" ",G58&lt;&gt;"ERROR",H57&lt;&gt;" ",H57&lt;&gt;"ERROR"),G58+H57," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I58" s="34">
         <f>((D58+E58)-(B58+C58))*24</f>
@@ -3171,11 +3206,11 @@
       <c r="F59" s="34"/>
       <c r="G59" t="s" s="42">
         <f>IF(I59&gt;0,I59,IF(I59=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H59" t="s" s="40">
         <f>IF(AND(G59&lt;&gt;" ",G59&lt;&gt;"ERROR",H58&lt;&gt;" ",H58&lt;&gt;"ERROR"),G59+H58," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I59" s="34">
         <f>((D59+E59)-(B59+C59))*24</f>
@@ -3193,11 +3228,11 @@
       <c r="F60" s="34"/>
       <c r="G60" t="s" s="42">
         <f>IF(I60&gt;0,I60,IF(I60=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H60" t="s" s="40">
         <f>IF(AND(G60&lt;&gt;" ",G60&lt;&gt;"ERROR",H59&lt;&gt;" ",H59&lt;&gt;"ERROR"),G60+H59," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I60" s="34">
         <f>((D60+E60)-(B60+C60))*24</f>
@@ -3215,11 +3250,11 @@
       <c r="F61" s="34"/>
       <c r="G61" t="s" s="42">
         <f>IF(I61&gt;0,I61,IF(I61=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s" s="40">
         <f>IF(AND(G61&lt;&gt;" ",G61&lt;&gt;"ERROR",H60&lt;&gt;" ",H60&lt;&gt;"ERROR"),G61+H60," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I61" s="34">
         <f>((D61+E61)-(B61+C61))*24</f>
@@ -3237,11 +3272,11 @@
       <c r="F62" s="34"/>
       <c r="G62" t="s" s="42">
         <f>IF(I62&gt;0,I62,IF(I62=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H62" t="s" s="40">
         <f>IF(AND(G62&lt;&gt;" ",G62&lt;&gt;"ERROR",H61&lt;&gt;" ",H61&lt;&gt;"ERROR"),G62+H61," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I62" s="34">
         <f>((D62+E62)-(B62+C62))*24</f>
@@ -3259,11 +3294,11 @@
       <c r="F63" s="34"/>
       <c r="G63" t="s" s="42">
         <f>IF(I63&gt;0,I63,IF(I63=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H63" t="s" s="40">
         <f>IF(AND(G63&lt;&gt;" ",G63&lt;&gt;"ERROR",H62&lt;&gt;" ",H62&lt;&gt;"ERROR"),G63+H62," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I63" s="34">
         <f>((D63+E63)-(B63+C63))*24</f>
@@ -3281,11 +3316,11 @@
       <c r="F64" s="34"/>
       <c r="G64" t="s" s="42">
         <f>IF(I64&gt;0,I64,IF(I64=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H64" t="s" s="40">
         <f>IF(AND(G64&lt;&gt;" ",G64&lt;&gt;"ERROR",H63&lt;&gt;" ",H63&lt;&gt;"ERROR"),G64+H63," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I64" s="34">
         <f>((D64+E64)-(B64+C64))*24</f>
@@ -3353,11 +3388,11 @@
       <c r="F67" s="34"/>
       <c r="G67" t="s" s="42">
         <f>IF(I67&gt;0,I67,IF(I67=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H67" t="s" s="40">
         <f>IF(AND(G67&lt;&gt;" ",G67&lt;&gt;"ERROR",H64&lt;&gt;" ",H64&lt;&gt;"ERROR"),G67+H64," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I67" s="34">
         <f>((D67+E67)-(B67+C67))*24</f>
@@ -3375,11 +3410,11 @@
       <c r="F68" s="34"/>
       <c r="G68" t="s" s="42">
         <f>IF(I68&gt;0,I68,IF(I68=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H68" t="s" s="40">
         <f>IF(AND(G68&lt;&gt;" ",G68&lt;&gt;"ERROR",H67&lt;&gt;" ",H67&lt;&gt;"ERROR"),G68+H67," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I68" s="34">
         <f>((D68+E68)-(B68+C68))*24</f>
@@ -3397,11 +3432,11 @@
       <c r="F69" s="34"/>
       <c r="G69" t="s" s="42">
         <f>IF(I69&gt;0,I69,IF(I69=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H69" t="s" s="40">
         <f>IF(AND(G69&lt;&gt;" ",G69&lt;&gt;"ERROR",H68&lt;&gt;" ",H68&lt;&gt;"ERROR"),G69+H68," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I69" s="34">
         <f>((D69+E69)-(B69+C69))*24</f>
@@ -3419,11 +3454,11 @@
       <c r="F70" s="34"/>
       <c r="G70" t="s" s="42">
         <f>IF(I70&gt;0,I70,IF(I70=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s" s="40">
         <f>IF(AND(G70&lt;&gt;" ",G70&lt;&gt;"ERROR",H69&lt;&gt;" ",H69&lt;&gt;"ERROR"),G70+H69," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I70" s="34">
         <f>((D70+E70)-(B70+C70))*24</f>
@@ -3441,11 +3476,11 @@
       <c r="F71" s="34"/>
       <c r="G71" t="s" s="42">
         <f>IF(I71&gt;0,I71,IF(I71=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H71" t="s" s="40">
         <f>IF(AND(G71&lt;&gt;" ",G71&lt;&gt;"ERROR",H70&lt;&gt;" ",H70&lt;&gt;"ERROR"),G71+H70," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I71" s="34">
         <f>((D71+E71)-(B71+C71))*24</f>
@@ -3463,11 +3498,11 @@
       <c r="F72" s="34"/>
       <c r="G72" t="s" s="42">
         <f>IF(I72&gt;0,I72,IF(I72=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s" s="40">
         <f>IF(AND(G72&lt;&gt;" ",G72&lt;&gt;"ERROR",H71&lt;&gt;" ",H71&lt;&gt;"ERROR"),G72+H71," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I72" s="34">
         <f>((D72+E72)-(B72+C72))*24</f>
@@ -3485,11 +3520,11 @@
       <c r="F73" s="34"/>
       <c r="G73" t="s" s="42">
         <f>IF(I73&gt;0,I73,IF(I73=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H73" t="s" s="40">
         <f>IF(AND(G73&lt;&gt;" ",G73&lt;&gt;"ERROR",H72&lt;&gt;" ",H72&lt;&gt;"ERROR"),G73+H72," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I73" s="34">
         <f>((D73+E73)-(B73+C73))*24</f>
@@ -3507,11 +3542,11 @@
       <c r="F74" s="34"/>
       <c r="G74" t="s" s="42">
         <f>IF(I74&gt;0,I74,IF(I74=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H74" t="s" s="40">
         <f>IF(AND(G74&lt;&gt;" ",G74&lt;&gt;"ERROR",H73&lt;&gt;" ",H73&lt;&gt;"ERROR"),G74+H73," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I74" s="34">
         <f>((D74+E74)-(B74+C74))*24</f>
@@ -3529,11 +3564,11 @@
       <c r="F75" s="34"/>
       <c r="G75" t="s" s="42">
         <f>IF(I75&gt;0,I75,IF(I75=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s" s="40">
         <f>IF(AND(G75&lt;&gt;" ",G75&lt;&gt;"ERROR",H74&lt;&gt;" ",H74&lt;&gt;"ERROR"),G75+H74," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I75" s="34">
         <f>((D75+E75)-(B75+C75))*24</f>
@@ -3551,11 +3586,11 @@
       <c r="F76" s="34"/>
       <c r="G76" t="s" s="42">
         <f>IF(I76&gt;0,I76,IF(I76=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s" s="40">
         <f>IF(AND(G76&lt;&gt;" ",G76&lt;&gt;"ERROR",H75&lt;&gt;" ",H75&lt;&gt;"ERROR"),G76+H75," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I76" s="34">
         <f>((D76+E76)-(B76+C76))*24</f>
@@ -3573,11 +3608,11 @@
       <c r="F77" s="34"/>
       <c r="G77" t="s" s="42">
         <f>IF(I77&gt;0,I77,IF(I77=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H77" t="s" s="40">
         <f>IF(AND(G77&lt;&gt;" ",G77&lt;&gt;"ERROR",H76&lt;&gt;" ",H76&lt;&gt;"ERROR"),G77+H76," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I77" s="34">
         <f>((D77+E77)-(B77+C77))*24</f>
@@ -3595,11 +3630,11 @@
       <c r="F78" s="34"/>
       <c r="G78" t="s" s="42">
         <f>IF(I78&gt;0,I78,IF(I78=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H78" t="s" s="40">
         <f>IF(AND(G78&lt;&gt;" ",G78&lt;&gt;"ERROR",H77&lt;&gt;" ",H77&lt;&gt;"ERROR"),G78+H77," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I78" s="34">
         <f>((D78+E78)-(B78+C78))*24</f>
@@ -3617,11 +3652,11 @@
       <c r="F79" s="34"/>
       <c r="G79" t="s" s="42">
         <f>IF(I79&gt;0,I79,IF(I79=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s" s="40">
         <f>IF(AND(G79&lt;&gt;" ",G79&lt;&gt;"ERROR",H78&lt;&gt;" ",H78&lt;&gt;"ERROR"),G79+H78," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I79" s="34">
         <f>((D79+E79)-(B79+C79))*24</f>
@@ -3639,11 +3674,11 @@
       <c r="F80" s="34"/>
       <c r="G80" t="s" s="42">
         <f>IF(I80&gt;0,I80,IF(I80=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s" s="40">
         <f>IF(AND(G80&lt;&gt;" ",G80&lt;&gt;"ERROR",H79&lt;&gt;" ",H79&lt;&gt;"ERROR"),G80+H79," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I80" s="34">
         <f>((D80+E80)-(B80+C80))*24</f>
@@ -3661,11 +3696,11 @@
       <c r="F81" s="34"/>
       <c r="G81" t="s" s="42">
         <f>IF(I81&gt;0,I81,IF(I81=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H81" t="s" s="40">
         <f>IF(AND(G81&lt;&gt;" ",G81&lt;&gt;"ERROR",H80&lt;&gt;" ",H80&lt;&gt;"ERROR"),G81+H80," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I81" s="34">
         <f>((D81+E81)-(B81+C81))*24</f>
@@ -3683,11 +3718,11 @@
       <c r="F82" s="34"/>
       <c r="G82" t="s" s="42">
         <f>IF(I82&gt;0,I82,IF(I82=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H82" t="s" s="40">
         <f>IF(AND(G82&lt;&gt;" ",G82&lt;&gt;"ERROR",H81&lt;&gt;" ",H81&lt;&gt;"ERROR"),G82+H81," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I82" s="34">
         <f>((D82+E82)-(B82+C82))*24</f>
@@ -3705,11 +3740,11 @@
       <c r="F83" s="34"/>
       <c r="G83" t="s" s="42">
         <f>IF(I83&gt;0,I83,IF(I83=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H83" t="s" s="40">
         <f>IF(AND(G83&lt;&gt;" ",G83&lt;&gt;"ERROR",H82&lt;&gt;" ",H82&lt;&gt;"ERROR"),G83+H82," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I83" s="34">
         <f>((D83+E83)-(B83+C83))*24</f>
@@ -3727,11 +3762,11 @@
       <c r="F84" s="34"/>
       <c r="G84" t="s" s="42">
         <f>IF(I84&gt;0,I84,IF(I84=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H84" t="s" s="40">
         <f>IF(AND(G84&lt;&gt;" ",G84&lt;&gt;"ERROR",H83&lt;&gt;" ",H83&lt;&gt;"ERROR"),G84+H83," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I84" s="34">
         <f>((D84+E84)-(B84+C84))*24</f>
@@ -3749,11 +3784,11 @@
       <c r="F85" s="34"/>
       <c r="G85" t="s" s="42">
         <f>IF(I85&gt;0,I85,IF(I85=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H85" t="s" s="40">
         <f>IF(AND(G85&lt;&gt;" ",G85&lt;&gt;"ERROR",H84&lt;&gt;" ",H84&lt;&gt;"ERROR"),G85+H84," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I85" s="34">
         <f>((D85+E85)-(B85+C85))*24</f>
@@ -3771,11 +3806,11 @@
       <c r="F86" s="34"/>
       <c r="G86" t="s" s="42">
         <f>IF(I86&gt;0,I86,IF(I86=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H86" t="s" s="40">
         <f>IF(AND(G86&lt;&gt;" ",G86&lt;&gt;"ERROR",H85&lt;&gt;" ",H85&lt;&gt;"ERROR"),G86+H85," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I86" s="34">
         <f>((D86+E86)-(B86+C86))*24</f>
@@ -3793,11 +3828,11 @@
       <c r="F87" s="34"/>
       <c r="G87" t="s" s="42">
         <f>IF(I87&gt;0,I87,IF(I87=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H87" t="s" s="40">
         <f>IF(AND(G87&lt;&gt;" ",G87&lt;&gt;"ERROR",H86&lt;&gt;" ",H86&lt;&gt;"ERROR"),G87+H86," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I87" s="34">
         <f>((D87+E87)-(B87+C87))*24</f>
@@ -3815,11 +3850,11 @@
       <c r="F88" s="34"/>
       <c r="G88" t="s" s="42">
         <f>IF(I88&gt;0,I88,IF(I88=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H88" t="s" s="40">
         <f>IF(AND(G88&lt;&gt;" ",G88&lt;&gt;"ERROR",H87&lt;&gt;" ",H87&lt;&gt;"ERROR"),G88+H87," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I88" s="34">
         <f>((D88+E88)-(B88+C88))*24</f>
@@ -3837,11 +3872,11 @@
       <c r="F89" s="34"/>
       <c r="G89" t="s" s="42">
         <f>IF(I89&gt;0,I89,IF(I89=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H89" t="s" s="40">
         <f>IF(AND(G89&lt;&gt;" ",G89&lt;&gt;"ERROR",H88&lt;&gt;" ",H88&lt;&gt;"ERROR"),G89+H88," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I89" s="34">
         <f>((D89+E89)-(B89+C89))*24</f>
@@ -3859,11 +3894,11 @@
       <c r="F90" s="34"/>
       <c r="G90" t="s" s="42">
         <f>IF(I90&gt;0,I90,IF(I90=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H90" t="s" s="40">
         <f>IF(AND(G90&lt;&gt;" ",G90&lt;&gt;"ERROR",H89&lt;&gt;" ",H89&lt;&gt;"ERROR"),G90+H89," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I90" s="34">
         <f>((D90+E90)-(B90+C90))*24</f>
@@ -3881,11 +3916,11 @@
       <c r="F91" s="34"/>
       <c r="G91" t="s" s="42">
         <f>IF(I91&gt;0,I91,IF(I91=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H91" t="s" s="40">
         <f>IF(AND(G91&lt;&gt;" ",G91&lt;&gt;"ERROR",H90&lt;&gt;" ",H90&lt;&gt;"ERROR"),G91+H90," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I91" s="34">
         <f>((D91+E91)-(B91+C91))*24</f>
@@ -3903,11 +3938,11 @@
       <c r="F92" s="34"/>
       <c r="G92" t="s" s="42">
         <f>IF(I92&gt;0,I92,IF(I92=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H92" t="s" s="40">
         <f>IF(AND(G92&lt;&gt;" ",G92&lt;&gt;"ERROR",H91&lt;&gt;" ",H91&lt;&gt;"ERROR"),G92+H91," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I92" s="34">
         <f>((D92+E92)-(B92+C92))*24</f>
@@ -3925,11 +3960,11 @@
       <c r="F93" s="34"/>
       <c r="G93" t="s" s="42">
         <f>IF(I93&gt;0,I93,IF(I93=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H93" t="s" s="40">
         <f>IF(AND(G93&lt;&gt;" ",G93&lt;&gt;"ERROR",H92&lt;&gt;" ",H92&lt;&gt;"ERROR"),G93+H92," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I93" s="34">
         <f>((D93+E93)-(B93+C93))*24</f>
@@ -3947,11 +3982,11 @@
       <c r="F94" s="34"/>
       <c r="G94" t="s" s="42">
         <f>IF(I94&gt;0,I94,IF(I94=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H94" t="s" s="40">
         <f>IF(AND(G94&lt;&gt;" ",G94&lt;&gt;"ERROR",H93&lt;&gt;" ",H93&lt;&gt;"ERROR"),G94+H93," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I94" s="34">
         <f>((D94+E94)-(B94+C94))*24</f>
@@ -3969,11 +4004,11 @@
       <c r="F95" s="34"/>
       <c r="G95" t="s" s="42">
         <f>IF(I95&gt;0,I95,IF(I95=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H95" t="s" s="40">
         <f>IF(AND(G95&lt;&gt;" ",G95&lt;&gt;"ERROR",H94&lt;&gt;" ",H94&lt;&gt;"ERROR"),G95+H94," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I95" s="34">
         <f>((D95+E95)-(B95+C95))*24</f>
@@ -3991,11 +4026,11 @@
       <c r="F96" s="34"/>
       <c r="G96" t="s" s="42">
         <f>IF(I96&gt;0,I96,IF(I96=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H96" t="s" s="40">
         <f>IF(AND(G96&lt;&gt;" ",G96&lt;&gt;"ERROR",H95&lt;&gt;" ",H95&lt;&gt;"ERROR"),G96+H95," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I96" s="34">
         <f>((D96+E96)-(B96+C96))*24</f>
@@ -4013,11 +4048,11 @@
       <c r="F97" s="34"/>
       <c r="G97" t="s" s="42">
         <f>IF(I97&gt;0,I97,IF(I97=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H97" t="s" s="40">
         <f>IF(AND(G97&lt;&gt;" ",G97&lt;&gt;"ERROR",H96&lt;&gt;" ",H96&lt;&gt;"ERROR"),G97+H96," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I97" s="34">
         <f>((D97+E97)-(B97+C97))*24</f>
@@ -4035,11 +4070,11 @@
       <c r="F98" s="34"/>
       <c r="G98" t="s" s="42">
         <f>IF(I98&gt;0,I98,IF(I98=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H98" t="s" s="40">
         <f>IF(AND(G98&lt;&gt;" ",G98&lt;&gt;"ERROR",H97&lt;&gt;" ",H97&lt;&gt;"ERROR"),G98+H97," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I98" s="34">
         <f>((D98+E98)-(B98+C98))*24</f>
@@ -4107,11 +4142,11 @@
       <c r="F101" s="34"/>
       <c r="G101" t="s" s="42">
         <f>IF(I101&gt;0,I101,IF(I101=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H101" t="s" s="40">
         <f>IF(AND(G101&lt;&gt;" ",G101&lt;&gt;"ERROR",H98&lt;&gt;" ",H98&lt;&gt;"ERROR"),G101+H98," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I101" s="34">
         <f>((D101+E101)-(B101+C101))*24</f>
@@ -4129,11 +4164,11 @@
       <c r="F102" s="34"/>
       <c r="G102" t="s" s="42">
         <f>IF(I102&gt;0,I102,IF(I102=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H102" t="s" s="40">
         <f>IF(AND(G102&lt;&gt;" ",G102&lt;&gt;"ERROR",H101&lt;&gt;" ",H101&lt;&gt;"ERROR"),G102+H101," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I102" s="34">
         <f>((D102+E102)-(B102+C102))*24</f>
@@ -4151,11 +4186,11 @@
       <c r="F103" s="34"/>
       <c r="G103" t="s" s="42">
         <f>IF(I103&gt;0,I103,IF(I103=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H103" t="s" s="40">
         <f>IF(AND(G103&lt;&gt;" ",G103&lt;&gt;"ERROR",H102&lt;&gt;" ",H102&lt;&gt;"ERROR"),G103+H102," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I103" s="34">
         <f>((D103+E103)-(B103+C103))*24</f>
@@ -4173,11 +4208,11 @@
       <c r="F104" s="34"/>
       <c r="G104" t="s" s="42">
         <f>IF(I104&gt;0,I104,IF(I104=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H104" t="s" s="40">
         <f>IF(AND(G104&lt;&gt;" ",G104&lt;&gt;"ERROR",H103&lt;&gt;" ",H103&lt;&gt;"ERROR"),G104+H103," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I104" s="34">
         <f>((D104+E104)-(B104+C104))*24</f>
@@ -4195,11 +4230,11 @@
       <c r="F105" s="34"/>
       <c r="G105" t="s" s="42">
         <f>IF(I105&gt;0,I105,IF(I105=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H105" t="s" s="40">
         <f>IF(AND(G105&lt;&gt;" ",G105&lt;&gt;"ERROR",H104&lt;&gt;" ",H104&lt;&gt;"ERROR"),G105+H104," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I105" s="34">
         <f>((D105+E105)-(B105+C105))*24</f>
@@ -4217,11 +4252,11 @@
       <c r="F106" s="34"/>
       <c r="G106" t="s" s="42">
         <f>IF(I106&gt;0,I106,IF(I106=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H106" t="s" s="40">
         <f>IF(AND(G106&lt;&gt;" ",G106&lt;&gt;"ERROR",H105&lt;&gt;" ",H105&lt;&gt;"ERROR"),G106+H105," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I106" s="34">
         <f>((D106+E106)-(B106+C106))*24</f>
@@ -4239,11 +4274,11 @@
       <c r="F107" s="34"/>
       <c r="G107" t="s" s="42">
         <f>IF(I107&gt;0,I107,IF(I107=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H107" t="s" s="40">
         <f>IF(AND(G107&lt;&gt;" ",G107&lt;&gt;"ERROR",H106&lt;&gt;" ",H106&lt;&gt;"ERROR"),G107+H106," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I107" s="34">
         <f>((D107+E107)-(B107+C107))*24</f>
@@ -4261,11 +4296,11 @@
       <c r="F108" s="34"/>
       <c r="G108" t="s" s="42">
         <f>IF(I108&gt;0,I108,IF(I108=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H108" t="s" s="40">
         <f>IF(AND(G108&lt;&gt;" ",G108&lt;&gt;"ERROR",H107&lt;&gt;" ",H107&lt;&gt;"ERROR"),G108+H107," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I108" s="34">
         <f>((D108+E108)-(B108+C108))*24</f>
@@ -4283,11 +4318,11 @@
       <c r="F109" s="34"/>
       <c r="G109" t="s" s="42">
         <f>IF(I109&gt;0,I109,IF(I109=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H109" t="s" s="40">
         <f>IF(AND(G109&lt;&gt;" ",G109&lt;&gt;"ERROR",H108&lt;&gt;" ",H108&lt;&gt;"ERROR"),G109+H108," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I109" s="34">
         <f>((D109+E109)-(B109+C109))*24</f>
@@ -4305,11 +4340,11 @@
       <c r="F110" s="34"/>
       <c r="G110" t="s" s="42">
         <f>IF(I110&gt;0,I110,IF(I110=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H110" t="s" s="40">
         <f>IF(AND(G110&lt;&gt;" ",G110&lt;&gt;"ERROR",H109&lt;&gt;" ",H109&lt;&gt;"ERROR"),G110+H109," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I110" s="34">
         <f>((D110+E110)-(B110+C110))*24</f>
@@ -4327,11 +4362,11 @@
       <c r="F111" s="34"/>
       <c r="G111" t="s" s="42">
         <f>IF(I111&gt;0,I111,IF(I111=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H111" t="s" s="40">
         <f>IF(AND(G111&lt;&gt;" ",G111&lt;&gt;"ERROR",H110&lt;&gt;" ",H110&lt;&gt;"ERROR"),G111+H110," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I111" s="34">
         <f>((D111+E111)-(B111+C111))*24</f>
@@ -4349,11 +4384,11 @@
       <c r="F112" s="34"/>
       <c r="G112" t="s" s="42">
         <f>IF(I112&gt;0,I112,IF(I112=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H112" t="s" s="40">
         <f>IF(AND(G112&lt;&gt;" ",G112&lt;&gt;"ERROR",H111&lt;&gt;" ",H111&lt;&gt;"ERROR"),G112+H111," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I112" s="34">
         <f>((D112+E112)-(B112+C112))*24</f>
@@ -4371,11 +4406,11 @@
       <c r="F113" s="34"/>
       <c r="G113" t="s" s="42">
         <f>IF(I113&gt;0,I113,IF(I113=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H113" t="s" s="40">
         <f>IF(AND(G113&lt;&gt;" ",G113&lt;&gt;"ERROR",H112&lt;&gt;" ",H112&lt;&gt;"ERROR"),G113+H112," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I113" s="34">
         <f>((D113+E113)-(B113+C113))*24</f>
@@ -4393,11 +4428,11 @@
       <c r="F114" s="34"/>
       <c r="G114" t="s" s="42">
         <f>IF(I114&gt;0,I114,IF(I114=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H114" t="s" s="40">
         <f>IF(AND(G114&lt;&gt;" ",G114&lt;&gt;"ERROR",H113&lt;&gt;" ",H113&lt;&gt;"ERROR"),G114+H113," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I114" s="34">
         <f>((D114+E114)-(B114+C114))*24</f>
@@ -4415,11 +4450,11 @@
       <c r="F115" s="34"/>
       <c r="G115" t="s" s="42">
         <f>IF(I115&gt;0,I115,IF(I115=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H115" t="s" s="40">
         <f>IF(AND(G115&lt;&gt;" ",G115&lt;&gt;"ERROR",H114&lt;&gt;" ",H114&lt;&gt;"ERROR"),G115+H114," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I115" s="34">
         <f>((D115+E115)-(B115+C115))*24</f>
@@ -4437,11 +4472,11 @@
       <c r="F116" s="34"/>
       <c r="G116" t="s" s="42">
         <f>IF(I116&gt;0,I116,IF(I116=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H116" t="s" s="40">
         <f>IF(AND(G116&lt;&gt;" ",G116&lt;&gt;"ERROR",H115&lt;&gt;" ",H115&lt;&gt;"ERROR"),G116+H115," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I116" s="34">
         <f>((D116+E116)-(B116+C116))*24</f>
@@ -4459,11 +4494,11 @@
       <c r="F117" s="34"/>
       <c r="G117" t="s" s="42">
         <f>IF(I117&gt;0,I117,IF(I117=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H117" t="s" s="40">
         <f>IF(AND(G117&lt;&gt;" ",G117&lt;&gt;"ERROR",H116&lt;&gt;" ",H116&lt;&gt;"ERROR"),G117+H116," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I117" s="34">
         <f>((D117+E117)-(B117+C117))*24</f>
@@ -4481,11 +4516,11 @@
       <c r="F118" s="34"/>
       <c r="G118" t="s" s="42">
         <f>IF(I118&gt;0,I118,IF(I118=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H118" t="s" s="40">
         <f>IF(AND(G118&lt;&gt;" ",G118&lt;&gt;"ERROR",H117&lt;&gt;" ",H117&lt;&gt;"ERROR"),G118+H117," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I118" s="34">
         <f>((D118+E118)-(B118+C118))*24</f>
@@ -4503,11 +4538,11 @@
       <c r="F119" s="34"/>
       <c r="G119" t="s" s="42">
         <f>IF(I119&gt;0,I119,IF(I119=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H119" t="s" s="40">
         <f>IF(AND(G119&lt;&gt;" ",G119&lt;&gt;"ERROR",H118&lt;&gt;" ",H118&lt;&gt;"ERROR"),G119+H118," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I119" s="34">
         <f>((D119+E119)-(B119+C119))*24</f>
@@ -4525,11 +4560,11 @@
       <c r="F120" s="34"/>
       <c r="G120" t="s" s="42">
         <f>IF(I120&gt;0,I120,IF(I120=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H120" t="s" s="40">
         <f>IF(AND(G120&lt;&gt;" ",G120&lt;&gt;"ERROR",H119&lt;&gt;" ",H119&lt;&gt;"ERROR"),G120+H119," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I120" s="34">
         <f>((D120+E120)-(B120+C120))*24</f>
@@ -4547,11 +4582,11 @@
       <c r="F121" s="34"/>
       <c r="G121" t="s" s="42">
         <f>IF(I121&gt;0,I121,IF(I121=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H121" t="s" s="40">
         <f>IF(AND(G121&lt;&gt;" ",G121&lt;&gt;"ERROR",H120&lt;&gt;" ",H120&lt;&gt;"ERROR"),G121+H120," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I121" s="34">
         <f>((D121+E121)-(B121+C121))*24</f>
@@ -4569,11 +4604,11 @@
       <c r="F122" s="34"/>
       <c r="G122" t="s" s="42">
         <f>IF(I122&gt;0,I122,IF(I122=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H122" t="s" s="40">
         <f>IF(AND(G122&lt;&gt;" ",G122&lt;&gt;"ERROR",H121&lt;&gt;" ",H121&lt;&gt;"ERROR"),G122+H121," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I122" s="34">
         <f>((D122+E122)-(B122+C122))*24</f>
@@ -4591,11 +4626,11 @@
       <c r="F123" s="34"/>
       <c r="G123" t="s" s="42">
         <f>IF(I123&gt;0,I123,IF(I123=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H123" t="s" s="40">
         <f>IF(AND(G123&lt;&gt;" ",G123&lt;&gt;"ERROR",H122&lt;&gt;" ",H122&lt;&gt;"ERROR"),G123+H122," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I123" s="34">
         <f>((D123+E123)-(B123+C123))*24</f>
@@ -4613,11 +4648,11 @@
       <c r="F124" s="34"/>
       <c r="G124" t="s" s="42">
         <f>IF(I124&gt;0,I124,IF(I124=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H124" t="s" s="40">
         <f>IF(AND(G124&lt;&gt;" ",G124&lt;&gt;"ERROR",H123&lt;&gt;" ",H123&lt;&gt;"ERROR"),G124+H123," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I124" s="34">
         <f>((D124+E124)-(B124+C124))*24</f>
@@ -4635,11 +4670,11 @@
       <c r="F125" s="34"/>
       <c r="G125" t="s" s="42">
         <f>IF(I125&gt;0,I125,IF(I125=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H125" t="s" s="40">
         <f>IF(AND(G125&lt;&gt;" ",G125&lt;&gt;"ERROR",H124&lt;&gt;" ",H124&lt;&gt;"ERROR"),G125+H124," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I125" s="34">
         <f>((D125+E125)-(B125+C125))*24</f>
@@ -4657,11 +4692,11 @@
       <c r="F126" s="34"/>
       <c r="G126" t="s" s="42">
         <f>IF(I126&gt;0,I126,IF(I126=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H126" t="s" s="40">
         <f>IF(AND(G126&lt;&gt;" ",G126&lt;&gt;"ERROR",H125&lt;&gt;" ",H125&lt;&gt;"ERROR"),G126+H125," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I126" s="34">
         <f>((D126+E126)-(B126+C126))*24</f>
@@ -4679,11 +4714,11 @@
       <c r="F127" s="34"/>
       <c r="G127" t="s" s="42">
         <f>IF(I127&gt;0,I127,IF(I127=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H127" t="s" s="40">
         <f>IF(AND(G127&lt;&gt;" ",G127&lt;&gt;"ERROR",H126&lt;&gt;" ",H126&lt;&gt;"ERROR"),G127+H126," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I127" s="34">
         <f>((D127+E127)-(B127+C127))*24</f>
@@ -4701,11 +4736,11 @@
       <c r="F128" s="34"/>
       <c r="G128" t="s" s="42">
         <f>IF(I128&gt;0,I128,IF(I128=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H128" t="s" s="40">
         <f>IF(AND(G128&lt;&gt;" ",G128&lt;&gt;"ERROR",H127&lt;&gt;" ",H127&lt;&gt;"ERROR"),G128+H127," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I128" s="34">
         <f>((D128+E128)-(B128+C128))*24</f>
@@ -4723,11 +4758,11 @@
       <c r="F129" s="34"/>
       <c r="G129" t="s" s="42">
         <f>IF(I129&gt;0,I129,IF(I129=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H129" t="s" s="40">
         <f>IF(AND(G129&lt;&gt;" ",G129&lt;&gt;"ERROR",H128&lt;&gt;" ",H128&lt;&gt;"ERROR"),G129+H128," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I129" s="34">
         <f>((D129+E129)-(B129+C129))*24</f>
@@ -4745,11 +4780,11 @@
       <c r="F130" s="34"/>
       <c r="G130" t="s" s="42">
         <f>IF(I130&gt;0,I130,IF(I130=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H130" t="s" s="40">
         <f>IF(AND(G130&lt;&gt;" ",G130&lt;&gt;"ERROR",H129&lt;&gt;" ",H129&lt;&gt;"ERROR"),G130+H129," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I130" s="34">
         <f>((D130+E130)-(B130+C130))*24</f>
@@ -4767,11 +4802,11 @@
       <c r="F131" s="34"/>
       <c r="G131" t="s" s="42">
         <f>IF(I131&gt;0,I131,IF(I131=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H131" t="s" s="40">
         <f>IF(AND(G131&lt;&gt;" ",G131&lt;&gt;"ERROR",H130&lt;&gt;" ",H130&lt;&gt;"ERROR"),G131+H130," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I131" s="34">
         <f>((D131+E131)-(B131+C131))*24</f>
@@ -4789,11 +4824,11 @@
       <c r="F132" s="34"/>
       <c r="G132" t="s" s="42">
         <f>IF(I132&gt;0,I132,IF(I132=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H132" t="s" s="40">
         <f>IF(AND(G132&lt;&gt;" ",G132&lt;&gt;"ERROR",H131&lt;&gt;" ",H131&lt;&gt;"ERROR"),G132+H131," ")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I132" s="34">
         <f>((D132+E132)-(B132+C132))*24</f>
@@ -4846,8 +4881,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="43" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="43" customWidth="1"/>
+    <col min="1" max="5" width="10.8516" style="44" customWidth="1"/>
+    <col min="6" max="256" width="10.8516" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -4937,8 +4972,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="44" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="44" customWidth="1"/>
+    <col min="1" max="5" width="10.8516" style="45" customWidth="1"/>
+    <col min="6" max="256" width="10.8516" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t xml:space="preserve">Client Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blender Sandbox modelling </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Client Meeting + Group Meeting</t>
+  </si>
+  <si>
+    <t>1.25</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1853,45 +1865,65 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="3">
+        <v>8</v>
+      </c>
+      <c r="B18" s="12">
+        <v>44459</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44463.375</v>
+      </c>
+      <c r="D18" s="12">
+        <v>44459</v>
+      </c>
+      <c r="E18" s="8">
+        <v>44463.083333333336</v>
+      </c>
+      <c r="F18" t="s" s="9">
+        <v>22</v>
+      </c>
       <c r="G18" t="s" s="11">
-        <f>IF(I18&gt;0,I18,IF(I18=0," ","ERROR"))</f>
-        <v>22</v>
-      </c>
-      <c r="H18" t="s" s="9">
+        <v>23</v>
+      </c>
+      <c r="H18" s="13">
         <f>IF(AND(G18&lt;&gt;" ",G18&lt;&gt;"ERROR",H17&lt;&gt;" ",H17&lt;&gt;"ERROR"),G18+H17," ")</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I18" s="3">
         <f>((D18+E18)-(B18+C18))*24</f>
-        <v>0</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" s="12">
+        <v>44461</v>
+      </c>
+      <c r="C19" s="8">
+        <v>44463.375</v>
+      </c>
+      <c r="D19" s="12">
+        <v>44461</v>
+      </c>
+      <c r="E19" s="8">
+        <v>44463.427083333336</v>
+      </c>
+      <c r="F19" t="s" s="9">
+        <v>24</v>
+      </c>
       <c r="G19" t="s" s="11">
-        <f>IF(I19&gt;0,I19,IF(I19=0," ","ERROR"))</f>
-        <v>22</v>
-      </c>
-      <c r="H19" t="s" s="9">
+        <v>25</v>
+      </c>
+      <c r="H19" s="13">
         <f>IF(AND(G19&lt;&gt;" ",G19&lt;&gt;"ERROR",H18&lt;&gt;" ",H18&lt;&gt;"ERROR"),G19+H18," ")</f>
-        <v>22</v>
+        <v>19.25</v>
       </c>
       <c r="I19" s="3">
         <f>((D19+E19)-(B19+C19))*24</f>
-        <v>0</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1905,11 +1937,11 @@
       <c r="F20" s="3"/>
       <c r="G20" t="s" s="11">
         <f>IF(I20&gt;0,I20,IF(I20=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s" s="9">
         <f>IF(AND(G20&lt;&gt;" ",G20&lt;&gt;"ERROR",H19&lt;&gt;" ",H19&lt;&gt;"ERROR"),G20+H19," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I20" s="3">
         <f>((D20+E20)-(B20+C20))*24</f>
@@ -1927,11 +1959,11 @@
       <c r="F21" s="3"/>
       <c r="G21" t="s" s="11">
         <f>IF(I21&gt;0,I21,IF(I21=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s" s="9">
         <f>IF(AND(G21&lt;&gt;" ",G21&lt;&gt;"ERROR",H20&lt;&gt;" ",H20&lt;&gt;"ERROR"),G21+H20," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I21" s="3">
         <f>((D21+E21)-(B21+C21))*24</f>
@@ -1949,11 +1981,11 @@
       <c r="F22" s="3"/>
       <c r="G22" t="s" s="11">
         <f>IF(I22&gt;0,I22,IF(I22=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s" s="9">
         <f>IF(AND(G22&lt;&gt;" ",G22&lt;&gt;"ERROR",H21&lt;&gt;" ",H21&lt;&gt;"ERROR"),G22+H21," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I22" s="3">
         <f>((D22+E22)-(B22+C22))*24</f>
@@ -1971,11 +2003,11 @@
       <c r="F23" s="3"/>
       <c r="G23" t="s" s="11">
         <f>IF(I23&gt;0,I23,IF(I23=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s" s="9">
         <f>IF(AND(G23&lt;&gt;" ",G23&lt;&gt;"ERROR",H22&lt;&gt;" ",H22&lt;&gt;"ERROR"),G23+H22," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I23" s="3">
         <f>((D23+E23)-(B23+C23))*24</f>
@@ -1993,11 +2025,11 @@
       <c r="F24" s="3"/>
       <c r="G24" t="s" s="11">
         <f>IF(I24&gt;0,I24,IF(I24=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s" s="9">
         <f>IF(AND(G24&lt;&gt;" ",G24&lt;&gt;"ERROR",H23&lt;&gt;" ",H23&lt;&gt;"ERROR"),G24+H23," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I24" s="3">
         <f>((D24+E24)-(B24+C24))*24</f>
@@ -2015,11 +2047,11 @@
       <c r="F25" s="3"/>
       <c r="G25" t="s" s="11">
         <f>IF(I25&gt;0,I25,IF(I25=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H25" t="s" s="9">
         <f>IF(AND(G25&lt;&gt;" ",G25&lt;&gt;"ERROR",H24&lt;&gt;" ",H24&lt;&gt;"ERROR"),G25+H24," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I25" s="3">
         <f>((D25+E25)-(B25+C25))*24</f>
@@ -2037,11 +2069,11 @@
       <c r="F26" s="3"/>
       <c r="G26" t="s" s="11">
         <f>IF(I26&gt;0,I26,IF(I26=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s" s="9">
         <f>IF(AND(G26&lt;&gt;" ",G26&lt;&gt;"ERROR",H25&lt;&gt;" ",H25&lt;&gt;"ERROR"),G26+H25," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I26" s="3">
         <f>((D26+E26)-(B26+C26))*24</f>
@@ -2059,11 +2091,11 @@
       <c r="F27" s="3"/>
       <c r="G27" t="s" s="11">
         <f>IF(I27&gt;0,I27,IF(I27=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s" s="9">
         <f>IF(AND(G27&lt;&gt;" ",G27&lt;&gt;"ERROR",H26&lt;&gt;" ",H26&lt;&gt;"ERROR"),G27+H26," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I27" s="3">
         <f>((D27+E27)-(B27+C27))*24</f>
@@ -2081,11 +2113,11 @@
       <c r="F28" s="3"/>
       <c r="G28" t="s" s="11">
         <f>IF(I28&gt;0,I28,IF(I28=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s" s="9">
         <f>IF(AND(G28&lt;&gt;" ",G28&lt;&gt;"ERROR",H27&lt;&gt;" ",H27&lt;&gt;"ERROR"),G28+H27," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I28" s="3">
         <f>((D28+E28)-(B28+C28))*24</f>
@@ -2103,11 +2135,11 @@
       <c r="F29" s="3"/>
       <c r="G29" t="s" s="11">
         <f>IF(I29&gt;0,I29,IF(I29=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s" s="9">
         <f>IF(AND(G29&lt;&gt;" ",G29&lt;&gt;"ERROR",H28&lt;&gt;" ",H28&lt;&gt;"ERROR"),G29+H28," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I29" s="3">
         <f>((D29+E29)-(B29+C29))*24</f>
@@ -2125,11 +2157,11 @@
       <c r="F30" s="3"/>
       <c r="G30" t="s" s="11">
         <f>IF(I30&gt;0,I30,IF(I30=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s" s="9">
         <f>IF(AND(G30&lt;&gt;" ",G30&lt;&gt;"ERROR",H29&lt;&gt;" ",H29&lt;&gt;"ERROR"),G30+H29," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I30" s="3">
         <f>((D30+E30)-(B30+C30))*24</f>
@@ -2197,11 +2229,11 @@
       <c r="F33" s="3"/>
       <c r="G33" t="s" s="11">
         <f>IF(I33&gt;0,I33,IF(I33=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s" s="9">
         <f>IF(AND(G33&lt;&gt;" ",G33&lt;&gt;"ERROR",H30&lt;&gt;" ",H30&lt;&gt;"ERROR"),G33+H30," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I33" s="3">
         <f>((D33+E33)-(B33+C33))*24</f>
@@ -2219,11 +2251,11 @@
       <c r="F34" s="3"/>
       <c r="G34" t="s" s="11">
         <f>IF(I34&gt;0,I34,IF(I34=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s" s="9">
         <f>IF(AND(G34&lt;&gt;" ",G34&lt;&gt;"ERROR",H33&lt;&gt;" ",H33&lt;&gt;"ERROR"),G34+H33," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I34" s="3">
         <f>((D34+E34)-(B34+C34))*24</f>
@@ -2241,11 +2273,11 @@
       <c r="F35" s="3"/>
       <c r="G35" t="s" s="11">
         <f>IF(I35&gt;0,I35,IF(I35=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H35" t="s" s="9">
         <f>IF(AND(G35&lt;&gt;" ",G35&lt;&gt;"ERROR",H34&lt;&gt;" ",H34&lt;&gt;"ERROR"),G35+H34," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I35" s="3">
         <f>((D35+E35)-(B35+C35))*24</f>
@@ -2263,11 +2295,11 @@
       <c r="F36" s="3"/>
       <c r="G36" t="s" s="11">
         <f>IF(I36&gt;0,I36,IF(I36=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H36" t="s" s="9">
         <f>IF(AND(G36&lt;&gt;" ",G36&lt;&gt;"ERROR",H35&lt;&gt;" ",H35&lt;&gt;"ERROR"),G36+H35," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I36" s="3">
         <f>((D36+E36)-(B36+C36))*24</f>
@@ -2285,11 +2317,11 @@
       <c r="F37" s="3"/>
       <c r="G37" t="s" s="11">
         <f>IF(I37&gt;0,I37,IF(I37=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s" s="9">
         <f>IF(AND(G37&lt;&gt;" ",G37&lt;&gt;"ERROR",H36&lt;&gt;" ",H36&lt;&gt;"ERROR"),G37+H36," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I37" s="3">
         <f>((D37+E37)-(B37+C37))*24</f>
@@ -2307,11 +2339,11 @@
       <c r="F38" s="3"/>
       <c r="G38" t="s" s="11">
         <f>IF(I38&gt;0,I38,IF(I38=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s" s="9">
         <f>IF(AND(G38&lt;&gt;" ",G38&lt;&gt;"ERROR",H37&lt;&gt;" ",H37&lt;&gt;"ERROR"),G38+H37," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I38" s="3">
         <f>((D38+E38)-(B38+C38))*24</f>
@@ -2329,11 +2361,11 @@
       <c r="F39" s="3"/>
       <c r="G39" t="s" s="11">
         <f>IF(I39&gt;0,I39,IF(I39=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H39" t="s" s="9">
         <f>IF(AND(G39&lt;&gt;" ",G39&lt;&gt;"ERROR",H38&lt;&gt;" ",H38&lt;&gt;"ERROR"),G39+H38," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I39" s="3">
         <f>((D39+E39)-(B39+C39))*24</f>
@@ -2351,11 +2383,11 @@
       <c r="F40" s="3"/>
       <c r="G40" t="s" s="11">
         <f>IF(I40&gt;0,I40,IF(I40=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H40" t="s" s="9">
         <f>IF(AND(G40&lt;&gt;" ",G40&lt;&gt;"ERROR",H39&lt;&gt;" ",H39&lt;&gt;"ERROR"),G40+H39," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I40" s="3">
         <f>((D40+E40)-(B40+C40))*24</f>
@@ -2373,11 +2405,11 @@
       <c r="F41" s="3"/>
       <c r="G41" t="s" s="11">
         <f>IF(I41&gt;0,I41,IF(I41=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H41" t="s" s="9">
         <f>IF(AND(G41&lt;&gt;" ",G41&lt;&gt;"ERROR",H40&lt;&gt;" ",H40&lt;&gt;"ERROR"),G41+H40," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I41" s="3">
         <f>((D41+E41)-(B41+C41))*24</f>
@@ -2395,11 +2427,11 @@
       <c r="F42" s="3"/>
       <c r="G42" t="s" s="11">
         <f>IF(I42&gt;0,I42,IF(I42=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H42" t="s" s="9">
         <f>IF(AND(G42&lt;&gt;" ",G42&lt;&gt;"ERROR",H41&lt;&gt;" ",H41&lt;&gt;"ERROR"),G42+H41," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I42" s="3">
         <f>((D42+E42)-(B42+C42))*24</f>
@@ -2417,11 +2449,11 @@
       <c r="F43" s="3"/>
       <c r="G43" t="s" s="11">
         <f>IF(I43&gt;0,I43,IF(I43=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H43" t="s" s="9">
         <f>IF(AND(G43&lt;&gt;" ",G43&lt;&gt;"ERROR",H42&lt;&gt;" ",H42&lt;&gt;"ERROR"),G43+H42," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I43" s="3">
         <f>((D43+E43)-(B43+C43))*24</f>
@@ -2439,11 +2471,11 @@
       <c r="F44" s="3"/>
       <c r="G44" t="s" s="11">
         <f>IF(I44&gt;0,I44,IF(I44=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H44" t="s" s="9">
         <f>IF(AND(G44&lt;&gt;" ",G44&lt;&gt;"ERROR",H43&lt;&gt;" ",H43&lt;&gt;"ERROR"),G44+H43," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I44" s="3">
         <f>((D44+E44)-(B44+C44))*24</f>
@@ -2461,11 +2493,11 @@
       <c r="F45" s="3"/>
       <c r="G45" t="s" s="11">
         <f>IF(I45&gt;0,I45,IF(I45=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s" s="9">
         <f>IF(AND(G45&lt;&gt;" ",G45&lt;&gt;"ERROR",H44&lt;&gt;" ",H44&lt;&gt;"ERROR"),G45+H44," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I45" s="3">
         <f>((D45+E45)-(B45+C45))*24</f>
@@ -2483,11 +2515,11 @@
       <c r="F46" s="3"/>
       <c r="G46" t="s" s="11">
         <f>IF(I46&gt;0,I46,IF(I46=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s" s="9">
         <f>IF(AND(G46&lt;&gt;" ",G46&lt;&gt;"ERROR",H45&lt;&gt;" ",H45&lt;&gt;"ERROR"),G46+H45," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I46" s="3">
         <f>((D46+E46)-(B46+C46))*24</f>
@@ -2505,11 +2537,11 @@
       <c r="F47" s="3"/>
       <c r="G47" t="s" s="11">
         <f>IF(I47&gt;0,I47,IF(I47=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H47" t="s" s="9">
         <f>IF(AND(G47&lt;&gt;" ",G47&lt;&gt;"ERROR",H46&lt;&gt;" ",H46&lt;&gt;"ERROR"),G47+H46," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I47" s="3">
         <f>((D47+E47)-(B47+C47))*24</f>
@@ -2527,11 +2559,11 @@
       <c r="F48" s="3"/>
       <c r="G48" t="s" s="11">
         <f>IF(I48&gt;0,I48,IF(I48=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H48" t="s" s="9">
         <f>IF(AND(G48&lt;&gt;" ",G48&lt;&gt;"ERROR",H47&lt;&gt;" ",H47&lt;&gt;"ERROR"),G48+H47," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I48" s="3">
         <f>((D48+E48)-(B48+C48))*24</f>
@@ -2549,11 +2581,11 @@
       <c r="F49" s="3"/>
       <c r="G49" t="s" s="11">
         <f>IF(I49&gt;0,I49,IF(I49=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H49" t="s" s="9">
         <f>IF(AND(G49&lt;&gt;" ",G49&lt;&gt;"ERROR",H48&lt;&gt;" ",H48&lt;&gt;"ERROR"),G49+H48," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I49" s="3">
         <f>((D49+E49)-(B49+C49))*24</f>
@@ -2571,11 +2603,11 @@
       <c r="F50" s="3"/>
       <c r="G50" t="s" s="11">
         <f>IF(I50&gt;0,I50,IF(I50=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H50" t="s" s="9">
         <f>IF(AND(G50&lt;&gt;" ",G50&lt;&gt;"ERROR",H49&lt;&gt;" ",H49&lt;&gt;"ERROR"),G50+H49," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I50" s="3">
         <f>((D50+E50)-(B50+C50))*24</f>
@@ -2593,11 +2625,11 @@
       <c r="F51" s="3"/>
       <c r="G51" t="s" s="11">
         <f>IF(I51&gt;0,I51,IF(I51=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H51" t="s" s="9">
         <f>IF(AND(G51&lt;&gt;" ",G51&lt;&gt;"ERROR",H50&lt;&gt;" ",H50&lt;&gt;"ERROR"),G51+H50," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I51" s="3">
         <f>((D51+E51)-(B51+C51))*24</f>
@@ -2615,11 +2647,11 @@
       <c r="F52" s="3"/>
       <c r="G52" t="s" s="11">
         <f>IF(I52&gt;0,I52,IF(I52=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H52" t="s" s="9">
         <f>IF(AND(G52&lt;&gt;" ",G52&lt;&gt;"ERROR",H51&lt;&gt;" ",H51&lt;&gt;"ERROR"),G52+H51," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I52" s="3">
         <f>((D52+E52)-(B52+C52))*24</f>
@@ -2637,11 +2669,11 @@
       <c r="F53" s="3"/>
       <c r="G53" t="s" s="11">
         <f>IF(I53&gt;0,I53,IF(I53=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H53" t="s" s="9">
         <f>IF(AND(G53&lt;&gt;" ",G53&lt;&gt;"ERROR",H52&lt;&gt;" ",H52&lt;&gt;"ERROR"),G53+H52," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I53" s="3">
         <f>((D53+E53)-(B53+C53))*24</f>
@@ -2659,11 +2691,11 @@
       <c r="F54" s="3"/>
       <c r="G54" t="s" s="11">
         <f>IF(I54&gt;0,I54,IF(I54=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s" s="9">
         <f>IF(AND(G54&lt;&gt;" ",G54&lt;&gt;"ERROR",H53&lt;&gt;" ",H53&lt;&gt;"ERROR"),G54+H53," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I54" s="3">
         <f>((D54+E54)-(B54+C54))*24</f>
@@ -2681,11 +2713,11 @@
       <c r="F55" s="3"/>
       <c r="G55" t="s" s="11">
         <f>IF(I55&gt;0,I55,IF(I55=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H55" t="s" s="9">
         <f>IF(AND(G55&lt;&gt;" ",G55&lt;&gt;"ERROR",H54&lt;&gt;" ",H54&lt;&gt;"ERROR"),G55+H54," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I55" s="3">
         <f>((D55+E55)-(B55+C55))*24</f>
@@ -2703,11 +2735,11 @@
       <c r="F56" s="3"/>
       <c r="G56" t="s" s="11">
         <f>IF(I56&gt;0,I56,IF(I56=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s" s="9">
         <f>IF(AND(G56&lt;&gt;" ",G56&lt;&gt;"ERROR",H55&lt;&gt;" ",H55&lt;&gt;"ERROR"),G56+H55," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I56" s="3">
         <f>((D56+E56)-(B56+C56))*24</f>
@@ -2725,11 +2757,11 @@
       <c r="F57" s="3"/>
       <c r="G57" t="s" s="11">
         <f>IF(I57&gt;0,I57,IF(I57=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H57" t="s" s="9">
         <f>IF(AND(G57&lt;&gt;" ",G57&lt;&gt;"ERROR",H56&lt;&gt;" ",H56&lt;&gt;"ERROR"),G57+H56," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I57" s="3">
         <f>((D57+E57)-(B57+C57))*24</f>
@@ -2747,11 +2779,11 @@
       <c r="F58" s="3"/>
       <c r="G58" t="s" s="11">
         <f>IF(I58&gt;0,I58,IF(I58=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s" s="9">
         <f>IF(AND(G58&lt;&gt;" ",G58&lt;&gt;"ERROR",H57&lt;&gt;" ",H57&lt;&gt;"ERROR"),G58+H57," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I58" s="3">
         <f>((D58+E58)-(B58+C58))*24</f>
@@ -2769,11 +2801,11 @@
       <c r="F59" s="3"/>
       <c r="G59" t="s" s="11">
         <f>IF(I59&gt;0,I59,IF(I59=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H59" t="s" s="9">
         <f>IF(AND(G59&lt;&gt;" ",G59&lt;&gt;"ERROR",H58&lt;&gt;" ",H58&lt;&gt;"ERROR"),G59+H58," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I59" s="3">
         <f>((D59+E59)-(B59+C59))*24</f>
@@ -2791,11 +2823,11 @@
       <c r="F60" s="3"/>
       <c r="G60" t="s" s="11">
         <f>IF(I60&gt;0,I60,IF(I60=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s" s="9">
         <f>IF(AND(G60&lt;&gt;" ",G60&lt;&gt;"ERROR",H59&lt;&gt;" ",H59&lt;&gt;"ERROR"),G60+H59," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I60" s="3">
         <f>((D60+E60)-(B60+C60))*24</f>
@@ -2813,11 +2845,11 @@
       <c r="F61" s="3"/>
       <c r="G61" t="s" s="11">
         <f>IF(I61&gt;0,I61,IF(I61=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H61" t="s" s="9">
         <f>IF(AND(G61&lt;&gt;" ",G61&lt;&gt;"ERROR",H60&lt;&gt;" ",H60&lt;&gt;"ERROR"),G61+H60," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I61" s="3">
         <f>((D61+E61)-(B61+C61))*24</f>
@@ -2835,11 +2867,11 @@
       <c r="F62" s="3"/>
       <c r="G62" t="s" s="11">
         <f>IF(I62&gt;0,I62,IF(I62=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H62" t="s" s="9">
         <f>IF(AND(G62&lt;&gt;" ",G62&lt;&gt;"ERROR",H61&lt;&gt;" ",H61&lt;&gt;"ERROR"),G62+H61," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I62" s="3">
         <f>((D62+E62)-(B62+C62))*24</f>
@@ -2857,11 +2889,11 @@
       <c r="F63" s="3"/>
       <c r="G63" t="s" s="11">
         <f>IF(I63&gt;0,I63,IF(I63=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H63" t="s" s="9">
         <f>IF(AND(G63&lt;&gt;" ",G63&lt;&gt;"ERROR",H62&lt;&gt;" ",H62&lt;&gt;"ERROR"),G63+H62," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I63" s="3">
         <f>((D63+E63)-(B63+C63))*24</f>
@@ -2879,11 +2911,11 @@
       <c r="F64" s="3"/>
       <c r="G64" t="s" s="11">
         <f>IF(I64&gt;0,I64,IF(I64=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s" s="9">
         <f>IF(AND(G64&lt;&gt;" ",G64&lt;&gt;"ERROR",H63&lt;&gt;" ",H63&lt;&gt;"ERROR"),G64+H63," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I64" s="3">
         <f>((D64+E64)-(B64+C64))*24</f>
@@ -2951,11 +2983,11 @@
       <c r="F67" s="3"/>
       <c r="G67" t="s" s="11">
         <f>IF(I67&gt;0,I67,IF(I67=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H67" t="s" s="9">
         <f>IF(AND(G67&lt;&gt;" ",G67&lt;&gt;"ERROR",H64&lt;&gt;" ",H64&lt;&gt;"ERROR"),G67+H64," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I67" s="3">
         <f>((D67+E67)-(B67+C67))*24</f>
@@ -2973,11 +3005,11 @@
       <c r="F68" s="3"/>
       <c r="G68" t="s" s="11">
         <f>IF(I68&gt;0,I68,IF(I68=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s" s="9">
         <f>IF(AND(G68&lt;&gt;" ",G68&lt;&gt;"ERROR",H67&lt;&gt;" ",H67&lt;&gt;"ERROR"),G68+H67," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I68" s="3">
         <f>((D68+E68)-(B68+C68))*24</f>
@@ -2995,11 +3027,11 @@
       <c r="F69" s="3"/>
       <c r="G69" t="s" s="11">
         <f>IF(I69&gt;0,I69,IF(I69=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H69" t="s" s="9">
         <f>IF(AND(G69&lt;&gt;" ",G69&lt;&gt;"ERROR",H68&lt;&gt;" ",H68&lt;&gt;"ERROR"),G69+H68," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I69" s="3">
         <f>((D69+E69)-(B69+C69))*24</f>
@@ -3017,11 +3049,11 @@
       <c r="F70" s="3"/>
       <c r="G70" t="s" s="11">
         <f>IF(I70&gt;0,I70,IF(I70=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s" s="9">
         <f>IF(AND(G70&lt;&gt;" ",G70&lt;&gt;"ERROR",H69&lt;&gt;" ",H69&lt;&gt;"ERROR"),G70+H69," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I70" s="3">
         <f>((D70+E70)-(B70+C70))*24</f>
@@ -3039,11 +3071,11 @@
       <c r="F71" s="3"/>
       <c r="G71" t="s" s="11">
         <f>IF(I71&gt;0,I71,IF(I71=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H71" t="s" s="9">
         <f>IF(AND(G71&lt;&gt;" ",G71&lt;&gt;"ERROR",H70&lt;&gt;" ",H70&lt;&gt;"ERROR"),G71+H70," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I71" s="3">
         <f>((D71+E71)-(B71+C71))*24</f>
@@ -3061,11 +3093,11 @@
       <c r="F72" s="3"/>
       <c r="G72" t="s" s="11">
         <f>IF(I72&gt;0,I72,IF(I72=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H72" t="s" s="9">
         <f>IF(AND(G72&lt;&gt;" ",G72&lt;&gt;"ERROR",H71&lt;&gt;" ",H71&lt;&gt;"ERROR"),G72+H71," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I72" s="3">
         <f>((D72+E72)-(B72+C72))*24</f>
@@ -3083,11 +3115,11 @@
       <c r="F73" s="3"/>
       <c r="G73" t="s" s="11">
         <f>IF(I73&gt;0,I73,IF(I73=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H73" t="s" s="9">
         <f>IF(AND(G73&lt;&gt;" ",G73&lt;&gt;"ERROR",H72&lt;&gt;" ",H72&lt;&gt;"ERROR"),G73+H72," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I73" s="3">
         <f>((D73+E73)-(B73+C73))*24</f>
@@ -3105,11 +3137,11 @@
       <c r="F74" s="3"/>
       <c r="G74" t="s" s="11">
         <f>IF(I74&gt;0,I74,IF(I74=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H74" t="s" s="9">
         <f>IF(AND(G74&lt;&gt;" ",G74&lt;&gt;"ERROR",H73&lt;&gt;" ",H73&lt;&gt;"ERROR"),G74+H73," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I74" s="3">
         <f>((D74+E74)-(B74+C74))*24</f>
@@ -3127,11 +3159,11 @@
       <c r="F75" s="3"/>
       <c r="G75" t="s" s="11">
         <f>IF(I75&gt;0,I75,IF(I75=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H75" t="s" s="9">
         <f>IF(AND(G75&lt;&gt;" ",G75&lt;&gt;"ERROR",H74&lt;&gt;" ",H74&lt;&gt;"ERROR"),G75+H74," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I75" s="3">
         <f>((D75+E75)-(B75+C75))*24</f>
@@ -3149,11 +3181,11 @@
       <c r="F76" s="3"/>
       <c r="G76" t="s" s="11">
         <f>IF(I76&gt;0,I76,IF(I76=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H76" t="s" s="9">
         <f>IF(AND(G76&lt;&gt;" ",G76&lt;&gt;"ERROR",H75&lt;&gt;" ",H75&lt;&gt;"ERROR"),G76+H75," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I76" s="3">
         <f>((D76+E76)-(B76+C76))*24</f>
@@ -3171,11 +3203,11 @@
       <c r="F77" s="3"/>
       <c r="G77" t="s" s="11">
         <f>IF(I77&gt;0,I77,IF(I77=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H77" t="s" s="9">
         <f>IF(AND(G77&lt;&gt;" ",G77&lt;&gt;"ERROR",H76&lt;&gt;" ",H76&lt;&gt;"ERROR"),G77+H76," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I77" s="3">
         <f>((D77+E77)-(B77+C77))*24</f>
@@ -3193,11 +3225,11 @@
       <c r="F78" s="3"/>
       <c r="G78" t="s" s="11">
         <f>IF(I78&gt;0,I78,IF(I78=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H78" t="s" s="9">
         <f>IF(AND(G78&lt;&gt;" ",G78&lt;&gt;"ERROR",H77&lt;&gt;" ",H77&lt;&gt;"ERROR"),G78+H77," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I78" s="3">
         <f>((D78+E78)-(B78+C78))*24</f>
@@ -3215,11 +3247,11 @@
       <c r="F79" s="3"/>
       <c r="G79" t="s" s="11">
         <f>IF(I79&gt;0,I79,IF(I79=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H79" t="s" s="9">
         <f>IF(AND(G79&lt;&gt;" ",G79&lt;&gt;"ERROR",H78&lt;&gt;" ",H78&lt;&gt;"ERROR"),G79+H78," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I79" s="3">
         <f>((D79+E79)-(B79+C79))*24</f>
@@ -3237,11 +3269,11 @@
       <c r="F80" s="3"/>
       <c r="G80" t="s" s="11">
         <f>IF(I80&gt;0,I80,IF(I80=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H80" t="s" s="9">
         <f>IF(AND(G80&lt;&gt;" ",G80&lt;&gt;"ERROR",H79&lt;&gt;" ",H79&lt;&gt;"ERROR"),G80+H79," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I80" s="3">
         <f>((D80+E80)-(B80+C80))*24</f>
@@ -3259,11 +3291,11 @@
       <c r="F81" s="3"/>
       <c r="G81" t="s" s="11">
         <f>IF(I81&gt;0,I81,IF(I81=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H81" t="s" s="9">
         <f>IF(AND(G81&lt;&gt;" ",G81&lt;&gt;"ERROR",H80&lt;&gt;" ",H80&lt;&gt;"ERROR"),G81+H80," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I81" s="3">
         <f>((D81+E81)-(B81+C81))*24</f>
@@ -3281,11 +3313,11 @@
       <c r="F82" s="3"/>
       <c r="G82" t="s" s="11">
         <f>IF(I82&gt;0,I82,IF(I82=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H82" t="s" s="9">
         <f>IF(AND(G82&lt;&gt;" ",G82&lt;&gt;"ERROR",H81&lt;&gt;" ",H81&lt;&gt;"ERROR"),G82+H81," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I82" s="3">
         <f>((D82+E82)-(B82+C82))*24</f>
@@ -3303,11 +3335,11 @@
       <c r="F83" s="3"/>
       <c r="G83" t="s" s="11">
         <f>IF(I83&gt;0,I83,IF(I83=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H83" t="s" s="9">
         <f>IF(AND(G83&lt;&gt;" ",G83&lt;&gt;"ERROR",H82&lt;&gt;" ",H82&lt;&gt;"ERROR"),G83+H82," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I83" s="3">
         <f>((D83+E83)-(B83+C83))*24</f>
@@ -3325,11 +3357,11 @@
       <c r="F84" s="3"/>
       <c r="G84" t="s" s="11">
         <f>IF(I84&gt;0,I84,IF(I84=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H84" t="s" s="9">
         <f>IF(AND(G84&lt;&gt;" ",G84&lt;&gt;"ERROR",H83&lt;&gt;" ",H83&lt;&gt;"ERROR"),G84+H83," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I84" s="3">
         <f>((D84+E84)-(B84+C84))*24</f>
@@ -3347,11 +3379,11 @@
       <c r="F85" s="3"/>
       <c r="G85" t="s" s="11">
         <f>IF(I85&gt;0,I85,IF(I85=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H85" t="s" s="9">
         <f>IF(AND(G85&lt;&gt;" ",G85&lt;&gt;"ERROR",H84&lt;&gt;" ",H84&lt;&gt;"ERROR"),G85+H84," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I85" s="3">
         <f>((D85+E85)-(B85+C85))*24</f>
@@ -3369,11 +3401,11 @@
       <c r="F86" s="3"/>
       <c r="G86" t="s" s="11">
         <f>IF(I86&gt;0,I86,IF(I86=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H86" t="s" s="9">
         <f>IF(AND(G86&lt;&gt;" ",G86&lt;&gt;"ERROR",H85&lt;&gt;" ",H85&lt;&gt;"ERROR"),G86+H85," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I86" s="3">
         <f>((D86+E86)-(B86+C86))*24</f>
@@ -3391,11 +3423,11 @@
       <c r="F87" s="3"/>
       <c r="G87" t="s" s="11">
         <f>IF(I87&gt;0,I87,IF(I87=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H87" t="s" s="9">
         <f>IF(AND(G87&lt;&gt;" ",G87&lt;&gt;"ERROR",H86&lt;&gt;" ",H86&lt;&gt;"ERROR"),G87+H86," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I87" s="3">
         <f>((D87+E87)-(B87+C87))*24</f>
@@ -3413,11 +3445,11 @@
       <c r="F88" s="3"/>
       <c r="G88" t="s" s="11">
         <f>IF(I88&gt;0,I88,IF(I88=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H88" t="s" s="9">
         <f>IF(AND(G88&lt;&gt;" ",G88&lt;&gt;"ERROR",H87&lt;&gt;" ",H87&lt;&gt;"ERROR"),G88+H87," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I88" s="3">
         <f>((D88+E88)-(B88+C88))*24</f>
@@ -3435,11 +3467,11 @@
       <c r="F89" s="3"/>
       <c r="G89" t="s" s="11">
         <f>IF(I89&gt;0,I89,IF(I89=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H89" t="s" s="9">
         <f>IF(AND(G89&lt;&gt;" ",G89&lt;&gt;"ERROR",H88&lt;&gt;" ",H88&lt;&gt;"ERROR"),G89+H88," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I89" s="3">
         <f>((D89+E89)-(B89+C89))*24</f>
@@ -3457,11 +3489,11 @@
       <c r="F90" s="3"/>
       <c r="G90" t="s" s="11">
         <f>IF(I90&gt;0,I90,IF(I90=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H90" t="s" s="9">
         <f>IF(AND(G90&lt;&gt;" ",G90&lt;&gt;"ERROR",H89&lt;&gt;" ",H89&lt;&gt;"ERROR"),G90+H89," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I90" s="3">
         <f>((D90+E90)-(B90+C90))*24</f>
@@ -3479,11 +3511,11 @@
       <c r="F91" s="3"/>
       <c r="G91" t="s" s="11">
         <f>IF(I91&gt;0,I91,IF(I91=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H91" t="s" s="9">
         <f>IF(AND(G91&lt;&gt;" ",G91&lt;&gt;"ERROR",H90&lt;&gt;" ",H90&lt;&gt;"ERROR"),G91+H90," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I91" s="3">
         <f>((D91+E91)-(B91+C91))*24</f>
@@ -3501,11 +3533,11 @@
       <c r="F92" s="3"/>
       <c r="G92" t="s" s="11">
         <f>IF(I92&gt;0,I92,IF(I92=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H92" t="s" s="9">
         <f>IF(AND(G92&lt;&gt;" ",G92&lt;&gt;"ERROR",H91&lt;&gt;" ",H91&lt;&gt;"ERROR"),G92+H91," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I92" s="3">
         <f>((D92+E92)-(B92+C92))*24</f>
@@ -3523,11 +3555,11 @@
       <c r="F93" s="3"/>
       <c r="G93" t="s" s="11">
         <f>IF(I93&gt;0,I93,IF(I93=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H93" t="s" s="9">
         <f>IF(AND(G93&lt;&gt;" ",G93&lt;&gt;"ERROR",H92&lt;&gt;" ",H92&lt;&gt;"ERROR"),G93+H92," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I93" s="3">
         <f>((D93+E93)-(B93+C93))*24</f>
@@ -3545,11 +3577,11 @@
       <c r="F94" s="3"/>
       <c r="G94" t="s" s="11">
         <f>IF(I94&gt;0,I94,IF(I94=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H94" t="s" s="9">
         <f>IF(AND(G94&lt;&gt;" ",G94&lt;&gt;"ERROR",H93&lt;&gt;" ",H93&lt;&gt;"ERROR"),G94+H93," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I94" s="3">
         <f>((D94+E94)-(B94+C94))*24</f>
@@ -3567,11 +3599,11 @@
       <c r="F95" s="3"/>
       <c r="G95" t="s" s="11">
         <f>IF(I95&gt;0,I95,IF(I95=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H95" t="s" s="9">
         <f>IF(AND(G95&lt;&gt;" ",G95&lt;&gt;"ERROR",H94&lt;&gt;" ",H94&lt;&gt;"ERROR"),G95+H94," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I95" s="3">
         <f>((D95+E95)-(B95+C95))*24</f>
@@ -3589,11 +3621,11 @@
       <c r="F96" s="3"/>
       <c r="G96" t="s" s="11">
         <f>IF(I96&gt;0,I96,IF(I96=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H96" t="s" s="9">
         <f>IF(AND(G96&lt;&gt;" ",G96&lt;&gt;"ERROR",H95&lt;&gt;" ",H95&lt;&gt;"ERROR"),G96+H95," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I96" s="3">
         <f>((D96+E96)-(B96+C96))*24</f>
@@ -3611,11 +3643,11 @@
       <c r="F97" s="3"/>
       <c r="G97" t="s" s="11">
         <f>IF(I97&gt;0,I97,IF(I97=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H97" t="s" s="9">
         <f>IF(AND(G97&lt;&gt;" ",G97&lt;&gt;"ERROR",H96&lt;&gt;" ",H96&lt;&gt;"ERROR"),G97+H96," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I97" s="3">
         <f>((D97+E97)-(B97+C97))*24</f>
@@ -3633,11 +3665,11 @@
       <c r="F98" s="3"/>
       <c r="G98" t="s" s="11">
         <f>IF(I98&gt;0,I98,IF(I98=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H98" t="s" s="9">
         <f>IF(AND(G98&lt;&gt;" ",G98&lt;&gt;"ERROR",H97&lt;&gt;" ",H97&lt;&gt;"ERROR"),G98+H97," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I98" s="3">
         <f>((D98+E98)-(B98+C98))*24</f>
@@ -3705,11 +3737,11 @@
       <c r="F101" s="3"/>
       <c r="G101" t="s" s="11">
         <f>IF(I101&gt;0,I101,IF(I101=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H101" t="s" s="9">
         <f>IF(AND(G101&lt;&gt;" ",G101&lt;&gt;"ERROR",H98&lt;&gt;" ",H98&lt;&gt;"ERROR"),G101+H98," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I101" s="3">
         <f>((D101+E101)-(B101+C101))*24</f>
@@ -3727,11 +3759,11 @@
       <c r="F102" s="3"/>
       <c r="G102" t="s" s="11">
         <f>IF(I102&gt;0,I102,IF(I102=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H102" t="s" s="9">
         <f>IF(AND(G102&lt;&gt;" ",G102&lt;&gt;"ERROR",H101&lt;&gt;" ",H101&lt;&gt;"ERROR"),G102+H101," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I102" s="3">
         <f>((D102+E102)-(B102+C102))*24</f>
@@ -3749,11 +3781,11 @@
       <c r="F103" s="3"/>
       <c r="G103" t="s" s="11">
         <f>IF(I103&gt;0,I103,IF(I103=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H103" t="s" s="9">
         <f>IF(AND(G103&lt;&gt;" ",G103&lt;&gt;"ERROR",H102&lt;&gt;" ",H102&lt;&gt;"ERROR"),G103+H102," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I103" s="3">
         <f>((D103+E103)-(B103+C103))*24</f>
@@ -3771,11 +3803,11 @@
       <c r="F104" s="3"/>
       <c r="G104" t="s" s="11">
         <f>IF(I104&gt;0,I104,IF(I104=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H104" t="s" s="9">
         <f>IF(AND(G104&lt;&gt;" ",G104&lt;&gt;"ERROR",H103&lt;&gt;" ",H103&lt;&gt;"ERROR"),G104+H103," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I104" s="3">
         <f>((D104+E104)-(B104+C104))*24</f>
@@ -3793,11 +3825,11 @@
       <c r="F105" s="3"/>
       <c r="G105" t="s" s="11">
         <f>IF(I105&gt;0,I105,IF(I105=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H105" t="s" s="9">
         <f>IF(AND(G105&lt;&gt;" ",G105&lt;&gt;"ERROR",H104&lt;&gt;" ",H104&lt;&gt;"ERROR"),G105+H104," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I105" s="3">
         <f>((D105+E105)-(B105+C105))*24</f>
@@ -3815,11 +3847,11 @@
       <c r="F106" s="3"/>
       <c r="G106" t="s" s="11">
         <f>IF(I106&gt;0,I106,IF(I106=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H106" t="s" s="9">
         <f>IF(AND(G106&lt;&gt;" ",G106&lt;&gt;"ERROR",H105&lt;&gt;" ",H105&lt;&gt;"ERROR"),G106+H105," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I106" s="3">
         <f>((D106+E106)-(B106+C106))*24</f>
@@ -3837,11 +3869,11 @@
       <c r="F107" s="3"/>
       <c r="G107" t="s" s="11">
         <f>IF(I107&gt;0,I107,IF(I107=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H107" t="s" s="9">
         <f>IF(AND(G107&lt;&gt;" ",G107&lt;&gt;"ERROR",H106&lt;&gt;" ",H106&lt;&gt;"ERROR"),G107+H106," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I107" s="3">
         <f>((D107+E107)-(B107+C107))*24</f>
@@ -3859,11 +3891,11 @@
       <c r="F108" s="3"/>
       <c r="G108" t="s" s="11">
         <f>IF(I108&gt;0,I108,IF(I108=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H108" t="s" s="9">
         <f>IF(AND(G108&lt;&gt;" ",G108&lt;&gt;"ERROR",H107&lt;&gt;" ",H107&lt;&gt;"ERROR"),G108+H107," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I108" s="3">
         <f>((D108+E108)-(B108+C108))*24</f>
@@ -3881,11 +3913,11 @@
       <c r="F109" s="3"/>
       <c r="G109" t="s" s="11">
         <f>IF(I109&gt;0,I109,IF(I109=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H109" t="s" s="9">
         <f>IF(AND(G109&lt;&gt;" ",G109&lt;&gt;"ERROR",H108&lt;&gt;" ",H108&lt;&gt;"ERROR"),G109+H108," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I109" s="3">
         <f>((D109+E109)-(B109+C109))*24</f>
@@ -3903,11 +3935,11 @@
       <c r="F110" s="3"/>
       <c r="G110" t="s" s="11">
         <f>IF(I110&gt;0,I110,IF(I110=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H110" t="s" s="9">
         <f>IF(AND(G110&lt;&gt;" ",G110&lt;&gt;"ERROR",H109&lt;&gt;" ",H109&lt;&gt;"ERROR"),G110+H109," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I110" s="3">
         <f>((D110+E110)-(B110+C110))*24</f>
@@ -3925,11 +3957,11 @@
       <c r="F111" s="3"/>
       <c r="G111" t="s" s="11">
         <f>IF(I111&gt;0,I111,IF(I111=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H111" t="s" s="9">
         <f>IF(AND(G111&lt;&gt;" ",G111&lt;&gt;"ERROR",H110&lt;&gt;" ",H110&lt;&gt;"ERROR"),G111+H110," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I111" s="3">
         <f>((D111+E111)-(B111+C111))*24</f>
@@ -3947,11 +3979,11 @@
       <c r="F112" s="3"/>
       <c r="G112" t="s" s="11">
         <f>IF(I112&gt;0,I112,IF(I112=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H112" t="s" s="9">
         <f>IF(AND(G112&lt;&gt;" ",G112&lt;&gt;"ERROR",H111&lt;&gt;" ",H111&lt;&gt;"ERROR"),G112+H111," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I112" s="3">
         <f>((D112+E112)-(B112+C112))*24</f>
@@ -3969,11 +4001,11 @@
       <c r="F113" s="3"/>
       <c r="G113" t="s" s="11">
         <f>IF(I113&gt;0,I113,IF(I113=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H113" t="s" s="9">
         <f>IF(AND(G113&lt;&gt;" ",G113&lt;&gt;"ERROR",H112&lt;&gt;" ",H112&lt;&gt;"ERROR"),G113+H112," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I113" s="3">
         <f>((D113+E113)-(B113+C113))*24</f>
@@ -3991,11 +4023,11 @@
       <c r="F114" s="3"/>
       <c r="G114" t="s" s="11">
         <f>IF(I114&gt;0,I114,IF(I114=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H114" t="s" s="9">
         <f>IF(AND(G114&lt;&gt;" ",G114&lt;&gt;"ERROR",H113&lt;&gt;" ",H113&lt;&gt;"ERROR"),G114+H113," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I114" s="3">
         <f>((D114+E114)-(B114+C114))*24</f>
@@ -4013,11 +4045,11 @@
       <c r="F115" s="3"/>
       <c r="G115" t="s" s="11">
         <f>IF(I115&gt;0,I115,IF(I115=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H115" t="s" s="9">
         <f>IF(AND(G115&lt;&gt;" ",G115&lt;&gt;"ERROR",H114&lt;&gt;" ",H114&lt;&gt;"ERROR"),G115+H114," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I115" s="3">
         <f>((D115+E115)-(B115+C115))*24</f>
@@ -4035,11 +4067,11 @@
       <c r="F116" s="3"/>
       <c r="G116" t="s" s="11">
         <f>IF(I116&gt;0,I116,IF(I116=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H116" t="s" s="9">
         <f>IF(AND(G116&lt;&gt;" ",G116&lt;&gt;"ERROR",H115&lt;&gt;" ",H115&lt;&gt;"ERROR"),G116+H115," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I116" s="3">
         <f>((D116+E116)-(B116+C116))*24</f>
@@ -4057,11 +4089,11 @@
       <c r="F117" s="3"/>
       <c r="G117" t="s" s="11">
         <f>IF(I117&gt;0,I117,IF(I117=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H117" t="s" s="9">
         <f>IF(AND(G117&lt;&gt;" ",G117&lt;&gt;"ERROR",H116&lt;&gt;" ",H116&lt;&gt;"ERROR"),G117+H116," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I117" s="3">
         <f>((D117+E117)-(B117+C117))*24</f>
@@ -4079,11 +4111,11 @@
       <c r="F118" s="3"/>
       <c r="G118" t="s" s="11">
         <f>IF(I118&gt;0,I118,IF(I118=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H118" t="s" s="9">
         <f>IF(AND(G118&lt;&gt;" ",G118&lt;&gt;"ERROR",H117&lt;&gt;" ",H117&lt;&gt;"ERROR"),G118+H117," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I118" s="3">
         <f>((D118+E118)-(B118+C118))*24</f>
@@ -4101,11 +4133,11 @@
       <c r="F119" s="3"/>
       <c r="G119" t="s" s="11">
         <f>IF(I119&gt;0,I119,IF(I119=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H119" t="s" s="9">
         <f>IF(AND(G119&lt;&gt;" ",G119&lt;&gt;"ERROR",H118&lt;&gt;" ",H118&lt;&gt;"ERROR"),G119+H118," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I119" s="3">
         <f>((D119+E119)-(B119+C119))*24</f>
@@ -4123,11 +4155,11 @@
       <c r="F120" s="3"/>
       <c r="G120" t="s" s="11">
         <f>IF(I120&gt;0,I120,IF(I120=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H120" t="s" s="9">
         <f>IF(AND(G120&lt;&gt;" ",G120&lt;&gt;"ERROR",H119&lt;&gt;" ",H119&lt;&gt;"ERROR"),G120+H119," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I120" s="3">
         <f>((D120+E120)-(B120+C120))*24</f>
@@ -4145,11 +4177,11 @@
       <c r="F121" s="3"/>
       <c r="G121" t="s" s="11">
         <f>IF(I121&gt;0,I121,IF(I121=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H121" t="s" s="9">
         <f>IF(AND(G121&lt;&gt;" ",G121&lt;&gt;"ERROR",H120&lt;&gt;" ",H120&lt;&gt;"ERROR"),G121+H120," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I121" s="3">
         <f>((D121+E121)-(B121+C121))*24</f>
@@ -4167,11 +4199,11 @@
       <c r="F122" s="3"/>
       <c r="G122" t="s" s="11">
         <f>IF(I122&gt;0,I122,IF(I122=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H122" t="s" s="9">
         <f>IF(AND(G122&lt;&gt;" ",G122&lt;&gt;"ERROR",H121&lt;&gt;" ",H121&lt;&gt;"ERROR"),G122+H121," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I122" s="3">
         <f>((D122+E122)-(B122+C122))*24</f>
@@ -4189,11 +4221,11 @@
       <c r="F123" s="3"/>
       <c r="G123" t="s" s="11">
         <f>IF(I123&gt;0,I123,IF(I123=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H123" t="s" s="9">
         <f>IF(AND(G123&lt;&gt;" ",G123&lt;&gt;"ERROR",H122&lt;&gt;" ",H122&lt;&gt;"ERROR"),G123+H122," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I123" s="3">
         <f>((D123+E123)-(B123+C123))*24</f>
@@ -4211,11 +4243,11 @@
       <c r="F124" s="3"/>
       <c r="G124" t="s" s="11">
         <f>IF(I124&gt;0,I124,IF(I124=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H124" t="s" s="9">
         <f>IF(AND(G124&lt;&gt;" ",G124&lt;&gt;"ERROR",H123&lt;&gt;" ",H123&lt;&gt;"ERROR"),G124+H123," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I124" s="3">
         <f>((D124+E124)-(B124+C124))*24</f>
@@ -4233,11 +4265,11 @@
       <c r="F125" s="3"/>
       <c r="G125" t="s" s="11">
         <f>IF(I125&gt;0,I125,IF(I125=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H125" t="s" s="9">
         <f>IF(AND(G125&lt;&gt;" ",G125&lt;&gt;"ERROR",H124&lt;&gt;" ",H124&lt;&gt;"ERROR"),G125+H124," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I125" s="3">
         <f>((D125+E125)-(B125+C125))*24</f>
@@ -4255,11 +4287,11 @@
       <c r="F126" s="3"/>
       <c r="G126" t="s" s="11">
         <f>IF(I126&gt;0,I126,IF(I126=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H126" t="s" s="9">
         <f>IF(AND(G126&lt;&gt;" ",G126&lt;&gt;"ERROR",H125&lt;&gt;" ",H125&lt;&gt;"ERROR"),G126+H125," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I126" s="3">
         <f>((D126+E126)-(B126+C126))*24</f>
@@ -4277,11 +4309,11 @@
       <c r="F127" s="3"/>
       <c r="G127" t="s" s="11">
         <f>IF(I127&gt;0,I127,IF(I127=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H127" t="s" s="9">
         <f>IF(AND(G127&lt;&gt;" ",G127&lt;&gt;"ERROR",H126&lt;&gt;" ",H126&lt;&gt;"ERROR"),G127+H126," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I127" s="3">
         <f>((D127+E127)-(B127+C127))*24</f>
@@ -4299,11 +4331,11 @@
       <c r="F128" s="3"/>
       <c r="G128" t="s" s="11">
         <f>IF(I128&gt;0,I128,IF(I128=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H128" t="s" s="9">
         <f>IF(AND(G128&lt;&gt;" ",G128&lt;&gt;"ERROR",H127&lt;&gt;" ",H127&lt;&gt;"ERROR"),G128+H127," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I128" s="3">
         <f>((D128+E128)-(B128+C128))*24</f>
@@ -4321,11 +4353,11 @@
       <c r="F129" s="3"/>
       <c r="G129" t="s" s="11">
         <f>IF(I129&gt;0,I129,IF(I129=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H129" t="s" s="9">
         <f>IF(AND(G129&lt;&gt;" ",G129&lt;&gt;"ERROR",H128&lt;&gt;" ",H128&lt;&gt;"ERROR"),G129+H128," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I129" s="3">
         <f>((D129+E129)-(B129+C129))*24</f>
@@ -4343,11 +4375,11 @@
       <c r="F130" s="3"/>
       <c r="G130" t="s" s="11">
         <f>IF(I130&gt;0,I130,IF(I130=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H130" t="s" s="9">
         <f>IF(AND(G130&lt;&gt;" ",G130&lt;&gt;"ERROR",H129&lt;&gt;" ",H129&lt;&gt;"ERROR"),G130+H129," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I130" s="3">
         <f>((D130+E130)-(B130+C130))*24</f>
@@ -4365,11 +4397,11 @@
       <c r="F131" s="3"/>
       <c r="G131" t="s" s="11">
         <f>IF(I131&gt;0,I131,IF(I131=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H131" t="s" s="9">
         <f>IF(AND(G131&lt;&gt;" ",G131&lt;&gt;"ERROR",H130&lt;&gt;" ",H130&lt;&gt;"ERROR"),G131+H130," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I131" s="3">
         <f>((D131+E131)-(B131+C131))*24</f>
@@ -4387,11 +4419,11 @@
       <c r="F132" s="3"/>
       <c r="G132" t="s" s="11">
         <f>IF(I132&gt;0,I132,IF(I132=0," ","ERROR"))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H132" t="s" s="9">
         <f>IF(AND(G132&lt;&gt;" ",G132&lt;&gt;"ERROR",H131&lt;&gt;" ",H131&lt;&gt;"ERROR"),G132+H131," ")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I132" s="3">
         <f>((D132+E132)-(B132+C132))*24</f>

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -111,6 +111,15 @@
     <t>1.25</t>
   </si>
   <si>
+    <t>Blender + Unity Light Baking Tutorials</t>
+  </si>
+  <si>
+    <t>Light Baking + UV Unwrapping in Blender+Unity</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
 </sst>
@@ -118,9 +127,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="60" formatCode="d/m/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -192,7 +202,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -234,6 +244,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1929,63 +1942,83 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="3">
+        <v>9</v>
+      </c>
+      <c r="B20" s="12">
+        <v>44473</v>
+      </c>
+      <c r="C20" s="8">
+        <v>44473.5</v>
+      </c>
+      <c r="D20" s="14">
+        <v>44473</v>
+      </c>
+      <c r="E20" s="8">
+        <v>44473.541666666664</v>
+      </c>
+      <c r="F20" t="s" s="9">
+        <v>26</v>
+      </c>
       <c r="G20" t="s" s="11">
-        <f>IF(I20&gt;0,I20,IF(I20=0," ","ERROR"))</f>
-        <v>26</v>
-      </c>
-      <c r="H20" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="H20" s="13">
         <f>IF(AND(G20&lt;&gt;" ",G20&lt;&gt;"ERROR",H19&lt;&gt;" ",H19&lt;&gt;"ERROR"),G20+H19," ")</f>
-        <v>26</v>
+        <v>20.25</v>
       </c>
       <c r="I20" s="3">
         <f>((D20+E20)-(B20+C20))*24</f>
-        <v>0</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="3"/>
+      <c r="A21" s="3">
+        <v>9</v>
+      </c>
+      <c r="B21" s="12">
+        <v>44473</v>
+      </c>
+      <c r="C21" s="8">
+        <v>44473.541666666664</v>
+      </c>
+      <c r="D21" s="14">
+        <v>44473</v>
+      </c>
+      <c r="E21" s="7">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s" s="9">
+        <v>27</v>
+      </c>
       <c r="G21" t="s" s="11">
-        <f>IF(I21&gt;0,I21,IF(I21=0," ","ERROR"))</f>
-        <v>26</v>
-      </c>
-      <c r="H21" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="H21" s="13">
         <f>IF(AND(G21&lt;&gt;" ",G21&lt;&gt;"ERROR",H20&lt;&gt;" ",H20&lt;&gt;"ERROR"),G21+H20," ")</f>
-        <v>26</v>
+        <v>26.25</v>
       </c>
       <c r="I21" s="3">
         <f>((D21+E21)-(B21+C21))*24</f>
-        <v>0</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="14"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3"/>
       <c r="G22" t="s" s="11">
         <f>IF(I22&gt;0,I22,IF(I22=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s" s="9">
         <f>IF(AND(G22&lt;&gt;" ",G22&lt;&gt;"ERROR",H21&lt;&gt;" ",H21&lt;&gt;"ERROR"),G22+H21," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I22" s="3">
         <f>((D22+E22)-(B22+C22))*24</f>
@@ -1996,18 +2029,18 @@
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="8"/>
       <c r="F23" s="3"/>
       <c r="G23" t="s" s="11">
         <f>IF(I23&gt;0,I23,IF(I23=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s" s="9">
         <f>IF(AND(G23&lt;&gt;" ",G23&lt;&gt;"ERROR",H22&lt;&gt;" ",H22&lt;&gt;"ERROR"),G23+H22," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I23" s="3">
         <f>((D23+E23)-(B23+C23))*24</f>
@@ -2018,18 +2051,18 @@
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="8"/>
       <c r="F24" s="3"/>
       <c r="G24" t="s" s="11">
         <f>IF(I24&gt;0,I24,IF(I24=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s" s="9">
         <f>IF(AND(G24&lt;&gt;" ",G24&lt;&gt;"ERROR",H23&lt;&gt;" ",H23&lt;&gt;"ERROR"),G24+H23," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I24" s="3">
         <f>((D24+E24)-(B24+C24))*24</f>
@@ -2040,18 +2073,18 @@
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="8"/>
       <c r="F25" s="3"/>
       <c r="G25" t="s" s="11">
         <f>IF(I25&gt;0,I25,IF(I25=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s" s="9">
         <f>IF(AND(G25&lt;&gt;" ",G25&lt;&gt;"ERROR",H24&lt;&gt;" ",H24&lt;&gt;"ERROR"),G25+H24," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I25" s="3">
         <f>((D25+E25)-(B25+C25))*24</f>
@@ -2062,18 +2095,18 @@
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="14"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="8"/>
       <c r="F26" s="3"/>
       <c r="G26" t="s" s="11">
         <f>IF(I26&gt;0,I26,IF(I26=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s" s="9">
         <f>IF(AND(G26&lt;&gt;" ",G26&lt;&gt;"ERROR",H25&lt;&gt;" ",H25&lt;&gt;"ERROR"),G26+H25," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I26" s="3">
         <f>((D26+E26)-(B26+C26))*24</f>
@@ -2084,18 +2117,18 @@
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="8"/>
       <c r="F27" s="3"/>
       <c r="G27" t="s" s="11">
         <f>IF(I27&gt;0,I27,IF(I27=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s" s="9">
         <f>IF(AND(G27&lt;&gt;" ",G27&lt;&gt;"ERROR",H26&lt;&gt;" ",H26&lt;&gt;"ERROR"),G27+H26," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I27" s="3">
         <f>((D27+E27)-(B27+C27))*24</f>
@@ -2106,18 +2139,18 @@
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="8"/>
       <c r="F28" s="3"/>
       <c r="G28" t="s" s="11">
         <f>IF(I28&gt;0,I28,IF(I28=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s" s="9">
         <f>IF(AND(G28&lt;&gt;" ",G28&lt;&gt;"ERROR",H27&lt;&gt;" ",H27&lt;&gt;"ERROR"),G28+H27," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I28" s="3">
         <f>((D28+E28)-(B28+C28))*24</f>
@@ -2128,18 +2161,18 @@
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="8"/>
       <c r="F29" s="3"/>
       <c r="G29" t="s" s="11">
         <f>IF(I29&gt;0,I29,IF(I29=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s" s="9">
         <f>IF(AND(G29&lt;&gt;" ",G29&lt;&gt;"ERROR",H28&lt;&gt;" ",H28&lt;&gt;"ERROR"),G29+H28," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I29" s="3">
         <f>((D29+E29)-(B29+C29))*24</f>
@@ -2150,18 +2183,18 @@
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="14"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="8"/>
       <c r="F30" s="3"/>
       <c r="G30" t="s" s="11">
         <f>IF(I30&gt;0,I30,IF(I30=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s" s="9">
         <f>IF(AND(G30&lt;&gt;" ",G30&lt;&gt;"ERROR",H29&lt;&gt;" ",H29&lt;&gt;"ERROR"),G30+H29," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I30" s="3">
         <f>((D30+E30)-(B30+C30))*24</f>
@@ -2222,18 +2255,18 @@
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="8"/>
       <c r="F33" s="3"/>
       <c r="G33" t="s" s="11">
         <f>IF(I33&gt;0,I33,IF(I33=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s" s="9">
         <f>IF(AND(G33&lt;&gt;" ",G33&lt;&gt;"ERROR",H30&lt;&gt;" ",H30&lt;&gt;"ERROR"),G33+H30," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I33" s="3">
         <f>((D33+E33)-(B33+C33))*24</f>
@@ -2244,18 +2277,18 @@
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="8"/>
       <c r="F34" s="3"/>
       <c r="G34" t="s" s="11">
         <f>IF(I34&gt;0,I34,IF(I34=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s" s="9">
         <f>IF(AND(G34&lt;&gt;" ",G34&lt;&gt;"ERROR",H33&lt;&gt;" ",H33&lt;&gt;"ERROR"),G34+H33," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I34" s="3">
         <f>((D34+E34)-(B34+C34))*24</f>
@@ -2266,18 +2299,18 @@
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="8"/>
       <c r="F35" s="3"/>
       <c r="G35" t="s" s="11">
         <f>IF(I35&gt;0,I35,IF(I35=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s" s="9">
         <f>IF(AND(G35&lt;&gt;" ",G35&lt;&gt;"ERROR",H34&lt;&gt;" ",H34&lt;&gt;"ERROR"),G35+H34," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I35" s="3">
         <f>((D35+E35)-(B35+C35))*24</f>
@@ -2288,18 +2321,18 @@
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="8"/>
       <c r="F36" s="3"/>
       <c r="G36" t="s" s="11">
         <f>IF(I36&gt;0,I36,IF(I36=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s" s="9">
         <f>IF(AND(G36&lt;&gt;" ",G36&lt;&gt;"ERROR",H35&lt;&gt;" ",H35&lt;&gt;"ERROR"),G36+H35," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I36" s="3">
         <f>((D36+E36)-(B36+C36))*24</f>
@@ -2310,18 +2343,18 @@
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="14"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="14"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="8"/>
       <c r="F37" s="3"/>
       <c r="G37" t="s" s="11">
         <f>IF(I37&gt;0,I37,IF(I37=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H37" t="s" s="9">
         <f>IF(AND(G37&lt;&gt;" ",G37&lt;&gt;"ERROR",H36&lt;&gt;" ",H36&lt;&gt;"ERROR"),G37+H36," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I37" s="3">
         <f>((D37+E37)-(B37+C37))*24</f>
@@ -2332,18 +2365,18 @@
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="14"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="8"/>
       <c r="F38" s="3"/>
       <c r="G38" t="s" s="11">
         <f>IF(I38&gt;0,I38,IF(I38=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s" s="9">
         <f>IF(AND(G38&lt;&gt;" ",G38&lt;&gt;"ERROR",H37&lt;&gt;" ",H37&lt;&gt;"ERROR"),G38+H37," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I38" s="3">
         <f>((D38+E38)-(B38+C38))*24</f>
@@ -2354,18 +2387,18 @@
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="14"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="8"/>
       <c r="F39" s="3"/>
       <c r="G39" t="s" s="11">
         <f>IF(I39&gt;0,I39,IF(I39=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s" s="9">
         <f>IF(AND(G39&lt;&gt;" ",G39&lt;&gt;"ERROR",H38&lt;&gt;" ",H38&lt;&gt;"ERROR"),G39+H38," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I39" s="3">
         <f>((D39+E39)-(B39+C39))*24</f>
@@ -2376,18 +2409,18 @@
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="14"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="14"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="8"/>
       <c r="F40" s="3"/>
       <c r="G40" t="s" s="11">
         <f>IF(I40&gt;0,I40,IF(I40=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H40" t="s" s="9">
         <f>IF(AND(G40&lt;&gt;" ",G40&lt;&gt;"ERROR",H39&lt;&gt;" ",H39&lt;&gt;"ERROR"),G40+H39," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I40" s="3">
         <f>((D40+E40)-(B40+C40))*24</f>
@@ -2398,18 +2431,18 @@
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="14"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="14"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="8"/>
       <c r="F41" s="3"/>
       <c r="G41" t="s" s="11">
         <f>IF(I41&gt;0,I41,IF(I41=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H41" t="s" s="9">
         <f>IF(AND(G41&lt;&gt;" ",G41&lt;&gt;"ERROR",H40&lt;&gt;" ",H40&lt;&gt;"ERROR"),G41+H40," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I41" s="3">
         <f>((D41+E41)-(B41+C41))*24</f>
@@ -2420,18 +2453,18 @@
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="14"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="14"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="8"/>
       <c r="F42" s="3"/>
       <c r="G42" t="s" s="11">
         <f>IF(I42&gt;0,I42,IF(I42=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s" s="9">
         <f>IF(AND(G42&lt;&gt;" ",G42&lt;&gt;"ERROR",H41&lt;&gt;" ",H41&lt;&gt;"ERROR"),G42+H41," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I42" s="3">
         <f>((D42+E42)-(B42+C42))*24</f>
@@ -2442,18 +2475,18 @@
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="14"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="8"/>
       <c r="F43" s="3"/>
       <c r="G43" t="s" s="11">
         <f>IF(I43&gt;0,I43,IF(I43=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H43" t="s" s="9">
         <f>IF(AND(G43&lt;&gt;" ",G43&lt;&gt;"ERROR",H42&lt;&gt;" ",H42&lt;&gt;"ERROR"),G43+H42," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I43" s="3">
         <f>((D43+E43)-(B43+C43))*24</f>
@@ -2464,18 +2497,18 @@
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="14"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="14"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="8"/>
       <c r="F44" s="3"/>
       <c r="G44" t="s" s="11">
         <f>IF(I44&gt;0,I44,IF(I44=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H44" t="s" s="9">
         <f>IF(AND(G44&lt;&gt;" ",G44&lt;&gt;"ERROR",H43&lt;&gt;" ",H43&lt;&gt;"ERROR"),G44+H43," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I44" s="3">
         <f>((D44+E44)-(B44+C44))*24</f>
@@ -2486,18 +2519,18 @@
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="14"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="14"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="8"/>
       <c r="F45" s="3"/>
       <c r="G45" t="s" s="11">
         <f>IF(I45&gt;0,I45,IF(I45=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H45" t="s" s="9">
         <f>IF(AND(G45&lt;&gt;" ",G45&lt;&gt;"ERROR",H44&lt;&gt;" ",H44&lt;&gt;"ERROR"),G45+H44," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I45" s="3">
         <f>((D45+E45)-(B45+C45))*24</f>
@@ -2508,18 +2541,18 @@
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="14"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="8"/>
       <c r="F46" s="3"/>
       <c r="G46" t="s" s="11">
         <f>IF(I46&gt;0,I46,IF(I46=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s" s="9">
         <f>IF(AND(G46&lt;&gt;" ",G46&lt;&gt;"ERROR",H45&lt;&gt;" ",H45&lt;&gt;"ERROR"),G46+H45," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I46" s="3">
         <f>((D46+E46)-(B46+C46))*24</f>
@@ -2530,18 +2563,18 @@
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="14"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="14"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="8"/>
       <c r="F47" s="3"/>
       <c r="G47" t="s" s="11">
         <f>IF(I47&gt;0,I47,IF(I47=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H47" t="s" s="9">
         <f>IF(AND(G47&lt;&gt;" ",G47&lt;&gt;"ERROR",H46&lt;&gt;" ",H46&lt;&gt;"ERROR"),G47+H46," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I47" s="3">
         <f>((D47+E47)-(B47+C47))*24</f>
@@ -2552,18 +2585,18 @@
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="14"/>
+      <c r="B48" s="15"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="14"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="8"/>
       <c r="F48" s="3"/>
       <c r="G48" t="s" s="11">
         <f>IF(I48&gt;0,I48,IF(I48=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s" s="9">
         <f>IF(AND(G48&lt;&gt;" ",G48&lt;&gt;"ERROR",H47&lt;&gt;" ",H47&lt;&gt;"ERROR"),G48+H47," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I48" s="3">
         <f>((D48+E48)-(B48+C48))*24</f>
@@ -2574,18 +2607,18 @@
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="14"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="14"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="8"/>
       <c r="F49" s="3"/>
       <c r="G49" t="s" s="11">
         <f>IF(I49&gt;0,I49,IF(I49=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H49" t="s" s="9">
         <f>IF(AND(G49&lt;&gt;" ",G49&lt;&gt;"ERROR",H48&lt;&gt;" ",H48&lt;&gt;"ERROR"),G49+H48," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I49" s="3">
         <f>((D49+E49)-(B49+C49))*24</f>
@@ -2596,18 +2629,18 @@
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="14"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="14"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="8"/>
       <c r="F50" s="3"/>
       <c r="G50" t="s" s="11">
         <f>IF(I50&gt;0,I50,IF(I50=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s" s="9">
         <f>IF(AND(G50&lt;&gt;" ",G50&lt;&gt;"ERROR",H49&lt;&gt;" ",H49&lt;&gt;"ERROR"),G50+H49," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I50" s="3">
         <f>((D50+E50)-(B50+C50))*24</f>
@@ -2618,18 +2651,18 @@
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="14"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="14"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="8"/>
       <c r="F51" s="3"/>
       <c r="G51" t="s" s="11">
         <f>IF(I51&gt;0,I51,IF(I51=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H51" t="s" s="9">
         <f>IF(AND(G51&lt;&gt;" ",G51&lt;&gt;"ERROR",H50&lt;&gt;" ",H50&lt;&gt;"ERROR"),G51+H50," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I51" s="3">
         <f>((D51+E51)-(B51+C51))*24</f>
@@ -2640,18 +2673,18 @@
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="14"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="14"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="8"/>
       <c r="F52" s="3"/>
       <c r="G52" t="s" s="11">
         <f>IF(I52&gt;0,I52,IF(I52=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H52" t="s" s="9">
         <f>IF(AND(G52&lt;&gt;" ",G52&lt;&gt;"ERROR",H51&lt;&gt;" ",H51&lt;&gt;"ERROR"),G52+H51," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I52" s="3">
         <f>((D52+E52)-(B52+C52))*24</f>
@@ -2662,18 +2695,18 @@
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="14"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="14"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="8"/>
       <c r="F53" s="3"/>
       <c r="G53" t="s" s="11">
         <f>IF(I53&gt;0,I53,IF(I53=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s" s="9">
         <f>IF(AND(G53&lt;&gt;" ",G53&lt;&gt;"ERROR",H52&lt;&gt;" ",H52&lt;&gt;"ERROR"),G53+H52," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I53" s="3">
         <f>((D53+E53)-(B53+C53))*24</f>
@@ -2684,18 +2717,18 @@
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="14"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="14"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="8"/>
       <c r="F54" s="3"/>
       <c r="G54" t="s" s="11">
         <f>IF(I54&gt;0,I54,IF(I54=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H54" t="s" s="9">
         <f>IF(AND(G54&lt;&gt;" ",G54&lt;&gt;"ERROR",H53&lt;&gt;" ",H53&lt;&gt;"ERROR"),G54+H53," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I54" s="3">
         <f>((D54+E54)-(B54+C54))*24</f>
@@ -2706,18 +2739,18 @@
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="14"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="14"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="8"/>
       <c r="F55" s="3"/>
       <c r="G55" t="s" s="11">
         <f>IF(I55&gt;0,I55,IF(I55=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H55" t="s" s="9">
         <f>IF(AND(G55&lt;&gt;" ",G55&lt;&gt;"ERROR",H54&lt;&gt;" ",H54&lt;&gt;"ERROR"),G55+H54," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I55" s="3">
         <f>((D55+E55)-(B55+C55))*24</f>
@@ -2728,18 +2761,18 @@
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="14"/>
+      <c r="B56" s="15"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="14"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="8"/>
       <c r="F56" s="3"/>
       <c r="G56" t="s" s="11">
         <f>IF(I56&gt;0,I56,IF(I56=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H56" t="s" s="9">
         <f>IF(AND(G56&lt;&gt;" ",G56&lt;&gt;"ERROR",H55&lt;&gt;" ",H55&lt;&gt;"ERROR"),G56+H55," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I56" s="3">
         <f>((D56+E56)-(B56+C56))*24</f>
@@ -2750,18 +2783,18 @@
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="14"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="14"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="8"/>
       <c r="F57" s="3"/>
       <c r="G57" t="s" s="11">
         <f>IF(I57&gt;0,I57,IF(I57=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H57" t="s" s="9">
         <f>IF(AND(G57&lt;&gt;" ",G57&lt;&gt;"ERROR",H56&lt;&gt;" ",H56&lt;&gt;"ERROR"),G57+H56," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I57" s="3">
         <f>((D57+E57)-(B57+C57))*24</f>
@@ -2772,18 +2805,18 @@
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="14"/>
+      <c r="B58" s="15"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="14"/>
+      <c r="D58" s="15"/>
       <c r="E58" s="8"/>
       <c r="F58" s="3"/>
       <c r="G58" t="s" s="11">
         <f>IF(I58&gt;0,I58,IF(I58=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H58" t="s" s="9">
         <f>IF(AND(G58&lt;&gt;" ",G58&lt;&gt;"ERROR",H57&lt;&gt;" ",H57&lt;&gt;"ERROR"),G58+H57," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I58" s="3">
         <f>((D58+E58)-(B58+C58))*24</f>
@@ -2794,18 +2827,18 @@
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="14"/>
+      <c r="B59" s="15"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="14"/>
+      <c r="D59" s="15"/>
       <c r="E59" s="8"/>
       <c r="F59" s="3"/>
       <c r="G59" t="s" s="11">
         <f>IF(I59&gt;0,I59,IF(I59=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H59" t="s" s="9">
         <f>IF(AND(G59&lt;&gt;" ",G59&lt;&gt;"ERROR",H58&lt;&gt;" ",H58&lt;&gt;"ERROR"),G59+H58," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I59" s="3">
         <f>((D59+E59)-(B59+C59))*24</f>
@@ -2816,18 +2849,18 @@
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="14"/>
+      <c r="B60" s="15"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" t="s" s="11">
         <f>IF(I60&gt;0,I60,IF(I60=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s" s="9">
         <f>IF(AND(G60&lt;&gt;" ",G60&lt;&gt;"ERROR",H59&lt;&gt;" ",H59&lt;&gt;"ERROR"),G60+H59," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I60" s="3">
         <f>((D60+E60)-(B60+C60))*24</f>
@@ -2838,18 +2871,18 @@
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="14"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" t="s" s="11">
         <f>IF(I61&gt;0,I61,IF(I61=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H61" t="s" s="9">
         <f>IF(AND(G61&lt;&gt;" ",G61&lt;&gt;"ERROR",H60&lt;&gt;" ",H60&lt;&gt;"ERROR"),G61+H60," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I61" s="3">
         <f>((D61+E61)-(B61+C61))*24</f>
@@ -2860,18 +2893,18 @@
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="14"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" t="s" s="11">
         <f>IF(I62&gt;0,I62,IF(I62=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H62" t="s" s="9">
         <f>IF(AND(G62&lt;&gt;" ",G62&lt;&gt;"ERROR",H61&lt;&gt;" ",H61&lt;&gt;"ERROR"),G62+H61," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I62" s="3">
         <f>((D62+E62)-(B62+C62))*24</f>
@@ -2882,18 +2915,18 @@
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="14"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" t="s" s="11">
         <f>IF(I63&gt;0,I63,IF(I63=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s" s="9">
         <f>IF(AND(G63&lt;&gt;" ",G63&lt;&gt;"ERROR",H62&lt;&gt;" ",H62&lt;&gt;"ERROR"),G63+H62," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I63" s="3">
         <f>((D63+E63)-(B63+C63))*24</f>
@@ -2904,18 +2937,18 @@
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="14"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" t="s" s="11">
         <f>IF(I64&gt;0,I64,IF(I64=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s" s="9">
         <f>IF(AND(G64&lt;&gt;" ",G64&lt;&gt;"ERROR",H63&lt;&gt;" ",H63&lt;&gt;"ERROR"),G64+H63," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I64" s="3">
         <f>((D64+E64)-(B64+C64))*24</f>
@@ -2983,11 +3016,11 @@
       <c r="F67" s="3"/>
       <c r="G67" t="s" s="11">
         <f>IF(I67&gt;0,I67,IF(I67=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s" s="9">
         <f>IF(AND(G67&lt;&gt;" ",G67&lt;&gt;"ERROR",H64&lt;&gt;" ",H64&lt;&gt;"ERROR"),G67+H64," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I67" s="3">
         <f>((D67+E67)-(B67+C67))*24</f>
@@ -3005,11 +3038,11 @@
       <c r="F68" s="3"/>
       <c r="G68" t="s" s="11">
         <f>IF(I68&gt;0,I68,IF(I68=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H68" t="s" s="9">
         <f>IF(AND(G68&lt;&gt;" ",G68&lt;&gt;"ERROR",H67&lt;&gt;" ",H67&lt;&gt;"ERROR"),G68+H67," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I68" s="3">
         <f>((D68+E68)-(B68+C68))*24</f>
@@ -3027,11 +3060,11 @@
       <c r="F69" s="3"/>
       <c r="G69" t="s" s="11">
         <f>IF(I69&gt;0,I69,IF(I69=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s" s="9">
         <f>IF(AND(G69&lt;&gt;" ",G69&lt;&gt;"ERROR",H68&lt;&gt;" ",H68&lt;&gt;"ERROR"),G69+H68," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I69" s="3">
         <f>((D69+E69)-(B69+C69))*24</f>
@@ -3049,11 +3082,11 @@
       <c r="F70" s="3"/>
       <c r="G70" t="s" s="11">
         <f>IF(I70&gt;0,I70,IF(I70=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H70" t="s" s="9">
         <f>IF(AND(G70&lt;&gt;" ",G70&lt;&gt;"ERROR",H69&lt;&gt;" ",H69&lt;&gt;"ERROR"),G70+H69," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I70" s="3">
         <f>((D70+E70)-(B70+C70))*24</f>
@@ -3071,11 +3104,11 @@
       <c r="F71" s="3"/>
       <c r="G71" t="s" s="11">
         <f>IF(I71&gt;0,I71,IF(I71=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s" s="9">
         <f>IF(AND(G71&lt;&gt;" ",G71&lt;&gt;"ERROR",H70&lt;&gt;" ",H70&lt;&gt;"ERROR"),G71+H70," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I71" s="3">
         <f>((D71+E71)-(B71+C71))*24</f>
@@ -3093,11 +3126,11 @@
       <c r="F72" s="3"/>
       <c r="G72" t="s" s="11">
         <f>IF(I72&gt;0,I72,IF(I72=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H72" t="s" s="9">
         <f>IF(AND(G72&lt;&gt;" ",G72&lt;&gt;"ERROR",H71&lt;&gt;" ",H71&lt;&gt;"ERROR"),G72+H71," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I72" s="3">
         <f>((D72+E72)-(B72+C72))*24</f>
@@ -3115,11 +3148,11 @@
       <c r="F73" s="3"/>
       <c r="G73" t="s" s="11">
         <f>IF(I73&gt;0,I73,IF(I73=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s" s="9">
         <f>IF(AND(G73&lt;&gt;" ",G73&lt;&gt;"ERROR",H72&lt;&gt;" ",H72&lt;&gt;"ERROR"),G73+H72," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I73" s="3">
         <f>((D73+E73)-(B73+C73))*24</f>
@@ -3137,11 +3170,11 @@
       <c r="F74" s="3"/>
       <c r="G74" t="s" s="11">
         <f>IF(I74&gt;0,I74,IF(I74=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H74" t="s" s="9">
         <f>IF(AND(G74&lt;&gt;" ",G74&lt;&gt;"ERROR",H73&lt;&gt;" ",H73&lt;&gt;"ERROR"),G74+H73," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I74" s="3">
         <f>((D74+E74)-(B74+C74))*24</f>
@@ -3159,11 +3192,11 @@
       <c r="F75" s="3"/>
       <c r="G75" t="s" s="11">
         <f>IF(I75&gt;0,I75,IF(I75=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H75" t="s" s="9">
         <f>IF(AND(G75&lt;&gt;" ",G75&lt;&gt;"ERROR",H74&lt;&gt;" ",H74&lt;&gt;"ERROR"),G75+H74," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I75" s="3">
         <f>((D75+E75)-(B75+C75))*24</f>
@@ -3181,11 +3214,11 @@
       <c r="F76" s="3"/>
       <c r="G76" t="s" s="11">
         <f>IF(I76&gt;0,I76,IF(I76=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H76" t="s" s="9">
         <f>IF(AND(G76&lt;&gt;" ",G76&lt;&gt;"ERROR",H75&lt;&gt;" ",H75&lt;&gt;"ERROR"),G76+H75," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I76" s="3">
         <f>((D76+E76)-(B76+C76))*24</f>
@@ -3203,11 +3236,11 @@
       <c r="F77" s="3"/>
       <c r="G77" t="s" s="11">
         <f>IF(I77&gt;0,I77,IF(I77=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H77" t="s" s="9">
         <f>IF(AND(G77&lt;&gt;" ",G77&lt;&gt;"ERROR",H76&lt;&gt;" ",H76&lt;&gt;"ERROR"),G77+H76," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I77" s="3">
         <f>((D77+E77)-(B77+C77))*24</f>
@@ -3225,11 +3258,11 @@
       <c r="F78" s="3"/>
       <c r="G78" t="s" s="11">
         <f>IF(I78&gt;0,I78,IF(I78=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H78" t="s" s="9">
         <f>IF(AND(G78&lt;&gt;" ",G78&lt;&gt;"ERROR",H77&lt;&gt;" ",H77&lt;&gt;"ERROR"),G78+H77," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I78" s="3">
         <f>((D78+E78)-(B78+C78))*24</f>
@@ -3247,11 +3280,11 @@
       <c r="F79" s="3"/>
       <c r="G79" t="s" s="11">
         <f>IF(I79&gt;0,I79,IF(I79=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H79" t="s" s="9">
         <f>IF(AND(G79&lt;&gt;" ",G79&lt;&gt;"ERROR",H78&lt;&gt;" ",H78&lt;&gt;"ERROR"),G79+H78," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I79" s="3">
         <f>((D79+E79)-(B79+C79))*24</f>
@@ -3269,11 +3302,11 @@
       <c r="F80" s="3"/>
       <c r="G80" t="s" s="11">
         <f>IF(I80&gt;0,I80,IF(I80=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H80" t="s" s="9">
         <f>IF(AND(G80&lt;&gt;" ",G80&lt;&gt;"ERROR",H79&lt;&gt;" ",H79&lt;&gt;"ERROR"),G80+H79," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I80" s="3">
         <f>((D80+E80)-(B80+C80))*24</f>
@@ -3291,11 +3324,11 @@
       <c r="F81" s="3"/>
       <c r="G81" t="s" s="11">
         <f>IF(I81&gt;0,I81,IF(I81=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H81" t="s" s="9">
         <f>IF(AND(G81&lt;&gt;" ",G81&lt;&gt;"ERROR",H80&lt;&gt;" ",H80&lt;&gt;"ERROR"),G81+H80," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I81" s="3">
         <f>((D81+E81)-(B81+C81))*24</f>
@@ -3313,11 +3346,11 @@
       <c r="F82" s="3"/>
       <c r="G82" t="s" s="11">
         <f>IF(I82&gt;0,I82,IF(I82=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H82" t="s" s="9">
         <f>IF(AND(G82&lt;&gt;" ",G82&lt;&gt;"ERROR",H81&lt;&gt;" ",H81&lt;&gt;"ERROR"),G82+H81," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I82" s="3">
         <f>((D82+E82)-(B82+C82))*24</f>
@@ -3335,11 +3368,11 @@
       <c r="F83" s="3"/>
       <c r="G83" t="s" s="11">
         <f>IF(I83&gt;0,I83,IF(I83=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H83" t="s" s="9">
         <f>IF(AND(G83&lt;&gt;" ",G83&lt;&gt;"ERROR",H82&lt;&gt;" ",H82&lt;&gt;"ERROR"),G83+H82," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I83" s="3">
         <f>((D83+E83)-(B83+C83))*24</f>
@@ -3357,11 +3390,11 @@
       <c r="F84" s="3"/>
       <c r="G84" t="s" s="11">
         <f>IF(I84&gt;0,I84,IF(I84=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H84" t="s" s="9">
         <f>IF(AND(G84&lt;&gt;" ",G84&lt;&gt;"ERROR",H83&lt;&gt;" ",H83&lt;&gt;"ERROR"),G84+H83," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I84" s="3">
         <f>((D84+E84)-(B84+C84))*24</f>
@@ -3379,11 +3412,11 @@
       <c r="F85" s="3"/>
       <c r="G85" t="s" s="11">
         <f>IF(I85&gt;0,I85,IF(I85=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H85" t="s" s="9">
         <f>IF(AND(G85&lt;&gt;" ",G85&lt;&gt;"ERROR",H84&lt;&gt;" ",H84&lt;&gt;"ERROR"),G85+H84," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I85" s="3">
         <f>((D85+E85)-(B85+C85))*24</f>
@@ -3401,11 +3434,11 @@
       <c r="F86" s="3"/>
       <c r="G86" t="s" s="11">
         <f>IF(I86&gt;0,I86,IF(I86=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H86" t="s" s="9">
         <f>IF(AND(G86&lt;&gt;" ",G86&lt;&gt;"ERROR",H85&lt;&gt;" ",H85&lt;&gt;"ERROR"),G86+H85," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I86" s="3">
         <f>((D86+E86)-(B86+C86))*24</f>
@@ -3423,11 +3456,11 @@
       <c r="F87" s="3"/>
       <c r="G87" t="s" s="11">
         <f>IF(I87&gt;0,I87,IF(I87=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H87" t="s" s="9">
         <f>IF(AND(G87&lt;&gt;" ",G87&lt;&gt;"ERROR",H86&lt;&gt;" ",H86&lt;&gt;"ERROR"),G87+H86," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I87" s="3">
         <f>((D87+E87)-(B87+C87))*24</f>
@@ -3445,11 +3478,11 @@
       <c r="F88" s="3"/>
       <c r="G88" t="s" s="11">
         <f>IF(I88&gt;0,I88,IF(I88=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s" s="9">
         <f>IF(AND(G88&lt;&gt;" ",G88&lt;&gt;"ERROR",H87&lt;&gt;" ",H87&lt;&gt;"ERROR"),G88+H87," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I88" s="3">
         <f>((D88+E88)-(B88+C88))*24</f>
@@ -3467,11 +3500,11 @@
       <c r="F89" s="3"/>
       <c r="G89" t="s" s="11">
         <f>IF(I89&gt;0,I89,IF(I89=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H89" t="s" s="9">
         <f>IF(AND(G89&lt;&gt;" ",G89&lt;&gt;"ERROR",H88&lt;&gt;" ",H88&lt;&gt;"ERROR"),G89+H88," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I89" s="3">
         <f>((D89+E89)-(B89+C89))*24</f>
@@ -3489,11 +3522,11 @@
       <c r="F90" s="3"/>
       <c r="G90" t="s" s="11">
         <f>IF(I90&gt;0,I90,IF(I90=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H90" t="s" s="9">
         <f>IF(AND(G90&lt;&gt;" ",G90&lt;&gt;"ERROR",H89&lt;&gt;" ",H89&lt;&gt;"ERROR"),G90+H89," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I90" s="3">
         <f>((D90+E90)-(B90+C90))*24</f>
@@ -3511,11 +3544,11 @@
       <c r="F91" s="3"/>
       <c r="G91" t="s" s="11">
         <f>IF(I91&gt;0,I91,IF(I91=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H91" t="s" s="9">
         <f>IF(AND(G91&lt;&gt;" ",G91&lt;&gt;"ERROR",H90&lt;&gt;" ",H90&lt;&gt;"ERROR"),G91+H90," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I91" s="3">
         <f>((D91+E91)-(B91+C91))*24</f>
@@ -3533,11 +3566,11 @@
       <c r="F92" s="3"/>
       <c r="G92" t="s" s="11">
         <f>IF(I92&gt;0,I92,IF(I92=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H92" t="s" s="9">
         <f>IF(AND(G92&lt;&gt;" ",G92&lt;&gt;"ERROR",H91&lt;&gt;" ",H91&lt;&gt;"ERROR"),G92+H91," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I92" s="3">
         <f>((D92+E92)-(B92+C92))*24</f>
@@ -3555,11 +3588,11 @@
       <c r="F93" s="3"/>
       <c r="G93" t="s" s="11">
         <f>IF(I93&gt;0,I93,IF(I93=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H93" t="s" s="9">
         <f>IF(AND(G93&lt;&gt;" ",G93&lt;&gt;"ERROR",H92&lt;&gt;" ",H92&lt;&gt;"ERROR"),G93+H92," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I93" s="3">
         <f>((D93+E93)-(B93+C93))*24</f>
@@ -3577,11 +3610,11 @@
       <c r="F94" s="3"/>
       <c r="G94" t="s" s="11">
         <f>IF(I94&gt;0,I94,IF(I94=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H94" t="s" s="9">
         <f>IF(AND(G94&lt;&gt;" ",G94&lt;&gt;"ERROR",H93&lt;&gt;" ",H93&lt;&gt;"ERROR"),G94+H93," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I94" s="3">
         <f>((D94+E94)-(B94+C94))*24</f>
@@ -3599,11 +3632,11 @@
       <c r="F95" s="3"/>
       <c r="G95" t="s" s="11">
         <f>IF(I95&gt;0,I95,IF(I95=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H95" t="s" s="9">
         <f>IF(AND(G95&lt;&gt;" ",G95&lt;&gt;"ERROR",H94&lt;&gt;" ",H94&lt;&gt;"ERROR"),G95+H94," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I95" s="3">
         <f>((D95+E95)-(B95+C95))*24</f>
@@ -3621,11 +3654,11 @@
       <c r="F96" s="3"/>
       <c r="G96" t="s" s="11">
         <f>IF(I96&gt;0,I96,IF(I96=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H96" t="s" s="9">
         <f>IF(AND(G96&lt;&gt;" ",G96&lt;&gt;"ERROR",H95&lt;&gt;" ",H95&lt;&gt;"ERROR"),G96+H95," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I96" s="3">
         <f>((D96+E96)-(B96+C96))*24</f>
@@ -3643,11 +3676,11 @@
       <c r="F97" s="3"/>
       <c r="G97" t="s" s="11">
         <f>IF(I97&gt;0,I97,IF(I97=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H97" t="s" s="9">
         <f>IF(AND(G97&lt;&gt;" ",G97&lt;&gt;"ERROR",H96&lt;&gt;" ",H96&lt;&gt;"ERROR"),G97+H96," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I97" s="3">
         <f>((D97+E97)-(B97+C97))*24</f>
@@ -3665,11 +3698,11 @@
       <c r="F98" s="3"/>
       <c r="G98" t="s" s="11">
         <f>IF(I98&gt;0,I98,IF(I98=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H98" t="s" s="9">
         <f>IF(AND(G98&lt;&gt;" ",G98&lt;&gt;"ERROR",H97&lt;&gt;" ",H97&lt;&gt;"ERROR"),G98+H97," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I98" s="3">
         <f>((D98+E98)-(B98+C98))*24</f>
@@ -3737,11 +3770,11 @@
       <c r="F101" s="3"/>
       <c r="G101" t="s" s="11">
         <f>IF(I101&gt;0,I101,IF(I101=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H101" t="s" s="9">
         <f>IF(AND(G101&lt;&gt;" ",G101&lt;&gt;"ERROR",H98&lt;&gt;" ",H98&lt;&gt;"ERROR"),G101+H98," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I101" s="3">
         <f>((D101+E101)-(B101+C101))*24</f>
@@ -3759,11 +3792,11 @@
       <c r="F102" s="3"/>
       <c r="G102" t="s" s="11">
         <f>IF(I102&gt;0,I102,IF(I102=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H102" t="s" s="9">
         <f>IF(AND(G102&lt;&gt;" ",G102&lt;&gt;"ERROR",H101&lt;&gt;" ",H101&lt;&gt;"ERROR"),G102+H101," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I102" s="3">
         <f>((D102+E102)-(B102+C102))*24</f>
@@ -3781,11 +3814,11 @@
       <c r="F103" s="3"/>
       <c r="G103" t="s" s="11">
         <f>IF(I103&gt;0,I103,IF(I103=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H103" t="s" s="9">
         <f>IF(AND(G103&lt;&gt;" ",G103&lt;&gt;"ERROR",H102&lt;&gt;" ",H102&lt;&gt;"ERROR"),G103+H102," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I103" s="3">
         <f>((D103+E103)-(B103+C103))*24</f>
@@ -3803,11 +3836,11 @@
       <c r="F104" s="3"/>
       <c r="G104" t="s" s="11">
         <f>IF(I104&gt;0,I104,IF(I104=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H104" t="s" s="9">
         <f>IF(AND(G104&lt;&gt;" ",G104&lt;&gt;"ERROR",H103&lt;&gt;" ",H103&lt;&gt;"ERROR"),G104+H103," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I104" s="3">
         <f>((D104+E104)-(B104+C104))*24</f>
@@ -3825,11 +3858,11 @@
       <c r="F105" s="3"/>
       <c r="G105" t="s" s="11">
         <f>IF(I105&gt;0,I105,IF(I105=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H105" t="s" s="9">
         <f>IF(AND(G105&lt;&gt;" ",G105&lt;&gt;"ERROR",H104&lt;&gt;" ",H104&lt;&gt;"ERROR"),G105+H104," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I105" s="3">
         <f>((D105+E105)-(B105+C105))*24</f>
@@ -3847,11 +3880,11 @@
       <c r="F106" s="3"/>
       <c r="G106" t="s" s="11">
         <f>IF(I106&gt;0,I106,IF(I106=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H106" t="s" s="9">
         <f>IF(AND(G106&lt;&gt;" ",G106&lt;&gt;"ERROR",H105&lt;&gt;" ",H105&lt;&gt;"ERROR"),G106+H105," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I106" s="3">
         <f>((D106+E106)-(B106+C106))*24</f>
@@ -3869,11 +3902,11 @@
       <c r="F107" s="3"/>
       <c r="G107" t="s" s="11">
         <f>IF(I107&gt;0,I107,IF(I107=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H107" t="s" s="9">
         <f>IF(AND(G107&lt;&gt;" ",G107&lt;&gt;"ERROR",H106&lt;&gt;" ",H106&lt;&gt;"ERROR"),G107+H106," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I107" s="3">
         <f>((D107+E107)-(B107+C107))*24</f>
@@ -3891,11 +3924,11 @@
       <c r="F108" s="3"/>
       <c r="G108" t="s" s="11">
         <f>IF(I108&gt;0,I108,IF(I108=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H108" t="s" s="9">
         <f>IF(AND(G108&lt;&gt;" ",G108&lt;&gt;"ERROR",H107&lt;&gt;" ",H107&lt;&gt;"ERROR"),G108+H107," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I108" s="3">
         <f>((D108+E108)-(B108+C108))*24</f>
@@ -3913,11 +3946,11 @@
       <c r="F109" s="3"/>
       <c r="G109" t="s" s="11">
         <f>IF(I109&gt;0,I109,IF(I109=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H109" t="s" s="9">
         <f>IF(AND(G109&lt;&gt;" ",G109&lt;&gt;"ERROR",H108&lt;&gt;" ",H108&lt;&gt;"ERROR"),G109+H108," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I109" s="3">
         <f>((D109+E109)-(B109+C109))*24</f>
@@ -3935,11 +3968,11 @@
       <c r="F110" s="3"/>
       <c r="G110" t="s" s="11">
         <f>IF(I110&gt;0,I110,IF(I110=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H110" t="s" s="9">
         <f>IF(AND(G110&lt;&gt;" ",G110&lt;&gt;"ERROR",H109&lt;&gt;" ",H109&lt;&gt;"ERROR"),G110+H109," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I110" s="3">
         <f>((D110+E110)-(B110+C110))*24</f>
@@ -3957,11 +3990,11 @@
       <c r="F111" s="3"/>
       <c r="G111" t="s" s="11">
         <f>IF(I111&gt;0,I111,IF(I111=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H111" t="s" s="9">
         <f>IF(AND(G111&lt;&gt;" ",G111&lt;&gt;"ERROR",H110&lt;&gt;" ",H110&lt;&gt;"ERROR"),G111+H110," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I111" s="3">
         <f>((D111+E111)-(B111+C111))*24</f>
@@ -3979,11 +4012,11 @@
       <c r="F112" s="3"/>
       <c r="G112" t="s" s="11">
         <f>IF(I112&gt;0,I112,IF(I112=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H112" t="s" s="9">
         <f>IF(AND(G112&lt;&gt;" ",G112&lt;&gt;"ERROR",H111&lt;&gt;" ",H111&lt;&gt;"ERROR"),G112+H111," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I112" s="3">
         <f>((D112+E112)-(B112+C112))*24</f>
@@ -4001,11 +4034,11 @@
       <c r="F113" s="3"/>
       <c r="G113" t="s" s="11">
         <f>IF(I113&gt;0,I113,IF(I113=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H113" t="s" s="9">
         <f>IF(AND(G113&lt;&gt;" ",G113&lt;&gt;"ERROR",H112&lt;&gt;" ",H112&lt;&gt;"ERROR"),G113+H112," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I113" s="3">
         <f>((D113+E113)-(B113+C113))*24</f>
@@ -4023,11 +4056,11 @@
       <c r="F114" s="3"/>
       <c r="G114" t="s" s="11">
         <f>IF(I114&gt;0,I114,IF(I114=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H114" t="s" s="9">
         <f>IF(AND(G114&lt;&gt;" ",G114&lt;&gt;"ERROR",H113&lt;&gt;" ",H113&lt;&gt;"ERROR"),G114+H113," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I114" s="3">
         <f>((D114+E114)-(B114+C114))*24</f>
@@ -4045,11 +4078,11 @@
       <c r="F115" s="3"/>
       <c r="G115" t="s" s="11">
         <f>IF(I115&gt;0,I115,IF(I115=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H115" t="s" s="9">
         <f>IF(AND(G115&lt;&gt;" ",G115&lt;&gt;"ERROR",H114&lt;&gt;" ",H114&lt;&gt;"ERROR"),G115+H114," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I115" s="3">
         <f>((D115+E115)-(B115+C115))*24</f>
@@ -4067,11 +4100,11 @@
       <c r="F116" s="3"/>
       <c r="G116" t="s" s="11">
         <f>IF(I116&gt;0,I116,IF(I116=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H116" t="s" s="9">
         <f>IF(AND(G116&lt;&gt;" ",G116&lt;&gt;"ERROR",H115&lt;&gt;" ",H115&lt;&gt;"ERROR"),G116+H115," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I116" s="3">
         <f>((D116+E116)-(B116+C116))*24</f>
@@ -4089,11 +4122,11 @@
       <c r="F117" s="3"/>
       <c r="G117" t="s" s="11">
         <f>IF(I117&gt;0,I117,IF(I117=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H117" t="s" s="9">
         <f>IF(AND(G117&lt;&gt;" ",G117&lt;&gt;"ERROR",H116&lt;&gt;" ",H116&lt;&gt;"ERROR"),G117+H116," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I117" s="3">
         <f>((D117+E117)-(B117+C117))*24</f>
@@ -4111,11 +4144,11 @@
       <c r="F118" s="3"/>
       <c r="G118" t="s" s="11">
         <f>IF(I118&gt;0,I118,IF(I118=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H118" t="s" s="9">
         <f>IF(AND(G118&lt;&gt;" ",G118&lt;&gt;"ERROR",H117&lt;&gt;" ",H117&lt;&gt;"ERROR"),G118+H117," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I118" s="3">
         <f>((D118+E118)-(B118+C118))*24</f>
@@ -4133,11 +4166,11 @@
       <c r="F119" s="3"/>
       <c r="G119" t="s" s="11">
         <f>IF(I119&gt;0,I119,IF(I119=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H119" t="s" s="9">
         <f>IF(AND(G119&lt;&gt;" ",G119&lt;&gt;"ERROR",H118&lt;&gt;" ",H118&lt;&gt;"ERROR"),G119+H118," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I119" s="3">
         <f>((D119+E119)-(B119+C119))*24</f>
@@ -4155,11 +4188,11 @@
       <c r="F120" s="3"/>
       <c r="G120" t="s" s="11">
         <f>IF(I120&gt;0,I120,IF(I120=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H120" t="s" s="9">
         <f>IF(AND(G120&lt;&gt;" ",G120&lt;&gt;"ERROR",H119&lt;&gt;" ",H119&lt;&gt;"ERROR"),G120+H119," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I120" s="3">
         <f>((D120+E120)-(B120+C120))*24</f>
@@ -4177,11 +4210,11 @@
       <c r="F121" s="3"/>
       <c r="G121" t="s" s="11">
         <f>IF(I121&gt;0,I121,IF(I121=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H121" t="s" s="9">
         <f>IF(AND(G121&lt;&gt;" ",G121&lt;&gt;"ERROR",H120&lt;&gt;" ",H120&lt;&gt;"ERROR"),G121+H120," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I121" s="3">
         <f>((D121+E121)-(B121+C121))*24</f>
@@ -4199,11 +4232,11 @@
       <c r="F122" s="3"/>
       <c r="G122" t="s" s="11">
         <f>IF(I122&gt;0,I122,IF(I122=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H122" t="s" s="9">
         <f>IF(AND(G122&lt;&gt;" ",G122&lt;&gt;"ERROR",H121&lt;&gt;" ",H121&lt;&gt;"ERROR"),G122+H121," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I122" s="3">
         <f>((D122+E122)-(B122+C122))*24</f>
@@ -4221,11 +4254,11 @@
       <c r="F123" s="3"/>
       <c r="G123" t="s" s="11">
         <f>IF(I123&gt;0,I123,IF(I123=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H123" t="s" s="9">
         <f>IF(AND(G123&lt;&gt;" ",G123&lt;&gt;"ERROR",H122&lt;&gt;" ",H122&lt;&gt;"ERROR"),G123+H122," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I123" s="3">
         <f>((D123+E123)-(B123+C123))*24</f>
@@ -4243,11 +4276,11 @@
       <c r="F124" s="3"/>
       <c r="G124" t="s" s="11">
         <f>IF(I124&gt;0,I124,IF(I124=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H124" t="s" s="9">
         <f>IF(AND(G124&lt;&gt;" ",G124&lt;&gt;"ERROR",H123&lt;&gt;" ",H123&lt;&gt;"ERROR"),G124+H123," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I124" s="3">
         <f>((D124+E124)-(B124+C124))*24</f>
@@ -4265,11 +4298,11 @@
       <c r="F125" s="3"/>
       <c r="G125" t="s" s="11">
         <f>IF(I125&gt;0,I125,IF(I125=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H125" t="s" s="9">
         <f>IF(AND(G125&lt;&gt;" ",G125&lt;&gt;"ERROR",H124&lt;&gt;" ",H124&lt;&gt;"ERROR"),G125+H124," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I125" s="3">
         <f>((D125+E125)-(B125+C125))*24</f>
@@ -4287,11 +4320,11 @@
       <c r="F126" s="3"/>
       <c r="G126" t="s" s="11">
         <f>IF(I126&gt;0,I126,IF(I126=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H126" t="s" s="9">
         <f>IF(AND(G126&lt;&gt;" ",G126&lt;&gt;"ERROR",H125&lt;&gt;" ",H125&lt;&gt;"ERROR"),G126+H125," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I126" s="3">
         <f>((D126+E126)-(B126+C126))*24</f>
@@ -4309,11 +4342,11 @@
       <c r="F127" s="3"/>
       <c r="G127" t="s" s="11">
         <f>IF(I127&gt;0,I127,IF(I127=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H127" t="s" s="9">
         <f>IF(AND(G127&lt;&gt;" ",G127&lt;&gt;"ERROR",H126&lt;&gt;" ",H126&lt;&gt;"ERROR"),G127+H126," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I127" s="3">
         <f>((D127+E127)-(B127+C127))*24</f>
@@ -4331,11 +4364,11 @@
       <c r="F128" s="3"/>
       <c r="G128" t="s" s="11">
         <f>IF(I128&gt;0,I128,IF(I128=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H128" t="s" s="9">
         <f>IF(AND(G128&lt;&gt;" ",G128&lt;&gt;"ERROR",H127&lt;&gt;" ",H127&lt;&gt;"ERROR"),G128+H127," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I128" s="3">
         <f>((D128+E128)-(B128+C128))*24</f>
@@ -4353,11 +4386,11 @@
       <c r="F129" s="3"/>
       <c r="G129" t="s" s="11">
         <f>IF(I129&gt;0,I129,IF(I129=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H129" t="s" s="9">
         <f>IF(AND(G129&lt;&gt;" ",G129&lt;&gt;"ERROR",H128&lt;&gt;" ",H128&lt;&gt;"ERROR"),G129+H128," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I129" s="3">
         <f>((D129+E129)-(B129+C129))*24</f>
@@ -4375,11 +4408,11 @@
       <c r="F130" s="3"/>
       <c r="G130" t="s" s="11">
         <f>IF(I130&gt;0,I130,IF(I130=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H130" t="s" s="9">
         <f>IF(AND(G130&lt;&gt;" ",G130&lt;&gt;"ERROR",H129&lt;&gt;" ",H129&lt;&gt;"ERROR"),G130+H129," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I130" s="3">
         <f>((D130+E130)-(B130+C130))*24</f>
@@ -4397,11 +4430,11 @@
       <c r="F131" s="3"/>
       <c r="G131" t="s" s="11">
         <f>IF(I131&gt;0,I131,IF(I131=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H131" t="s" s="9">
         <f>IF(AND(G131&lt;&gt;" ",G131&lt;&gt;"ERROR",H130&lt;&gt;" ",H130&lt;&gt;"ERROR"),G131+H130," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I131" s="3">
         <f>((D131+E131)-(B131+C131))*24</f>
@@ -4419,11 +4452,11 @@
       <c r="F132" s="3"/>
       <c r="G132" t="s" s="11">
         <f>IF(I132&gt;0,I132,IF(I132=0," ","ERROR"))</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H132" t="s" s="9">
         <f>IF(AND(G132&lt;&gt;" ",G132&lt;&gt;"ERROR",H131&lt;&gt;" ",H131&lt;&gt;"ERROR"),G132+H131," ")</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I132" s="3">
         <f>((D132+E132)-(B132+C132))*24</f>
@@ -4476,8 +4509,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="15" customWidth="1"/>
+    <col min="1" max="5" width="10.8516" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -4567,8 +4600,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12.95" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="16" customWidth="1"/>
+    <col min="1" max="5" width="10.8516" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <r>
       <rPr>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>Mentor Meeting</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>Blender Baking of elements</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -2006,67 +2015,97 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="14">
+        <v>44474</v>
+      </c>
+      <c r="C22" s="8">
+        <v>44478.416666666664</v>
+      </c>
+      <c r="D22" s="14">
+        <v>44474</v>
+      </c>
+      <c r="E22" s="8">
+        <v>44478.479166666664</v>
+      </c>
+      <c r="F22" t="s" s="9">
+        <v>29</v>
+      </c>
       <c r="G22" t="s" s="11">
-        <f>IF(I22&gt;0,I22,IF(I22=0," ","ERROR"))</f>
-        <v>29</v>
-      </c>
-      <c r="H22" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="H22" s="13">
         <f>IF(AND(G22&lt;&gt;" ",G22&lt;&gt;"ERROR",H21&lt;&gt;" ",H21&lt;&gt;"ERROR"),G22+H21," ")</f>
-        <v>29</v>
+        <v>27.75</v>
       </c>
       <c r="I22" s="3">
         <f>((D22+E22)-(B22+C22))*24</f>
-        <v>0</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="3">
+        <v>9</v>
+      </c>
+      <c r="B23" s="14">
+        <v>44475</v>
+      </c>
+      <c r="C23" s="8">
+        <v>44478.375</v>
+      </c>
+      <c r="D23" s="14">
+        <v>44475</v>
+      </c>
+      <c r="E23" s="8">
+        <v>44478.40625</v>
+      </c>
+      <c r="F23" t="s" s="9">
+        <v>21</v>
+      </c>
       <c r="G23" t="s" s="11">
-        <f>IF(I23&gt;0,I23,IF(I23=0," ","ERROR"))</f>
-        <v>29</v>
-      </c>
-      <c r="H23" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="H23" s="13">
         <f>IF(AND(G23&lt;&gt;" ",G23&lt;&gt;"ERROR",H22&lt;&gt;" ",H22&lt;&gt;"ERROR"),G23+H22," ")</f>
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="I23" s="3">
         <f>((D23+E23)-(B23+C23))*24</f>
-        <v>0</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="3">
+        <v>9</v>
+      </c>
+      <c r="B24" s="12">
+        <v>44477</v>
+      </c>
+      <c r="C24" s="8">
+        <v>44478.666666666664</v>
+      </c>
+      <c r="D24" s="14">
+        <v>44477</v>
+      </c>
+      <c r="E24" s="8">
+        <v>44478.6875</v>
+      </c>
+      <c r="F24" t="s" s="9">
+        <v>31</v>
+      </c>
       <c r="G24" t="s" s="11">
-        <f>IF(I24&gt;0,I24,IF(I24=0," ","ERROR"))</f>
-        <v>29</v>
-      </c>
-      <c r="H24" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="H24" s="13">
         <f>IF(AND(G24&lt;&gt;" ",G24&lt;&gt;"ERROR",H23&lt;&gt;" ",H23&lt;&gt;"ERROR"),G24+H23," ")</f>
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="I24" s="3">
         <f>((D24+E24)-(B24+C24))*24</f>
-        <v>0</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2080,11 +2119,11 @@
       <c r="F25" s="3"/>
       <c r="G25" t="s" s="11">
         <f>IF(I25&gt;0,I25,IF(I25=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s" s="9">
         <f>IF(AND(G25&lt;&gt;" ",G25&lt;&gt;"ERROR",H24&lt;&gt;" ",H24&lt;&gt;"ERROR"),G25+H24," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I25" s="3">
         <f>((D25+E25)-(B25+C25))*24</f>
@@ -2102,11 +2141,11 @@
       <c r="F26" s="3"/>
       <c r="G26" t="s" s="11">
         <f>IF(I26&gt;0,I26,IF(I26=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s" s="9">
         <f>IF(AND(G26&lt;&gt;" ",G26&lt;&gt;"ERROR",H25&lt;&gt;" ",H25&lt;&gt;"ERROR"),G26+H25," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I26" s="3">
         <f>((D26+E26)-(B26+C26))*24</f>
@@ -2124,11 +2163,11 @@
       <c r="F27" s="3"/>
       <c r="G27" t="s" s="11">
         <f>IF(I27&gt;0,I27,IF(I27=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s" s="9">
         <f>IF(AND(G27&lt;&gt;" ",G27&lt;&gt;"ERROR",H26&lt;&gt;" ",H26&lt;&gt;"ERROR"),G27+H26," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I27" s="3">
         <f>((D27+E27)-(B27+C27))*24</f>
@@ -2146,11 +2185,11 @@
       <c r="F28" s="3"/>
       <c r="G28" t="s" s="11">
         <f>IF(I28&gt;0,I28,IF(I28=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s" s="9">
         <f>IF(AND(G28&lt;&gt;" ",G28&lt;&gt;"ERROR",H27&lt;&gt;" ",H27&lt;&gt;"ERROR"),G28+H27," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I28" s="3">
         <f>((D28+E28)-(B28+C28))*24</f>
@@ -2168,11 +2207,11 @@
       <c r="F29" s="3"/>
       <c r="G29" t="s" s="11">
         <f>IF(I29&gt;0,I29,IF(I29=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s" s="9">
         <f>IF(AND(G29&lt;&gt;" ",G29&lt;&gt;"ERROR",H28&lt;&gt;" ",H28&lt;&gt;"ERROR"),G29+H28," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I29" s="3">
         <f>((D29+E29)-(B29+C29))*24</f>
@@ -2190,11 +2229,11 @@
       <c r="F30" s="3"/>
       <c r="G30" t="s" s="11">
         <f>IF(I30&gt;0,I30,IF(I30=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s" s="9">
         <f>IF(AND(G30&lt;&gt;" ",G30&lt;&gt;"ERROR",H29&lt;&gt;" ",H29&lt;&gt;"ERROR"),G30+H29," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I30" s="3">
         <f>((D30+E30)-(B30+C30))*24</f>
@@ -2262,11 +2301,11 @@
       <c r="F33" s="3"/>
       <c r="G33" t="s" s="11">
         <f>IF(I33&gt;0,I33,IF(I33=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s" s="9">
         <f>IF(AND(G33&lt;&gt;" ",G33&lt;&gt;"ERROR",H30&lt;&gt;" ",H30&lt;&gt;"ERROR"),G33+H30," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I33" s="3">
         <f>((D33+E33)-(B33+C33))*24</f>
@@ -2284,11 +2323,11 @@
       <c r="F34" s="3"/>
       <c r="G34" t="s" s="11">
         <f>IF(I34&gt;0,I34,IF(I34=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s" s="9">
         <f>IF(AND(G34&lt;&gt;" ",G34&lt;&gt;"ERROR",H33&lt;&gt;" ",H33&lt;&gt;"ERROR"),G34+H33," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I34" s="3">
         <f>((D34+E34)-(B34+C34))*24</f>
@@ -2306,11 +2345,11 @@
       <c r="F35" s="3"/>
       <c r="G35" t="s" s="11">
         <f>IF(I35&gt;0,I35,IF(I35=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H35" t="s" s="9">
         <f>IF(AND(G35&lt;&gt;" ",G35&lt;&gt;"ERROR",H34&lt;&gt;" ",H34&lt;&gt;"ERROR"),G35+H34," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I35" s="3">
         <f>((D35+E35)-(B35+C35))*24</f>
@@ -2328,11 +2367,11 @@
       <c r="F36" s="3"/>
       <c r="G36" t="s" s="11">
         <f>IF(I36&gt;0,I36,IF(I36=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s" s="9">
         <f>IF(AND(G36&lt;&gt;" ",G36&lt;&gt;"ERROR",H35&lt;&gt;" ",H35&lt;&gt;"ERROR"),G36+H35," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I36" s="3">
         <f>((D36+E36)-(B36+C36))*24</f>
@@ -2350,11 +2389,11 @@
       <c r="F37" s="3"/>
       <c r="G37" t="s" s="11">
         <f>IF(I37&gt;0,I37,IF(I37=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H37" t="s" s="9">
         <f>IF(AND(G37&lt;&gt;" ",G37&lt;&gt;"ERROR",H36&lt;&gt;" ",H36&lt;&gt;"ERROR"),G37+H36," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I37" s="3">
         <f>((D37+E37)-(B37+C37))*24</f>
@@ -2372,11 +2411,11 @@
       <c r="F38" s="3"/>
       <c r="G38" t="s" s="11">
         <f>IF(I38&gt;0,I38,IF(I38=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H38" t="s" s="9">
         <f>IF(AND(G38&lt;&gt;" ",G38&lt;&gt;"ERROR",H37&lt;&gt;" ",H37&lt;&gt;"ERROR"),G38+H37," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I38" s="3">
         <f>((D38+E38)-(B38+C38))*24</f>
@@ -2394,11 +2433,11 @@
       <c r="F39" s="3"/>
       <c r="G39" t="s" s="11">
         <f>IF(I39&gt;0,I39,IF(I39=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s" s="9">
         <f>IF(AND(G39&lt;&gt;" ",G39&lt;&gt;"ERROR",H38&lt;&gt;" ",H38&lt;&gt;"ERROR"),G39+H38," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I39" s="3">
         <f>((D39+E39)-(B39+C39))*24</f>
@@ -2416,11 +2455,11 @@
       <c r="F40" s="3"/>
       <c r="G40" t="s" s="11">
         <f>IF(I40&gt;0,I40,IF(I40=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s" s="9">
         <f>IF(AND(G40&lt;&gt;" ",G40&lt;&gt;"ERROR",H39&lt;&gt;" ",H39&lt;&gt;"ERROR"),G40+H39," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I40" s="3">
         <f>((D40+E40)-(B40+C40))*24</f>
@@ -2438,11 +2477,11 @@
       <c r="F41" s="3"/>
       <c r="G41" t="s" s="11">
         <f>IF(I41&gt;0,I41,IF(I41=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s" s="9">
         <f>IF(AND(G41&lt;&gt;" ",G41&lt;&gt;"ERROR",H40&lt;&gt;" ",H40&lt;&gt;"ERROR"),G41+H40," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I41" s="3">
         <f>((D41+E41)-(B41+C41))*24</f>
@@ -2460,11 +2499,11 @@
       <c r="F42" s="3"/>
       <c r="G42" t="s" s="11">
         <f>IF(I42&gt;0,I42,IF(I42=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s" s="9">
         <f>IF(AND(G42&lt;&gt;" ",G42&lt;&gt;"ERROR",H41&lt;&gt;" ",H41&lt;&gt;"ERROR"),G42+H41," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I42" s="3">
         <f>((D42+E42)-(B42+C42))*24</f>
@@ -2482,11 +2521,11 @@
       <c r="F43" s="3"/>
       <c r="G43" t="s" s="11">
         <f>IF(I43&gt;0,I43,IF(I43=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s" s="9">
         <f>IF(AND(G43&lt;&gt;" ",G43&lt;&gt;"ERROR",H42&lt;&gt;" ",H42&lt;&gt;"ERROR"),G43+H42," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I43" s="3">
         <f>((D43+E43)-(B43+C43))*24</f>
@@ -2504,11 +2543,11 @@
       <c r="F44" s="3"/>
       <c r="G44" t="s" s="11">
         <f>IF(I44&gt;0,I44,IF(I44=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H44" t="s" s="9">
         <f>IF(AND(G44&lt;&gt;" ",G44&lt;&gt;"ERROR",H43&lt;&gt;" ",H43&lt;&gt;"ERROR"),G44+H43," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I44" s="3">
         <f>((D44+E44)-(B44+C44))*24</f>
@@ -2526,11 +2565,11 @@
       <c r="F45" s="3"/>
       <c r="G45" t="s" s="11">
         <f>IF(I45&gt;0,I45,IF(I45=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H45" t="s" s="9">
         <f>IF(AND(G45&lt;&gt;" ",G45&lt;&gt;"ERROR",H44&lt;&gt;" ",H44&lt;&gt;"ERROR"),G45+H44," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I45" s="3">
         <f>((D45+E45)-(B45+C45))*24</f>
@@ -2548,11 +2587,11 @@
       <c r="F46" s="3"/>
       <c r="G46" t="s" s="11">
         <f>IF(I46&gt;0,I46,IF(I46=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s" s="9">
         <f>IF(AND(G46&lt;&gt;" ",G46&lt;&gt;"ERROR",H45&lt;&gt;" ",H45&lt;&gt;"ERROR"),G46+H45," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I46" s="3">
         <f>((D46+E46)-(B46+C46))*24</f>
@@ -2570,11 +2609,11 @@
       <c r="F47" s="3"/>
       <c r="G47" t="s" s="11">
         <f>IF(I47&gt;0,I47,IF(I47=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H47" t="s" s="9">
         <f>IF(AND(G47&lt;&gt;" ",G47&lt;&gt;"ERROR",H46&lt;&gt;" ",H46&lt;&gt;"ERROR"),G47+H46," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I47" s="3">
         <f>((D47+E47)-(B47+C47))*24</f>
@@ -2592,11 +2631,11 @@
       <c r="F48" s="3"/>
       <c r="G48" t="s" s="11">
         <f>IF(I48&gt;0,I48,IF(I48=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H48" t="s" s="9">
         <f>IF(AND(G48&lt;&gt;" ",G48&lt;&gt;"ERROR",H47&lt;&gt;" ",H47&lt;&gt;"ERROR"),G48+H47," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I48" s="3">
         <f>((D48+E48)-(B48+C48))*24</f>
@@ -2614,11 +2653,11 @@
       <c r="F49" s="3"/>
       <c r="G49" t="s" s="11">
         <f>IF(I49&gt;0,I49,IF(I49=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H49" t="s" s="9">
         <f>IF(AND(G49&lt;&gt;" ",G49&lt;&gt;"ERROR",H48&lt;&gt;" ",H48&lt;&gt;"ERROR"),G49+H48," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I49" s="3">
         <f>((D49+E49)-(B49+C49))*24</f>
@@ -2636,11 +2675,11 @@
       <c r="F50" s="3"/>
       <c r="G50" t="s" s="11">
         <f>IF(I50&gt;0,I50,IF(I50=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s" s="9">
         <f>IF(AND(G50&lt;&gt;" ",G50&lt;&gt;"ERROR",H49&lt;&gt;" ",H49&lt;&gt;"ERROR"),G50+H49," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I50" s="3">
         <f>((D50+E50)-(B50+C50))*24</f>
@@ -2658,11 +2697,11 @@
       <c r="F51" s="3"/>
       <c r="G51" t="s" s="11">
         <f>IF(I51&gt;0,I51,IF(I51=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H51" t="s" s="9">
         <f>IF(AND(G51&lt;&gt;" ",G51&lt;&gt;"ERROR",H50&lt;&gt;" ",H50&lt;&gt;"ERROR"),G51+H50," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I51" s="3">
         <f>((D51+E51)-(B51+C51))*24</f>
@@ -2680,11 +2719,11 @@
       <c r="F52" s="3"/>
       <c r="G52" t="s" s="11">
         <f>IF(I52&gt;0,I52,IF(I52=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s" s="9">
         <f>IF(AND(G52&lt;&gt;" ",G52&lt;&gt;"ERROR",H51&lt;&gt;" ",H51&lt;&gt;"ERROR"),G52+H51," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I52" s="3">
         <f>((D52+E52)-(B52+C52))*24</f>
@@ -2702,11 +2741,11 @@
       <c r="F53" s="3"/>
       <c r="G53" t="s" s="11">
         <f>IF(I53&gt;0,I53,IF(I53=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H53" t="s" s="9">
         <f>IF(AND(G53&lt;&gt;" ",G53&lt;&gt;"ERROR",H52&lt;&gt;" ",H52&lt;&gt;"ERROR"),G53+H52," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I53" s="3">
         <f>((D53+E53)-(B53+C53))*24</f>
@@ -2724,11 +2763,11 @@
       <c r="F54" s="3"/>
       <c r="G54" t="s" s="11">
         <f>IF(I54&gt;0,I54,IF(I54=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H54" t="s" s="9">
         <f>IF(AND(G54&lt;&gt;" ",G54&lt;&gt;"ERROR",H53&lt;&gt;" ",H53&lt;&gt;"ERROR"),G54+H53," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I54" s="3">
         <f>((D54+E54)-(B54+C54))*24</f>
@@ -2746,11 +2785,11 @@
       <c r="F55" s="3"/>
       <c r="G55" t="s" s="11">
         <f>IF(I55&gt;0,I55,IF(I55=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H55" t="s" s="9">
         <f>IF(AND(G55&lt;&gt;" ",G55&lt;&gt;"ERROR",H54&lt;&gt;" ",H54&lt;&gt;"ERROR"),G55+H54," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I55" s="3">
         <f>((D55+E55)-(B55+C55))*24</f>
@@ -2768,11 +2807,11 @@
       <c r="F56" s="3"/>
       <c r="G56" t="s" s="11">
         <f>IF(I56&gt;0,I56,IF(I56=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s" s="9">
         <f>IF(AND(G56&lt;&gt;" ",G56&lt;&gt;"ERROR",H55&lt;&gt;" ",H55&lt;&gt;"ERROR"),G56+H55," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I56" s="3">
         <f>((D56+E56)-(B56+C56))*24</f>
@@ -2790,11 +2829,11 @@
       <c r="F57" s="3"/>
       <c r="G57" t="s" s="11">
         <f>IF(I57&gt;0,I57,IF(I57=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H57" t="s" s="9">
         <f>IF(AND(G57&lt;&gt;" ",G57&lt;&gt;"ERROR",H56&lt;&gt;" ",H56&lt;&gt;"ERROR"),G57+H56," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I57" s="3">
         <f>((D57+E57)-(B57+C57))*24</f>
@@ -2812,11 +2851,11 @@
       <c r="F58" s="3"/>
       <c r="G58" t="s" s="11">
         <f>IF(I58&gt;0,I58,IF(I58=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H58" t="s" s="9">
         <f>IF(AND(G58&lt;&gt;" ",G58&lt;&gt;"ERROR",H57&lt;&gt;" ",H57&lt;&gt;"ERROR"),G58+H57," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I58" s="3">
         <f>((D58+E58)-(B58+C58))*24</f>
@@ -2834,11 +2873,11 @@
       <c r="F59" s="3"/>
       <c r="G59" t="s" s="11">
         <f>IF(I59&gt;0,I59,IF(I59=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H59" t="s" s="9">
         <f>IF(AND(G59&lt;&gt;" ",G59&lt;&gt;"ERROR",H58&lt;&gt;" ",H58&lt;&gt;"ERROR"),G59+H58," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I59" s="3">
         <f>((D59+E59)-(B59+C59))*24</f>
@@ -2856,11 +2895,11 @@
       <c r="F60" s="3"/>
       <c r="G60" t="s" s="11">
         <f>IF(I60&gt;0,I60,IF(I60=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H60" t="s" s="9">
         <f>IF(AND(G60&lt;&gt;" ",G60&lt;&gt;"ERROR",H59&lt;&gt;" ",H59&lt;&gt;"ERROR"),G60+H59," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I60" s="3">
         <f>((D60+E60)-(B60+C60))*24</f>
@@ -2878,11 +2917,11 @@
       <c r="F61" s="3"/>
       <c r="G61" t="s" s="11">
         <f>IF(I61&gt;0,I61,IF(I61=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H61" t="s" s="9">
         <f>IF(AND(G61&lt;&gt;" ",G61&lt;&gt;"ERROR",H60&lt;&gt;" ",H60&lt;&gt;"ERROR"),G61+H60," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I61" s="3">
         <f>((D61+E61)-(B61+C61))*24</f>
@@ -2900,11 +2939,11 @@
       <c r="F62" s="3"/>
       <c r="G62" t="s" s="11">
         <f>IF(I62&gt;0,I62,IF(I62=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s" s="9">
         <f>IF(AND(G62&lt;&gt;" ",G62&lt;&gt;"ERROR",H61&lt;&gt;" ",H61&lt;&gt;"ERROR"),G62+H61," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I62" s="3">
         <f>((D62+E62)-(B62+C62))*24</f>
@@ -2922,11 +2961,11 @@
       <c r="F63" s="3"/>
       <c r="G63" t="s" s="11">
         <f>IF(I63&gt;0,I63,IF(I63=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H63" t="s" s="9">
         <f>IF(AND(G63&lt;&gt;" ",G63&lt;&gt;"ERROR",H62&lt;&gt;" ",H62&lt;&gt;"ERROR"),G63+H62," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I63" s="3">
         <f>((D63+E63)-(B63+C63))*24</f>
@@ -2944,11 +2983,11 @@
       <c r="F64" s="3"/>
       <c r="G64" t="s" s="11">
         <f>IF(I64&gt;0,I64,IF(I64=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H64" t="s" s="9">
         <f>IF(AND(G64&lt;&gt;" ",G64&lt;&gt;"ERROR",H63&lt;&gt;" ",H63&lt;&gt;"ERROR"),G64+H63," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I64" s="3">
         <f>((D64+E64)-(B64+C64))*24</f>
@@ -3016,11 +3055,11 @@
       <c r="F67" s="3"/>
       <c r="G67" t="s" s="11">
         <f>IF(I67&gt;0,I67,IF(I67=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H67" t="s" s="9">
         <f>IF(AND(G67&lt;&gt;" ",G67&lt;&gt;"ERROR",H64&lt;&gt;" ",H64&lt;&gt;"ERROR"),G67+H64," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I67" s="3">
         <f>((D67+E67)-(B67+C67))*24</f>
@@ -3038,11 +3077,11 @@
       <c r="F68" s="3"/>
       <c r="G68" t="s" s="11">
         <f>IF(I68&gt;0,I68,IF(I68=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H68" t="s" s="9">
         <f>IF(AND(G68&lt;&gt;" ",G68&lt;&gt;"ERROR",H67&lt;&gt;" ",H67&lt;&gt;"ERROR"),G68+H67," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I68" s="3">
         <f>((D68+E68)-(B68+C68))*24</f>
@@ -3060,11 +3099,11 @@
       <c r="F69" s="3"/>
       <c r="G69" t="s" s="11">
         <f>IF(I69&gt;0,I69,IF(I69=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H69" t="s" s="9">
         <f>IF(AND(G69&lt;&gt;" ",G69&lt;&gt;"ERROR",H68&lt;&gt;" ",H68&lt;&gt;"ERROR"),G69+H68," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I69" s="3">
         <f>((D69+E69)-(B69+C69))*24</f>
@@ -3082,11 +3121,11 @@
       <c r="F70" s="3"/>
       <c r="G70" t="s" s="11">
         <f>IF(I70&gt;0,I70,IF(I70=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H70" t="s" s="9">
         <f>IF(AND(G70&lt;&gt;" ",G70&lt;&gt;"ERROR",H69&lt;&gt;" ",H69&lt;&gt;"ERROR"),G70+H69," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I70" s="3">
         <f>((D70+E70)-(B70+C70))*24</f>
@@ -3104,11 +3143,11 @@
       <c r="F71" s="3"/>
       <c r="G71" t="s" s="11">
         <f>IF(I71&gt;0,I71,IF(I71=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H71" t="s" s="9">
         <f>IF(AND(G71&lt;&gt;" ",G71&lt;&gt;"ERROR",H70&lt;&gt;" ",H70&lt;&gt;"ERROR"),G71+H70," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I71" s="3">
         <f>((D71+E71)-(B71+C71))*24</f>
@@ -3126,11 +3165,11 @@
       <c r="F72" s="3"/>
       <c r="G72" t="s" s="11">
         <f>IF(I72&gt;0,I72,IF(I72=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H72" t="s" s="9">
         <f>IF(AND(G72&lt;&gt;" ",G72&lt;&gt;"ERROR",H71&lt;&gt;" ",H71&lt;&gt;"ERROR"),G72+H71," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I72" s="3">
         <f>((D72+E72)-(B72+C72))*24</f>
@@ -3148,11 +3187,11 @@
       <c r="F73" s="3"/>
       <c r="G73" t="s" s="11">
         <f>IF(I73&gt;0,I73,IF(I73=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H73" t="s" s="9">
         <f>IF(AND(G73&lt;&gt;" ",G73&lt;&gt;"ERROR",H72&lt;&gt;" ",H72&lt;&gt;"ERROR"),G73+H72," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I73" s="3">
         <f>((D73+E73)-(B73+C73))*24</f>
@@ -3170,11 +3209,11 @@
       <c r="F74" s="3"/>
       <c r="G74" t="s" s="11">
         <f>IF(I74&gt;0,I74,IF(I74=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H74" t="s" s="9">
         <f>IF(AND(G74&lt;&gt;" ",G74&lt;&gt;"ERROR",H73&lt;&gt;" ",H73&lt;&gt;"ERROR"),G74+H73," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I74" s="3">
         <f>((D74+E74)-(B74+C74))*24</f>
@@ -3192,11 +3231,11 @@
       <c r="F75" s="3"/>
       <c r="G75" t="s" s="11">
         <f>IF(I75&gt;0,I75,IF(I75=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H75" t="s" s="9">
         <f>IF(AND(G75&lt;&gt;" ",G75&lt;&gt;"ERROR",H74&lt;&gt;" ",H74&lt;&gt;"ERROR"),G75+H74," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I75" s="3">
         <f>((D75+E75)-(B75+C75))*24</f>
@@ -3214,11 +3253,11 @@
       <c r="F76" s="3"/>
       <c r="G76" t="s" s="11">
         <f>IF(I76&gt;0,I76,IF(I76=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H76" t="s" s="9">
         <f>IF(AND(G76&lt;&gt;" ",G76&lt;&gt;"ERROR",H75&lt;&gt;" ",H75&lt;&gt;"ERROR"),G76+H75," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I76" s="3">
         <f>((D76+E76)-(B76+C76))*24</f>
@@ -3236,11 +3275,11 @@
       <c r="F77" s="3"/>
       <c r="G77" t="s" s="11">
         <f>IF(I77&gt;0,I77,IF(I77=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s" s="9">
         <f>IF(AND(G77&lt;&gt;" ",G77&lt;&gt;"ERROR",H76&lt;&gt;" ",H76&lt;&gt;"ERROR"),G77+H76," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I77" s="3">
         <f>((D77+E77)-(B77+C77))*24</f>
@@ -3258,11 +3297,11 @@
       <c r="F78" s="3"/>
       <c r="G78" t="s" s="11">
         <f>IF(I78&gt;0,I78,IF(I78=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s" s="9">
         <f>IF(AND(G78&lt;&gt;" ",G78&lt;&gt;"ERROR",H77&lt;&gt;" ",H77&lt;&gt;"ERROR"),G78+H77," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I78" s="3">
         <f>((D78+E78)-(B78+C78))*24</f>
@@ -3280,11 +3319,11 @@
       <c r="F79" s="3"/>
       <c r="G79" t="s" s="11">
         <f>IF(I79&gt;0,I79,IF(I79=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H79" t="s" s="9">
         <f>IF(AND(G79&lt;&gt;" ",G79&lt;&gt;"ERROR",H78&lt;&gt;" ",H78&lt;&gt;"ERROR"),G79+H78," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I79" s="3">
         <f>((D79+E79)-(B79+C79))*24</f>
@@ -3302,11 +3341,11 @@
       <c r="F80" s="3"/>
       <c r="G80" t="s" s="11">
         <f>IF(I80&gt;0,I80,IF(I80=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s" s="9">
         <f>IF(AND(G80&lt;&gt;" ",G80&lt;&gt;"ERROR",H79&lt;&gt;" ",H79&lt;&gt;"ERROR"),G80+H79," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I80" s="3">
         <f>((D80+E80)-(B80+C80))*24</f>
@@ -3324,11 +3363,11 @@
       <c r="F81" s="3"/>
       <c r="G81" t="s" s="11">
         <f>IF(I81&gt;0,I81,IF(I81=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H81" t="s" s="9">
         <f>IF(AND(G81&lt;&gt;" ",G81&lt;&gt;"ERROR",H80&lt;&gt;" ",H80&lt;&gt;"ERROR"),G81+H80," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I81" s="3">
         <f>((D81+E81)-(B81+C81))*24</f>
@@ -3346,11 +3385,11 @@
       <c r="F82" s="3"/>
       <c r="G82" t="s" s="11">
         <f>IF(I82&gt;0,I82,IF(I82=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H82" t="s" s="9">
         <f>IF(AND(G82&lt;&gt;" ",G82&lt;&gt;"ERROR",H81&lt;&gt;" ",H81&lt;&gt;"ERROR"),G82+H81," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I82" s="3">
         <f>((D82+E82)-(B82+C82))*24</f>
@@ -3368,11 +3407,11 @@
       <c r="F83" s="3"/>
       <c r="G83" t="s" s="11">
         <f>IF(I83&gt;0,I83,IF(I83=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H83" t="s" s="9">
         <f>IF(AND(G83&lt;&gt;" ",G83&lt;&gt;"ERROR",H82&lt;&gt;" ",H82&lt;&gt;"ERROR"),G83+H82," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I83" s="3">
         <f>((D83+E83)-(B83+C83))*24</f>
@@ -3390,11 +3429,11 @@
       <c r="F84" s="3"/>
       <c r="G84" t="s" s="11">
         <f>IF(I84&gt;0,I84,IF(I84=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H84" t="s" s="9">
         <f>IF(AND(G84&lt;&gt;" ",G84&lt;&gt;"ERROR",H83&lt;&gt;" ",H83&lt;&gt;"ERROR"),G84+H83," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I84" s="3">
         <f>((D84+E84)-(B84+C84))*24</f>
@@ -3412,11 +3451,11 @@
       <c r="F85" s="3"/>
       <c r="G85" t="s" s="11">
         <f>IF(I85&gt;0,I85,IF(I85=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H85" t="s" s="9">
         <f>IF(AND(G85&lt;&gt;" ",G85&lt;&gt;"ERROR",H84&lt;&gt;" ",H84&lt;&gt;"ERROR"),G85+H84," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I85" s="3">
         <f>((D85+E85)-(B85+C85))*24</f>
@@ -3434,11 +3473,11 @@
       <c r="F86" s="3"/>
       <c r="G86" t="s" s="11">
         <f>IF(I86&gt;0,I86,IF(I86=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H86" t="s" s="9">
         <f>IF(AND(G86&lt;&gt;" ",G86&lt;&gt;"ERROR",H85&lt;&gt;" ",H85&lt;&gt;"ERROR"),G86+H85," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I86" s="3">
         <f>((D86+E86)-(B86+C86))*24</f>
@@ -3456,11 +3495,11 @@
       <c r="F87" s="3"/>
       <c r="G87" t="s" s="11">
         <f>IF(I87&gt;0,I87,IF(I87=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s" s="9">
         <f>IF(AND(G87&lt;&gt;" ",G87&lt;&gt;"ERROR",H86&lt;&gt;" ",H86&lt;&gt;"ERROR"),G87+H86," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I87" s="3">
         <f>((D87+E87)-(B87+C87))*24</f>
@@ -3478,11 +3517,11 @@
       <c r="F88" s="3"/>
       <c r="G88" t="s" s="11">
         <f>IF(I88&gt;0,I88,IF(I88=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s" s="9">
         <f>IF(AND(G88&lt;&gt;" ",G88&lt;&gt;"ERROR",H87&lt;&gt;" ",H87&lt;&gt;"ERROR"),G88+H87," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I88" s="3">
         <f>((D88+E88)-(B88+C88))*24</f>
@@ -3500,11 +3539,11 @@
       <c r="F89" s="3"/>
       <c r="G89" t="s" s="11">
         <f>IF(I89&gt;0,I89,IF(I89=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H89" t="s" s="9">
         <f>IF(AND(G89&lt;&gt;" ",G89&lt;&gt;"ERROR",H88&lt;&gt;" ",H88&lt;&gt;"ERROR"),G89+H88," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I89" s="3">
         <f>((D89+E89)-(B89+C89))*24</f>
@@ -3522,11 +3561,11 @@
       <c r="F90" s="3"/>
       <c r="G90" t="s" s="11">
         <f>IF(I90&gt;0,I90,IF(I90=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H90" t="s" s="9">
         <f>IF(AND(G90&lt;&gt;" ",G90&lt;&gt;"ERROR",H89&lt;&gt;" ",H89&lt;&gt;"ERROR"),G90+H89," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I90" s="3">
         <f>((D90+E90)-(B90+C90))*24</f>
@@ -3544,11 +3583,11 @@
       <c r="F91" s="3"/>
       <c r="G91" t="s" s="11">
         <f>IF(I91&gt;0,I91,IF(I91=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H91" t="s" s="9">
         <f>IF(AND(G91&lt;&gt;" ",G91&lt;&gt;"ERROR",H90&lt;&gt;" ",H90&lt;&gt;"ERROR"),G91+H90," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I91" s="3">
         <f>((D91+E91)-(B91+C91))*24</f>
@@ -3566,11 +3605,11 @@
       <c r="F92" s="3"/>
       <c r="G92" t="s" s="11">
         <f>IF(I92&gt;0,I92,IF(I92=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H92" t="s" s="9">
         <f>IF(AND(G92&lt;&gt;" ",G92&lt;&gt;"ERROR",H91&lt;&gt;" ",H91&lt;&gt;"ERROR"),G92+H91," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I92" s="3">
         <f>((D92+E92)-(B92+C92))*24</f>
@@ -3588,11 +3627,11 @@
       <c r="F93" s="3"/>
       <c r="G93" t="s" s="11">
         <f>IF(I93&gt;0,I93,IF(I93=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H93" t="s" s="9">
         <f>IF(AND(G93&lt;&gt;" ",G93&lt;&gt;"ERROR",H92&lt;&gt;" ",H92&lt;&gt;"ERROR"),G93+H92," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I93" s="3">
         <f>((D93+E93)-(B93+C93))*24</f>
@@ -3610,11 +3649,11 @@
       <c r="F94" s="3"/>
       <c r="G94" t="s" s="11">
         <f>IF(I94&gt;0,I94,IF(I94=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H94" t="s" s="9">
         <f>IF(AND(G94&lt;&gt;" ",G94&lt;&gt;"ERROR",H93&lt;&gt;" ",H93&lt;&gt;"ERROR"),G94+H93," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I94" s="3">
         <f>((D94+E94)-(B94+C94))*24</f>
@@ -3632,11 +3671,11 @@
       <c r="F95" s="3"/>
       <c r="G95" t="s" s="11">
         <f>IF(I95&gt;0,I95,IF(I95=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H95" t="s" s="9">
         <f>IF(AND(G95&lt;&gt;" ",G95&lt;&gt;"ERROR",H94&lt;&gt;" ",H94&lt;&gt;"ERROR"),G95+H94," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I95" s="3">
         <f>((D95+E95)-(B95+C95))*24</f>
@@ -3654,11 +3693,11 @@
       <c r="F96" s="3"/>
       <c r="G96" t="s" s="11">
         <f>IF(I96&gt;0,I96,IF(I96=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H96" t="s" s="9">
         <f>IF(AND(G96&lt;&gt;" ",G96&lt;&gt;"ERROR",H95&lt;&gt;" ",H95&lt;&gt;"ERROR"),G96+H95," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I96" s="3">
         <f>((D96+E96)-(B96+C96))*24</f>
@@ -3676,11 +3715,11 @@
       <c r="F97" s="3"/>
       <c r="G97" t="s" s="11">
         <f>IF(I97&gt;0,I97,IF(I97=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H97" t="s" s="9">
         <f>IF(AND(G97&lt;&gt;" ",G97&lt;&gt;"ERROR",H96&lt;&gt;" ",H96&lt;&gt;"ERROR"),G97+H96," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I97" s="3">
         <f>((D97+E97)-(B97+C97))*24</f>
@@ -3698,11 +3737,11 @@
       <c r="F98" s="3"/>
       <c r="G98" t="s" s="11">
         <f>IF(I98&gt;0,I98,IF(I98=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H98" t="s" s="9">
         <f>IF(AND(G98&lt;&gt;" ",G98&lt;&gt;"ERROR",H97&lt;&gt;" ",H97&lt;&gt;"ERROR"),G98+H97," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I98" s="3">
         <f>((D98+E98)-(B98+C98))*24</f>
@@ -3770,11 +3809,11 @@
       <c r="F101" s="3"/>
       <c r="G101" t="s" s="11">
         <f>IF(I101&gt;0,I101,IF(I101=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H101" t="s" s="9">
         <f>IF(AND(G101&lt;&gt;" ",G101&lt;&gt;"ERROR",H98&lt;&gt;" ",H98&lt;&gt;"ERROR"),G101+H98," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I101" s="3">
         <f>((D101+E101)-(B101+C101))*24</f>
@@ -3792,11 +3831,11 @@
       <c r="F102" s="3"/>
       <c r="G102" t="s" s="11">
         <f>IF(I102&gt;0,I102,IF(I102=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H102" t="s" s="9">
         <f>IF(AND(G102&lt;&gt;" ",G102&lt;&gt;"ERROR",H101&lt;&gt;" ",H101&lt;&gt;"ERROR"),G102+H101," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I102" s="3">
         <f>((D102+E102)-(B102+C102))*24</f>
@@ -3814,11 +3853,11 @@
       <c r="F103" s="3"/>
       <c r="G103" t="s" s="11">
         <f>IF(I103&gt;0,I103,IF(I103=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H103" t="s" s="9">
         <f>IF(AND(G103&lt;&gt;" ",G103&lt;&gt;"ERROR",H102&lt;&gt;" ",H102&lt;&gt;"ERROR"),G103+H102," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I103" s="3">
         <f>((D103+E103)-(B103+C103))*24</f>
@@ -3836,11 +3875,11 @@
       <c r="F104" s="3"/>
       <c r="G104" t="s" s="11">
         <f>IF(I104&gt;0,I104,IF(I104=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H104" t="s" s="9">
         <f>IF(AND(G104&lt;&gt;" ",G104&lt;&gt;"ERROR",H103&lt;&gt;" ",H103&lt;&gt;"ERROR"),G104+H103," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I104" s="3">
         <f>((D104+E104)-(B104+C104))*24</f>
@@ -3858,11 +3897,11 @@
       <c r="F105" s="3"/>
       <c r="G105" t="s" s="11">
         <f>IF(I105&gt;0,I105,IF(I105=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H105" t="s" s="9">
         <f>IF(AND(G105&lt;&gt;" ",G105&lt;&gt;"ERROR",H104&lt;&gt;" ",H104&lt;&gt;"ERROR"),G105+H104," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I105" s="3">
         <f>((D105+E105)-(B105+C105))*24</f>
@@ -3880,11 +3919,11 @@
       <c r="F106" s="3"/>
       <c r="G106" t="s" s="11">
         <f>IF(I106&gt;0,I106,IF(I106=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H106" t="s" s="9">
         <f>IF(AND(G106&lt;&gt;" ",G106&lt;&gt;"ERROR",H105&lt;&gt;" ",H105&lt;&gt;"ERROR"),G106+H105," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I106" s="3">
         <f>((D106+E106)-(B106+C106))*24</f>
@@ -3902,11 +3941,11 @@
       <c r="F107" s="3"/>
       <c r="G107" t="s" s="11">
         <f>IF(I107&gt;0,I107,IF(I107=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H107" t="s" s="9">
         <f>IF(AND(G107&lt;&gt;" ",G107&lt;&gt;"ERROR",H106&lt;&gt;" ",H106&lt;&gt;"ERROR"),G107+H106," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I107" s="3">
         <f>((D107+E107)-(B107+C107))*24</f>
@@ -3924,11 +3963,11 @@
       <c r="F108" s="3"/>
       <c r="G108" t="s" s="11">
         <f>IF(I108&gt;0,I108,IF(I108=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H108" t="s" s="9">
         <f>IF(AND(G108&lt;&gt;" ",G108&lt;&gt;"ERROR",H107&lt;&gt;" ",H107&lt;&gt;"ERROR"),G108+H107," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I108" s="3">
         <f>((D108+E108)-(B108+C108))*24</f>
@@ -3946,11 +3985,11 @@
       <c r="F109" s="3"/>
       <c r="G109" t="s" s="11">
         <f>IF(I109&gt;0,I109,IF(I109=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H109" t="s" s="9">
         <f>IF(AND(G109&lt;&gt;" ",G109&lt;&gt;"ERROR",H108&lt;&gt;" ",H108&lt;&gt;"ERROR"),G109+H108," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I109" s="3">
         <f>((D109+E109)-(B109+C109))*24</f>
@@ -3968,11 +4007,11 @@
       <c r="F110" s="3"/>
       <c r="G110" t="s" s="11">
         <f>IF(I110&gt;0,I110,IF(I110=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H110" t="s" s="9">
         <f>IF(AND(G110&lt;&gt;" ",G110&lt;&gt;"ERROR",H109&lt;&gt;" ",H109&lt;&gt;"ERROR"),G110+H109," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I110" s="3">
         <f>((D110+E110)-(B110+C110))*24</f>
@@ -3990,11 +4029,11 @@
       <c r="F111" s="3"/>
       <c r="G111" t="s" s="11">
         <f>IF(I111&gt;0,I111,IF(I111=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H111" t="s" s="9">
         <f>IF(AND(G111&lt;&gt;" ",G111&lt;&gt;"ERROR",H110&lt;&gt;" ",H110&lt;&gt;"ERROR"),G111+H110," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I111" s="3">
         <f>((D111+E111)-(B111+C111))*24</f>
@@ -4012,11 +4051,11 @@
       <c r="F112" s="3"/>
       <c r="G112" t="s" s="11">
         <f>IF(I112&gt;0,I112,IF(I112=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H112" t="s" s="9">
         <f>IF(AND(G112&lt;&gt;" ",G112&lt;&gt;"ERROR",H111&lt;&gt;" ",H111&lt;&gt;"ERROR"),G112+H111," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I112" s="3">
         <f>((D112+E112)-(B112+C112))*24</f>
@@ -4034,11 +4073,11 @@
       <c r="F113" s="3"/>
       <c r="G113" t="s" s="11">
         <f>IF(I113&gt;0,I113,IF(I113=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H113" t="s" s="9">
         <f>IF(AND(G113&lt;&gt;" ",G113&lt;&gt;"ERROR",H112&lt;&gt;" ",H112&lt;&gt;"ERROR"),G113+H112," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I113" s="3">
         <f>((D113+E113)-(B113+C113))*24</f>
@@ -4056,11 +4095,11 @@
       <c r="F114" s="3"/>
       <c r="G114" t="s" s="11">
         <f>IF(I114&gt;0,I114,IF(I114=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H114" t="s" s="9">
         <f>IF(AND(G114&lt;&gt;" ",G114&lt;&gt;"ERROR",H113&lt;&gt;" ",H113&lt;&gt;"ERROR"),G114+H113," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I114" s="3">
         <f>((D114+E114)-(B114+C114))*24</f>
@@ -4078,11 +4117,11 @@
       <c r="F115" s="3"/>
       <c r="G115" t="s" s="11">
         <f>IF(I115&gt;0,I115,IF(I115=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H115" t="s" s="9">
         <f>IF(AND(G115&lt;&gt;" ",G115&lt;&gt;"ERROR",H114&lt;&gt;" ",H114&lt;&gt;"ERROR"),G115+H114," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I115" s="3">
         <f>((D115+E115)-(B115+C115))*24</f>
@@ -4100,11 +4139,11 @@
       <c r="F116" s="3"/>
       <c r="G116" t="s" s="11">
         <f>IF(I116&gt;0,I116,IF(I116=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H116" t="s" s="9">
         <f>IF(AND(G116&lt;&gt;" ",G116&lt;&gt;"ERROR",H115&lt;&gt;" ",H115&lt;&gt;"ERROR"),G116+H115," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I116" s="3">
         <f>((D116+E116)-(B116+C116))*24</f>
@@ -4122,11 +4161,11 @@
       <c r="F117" s="3"/>
       <c r="G117" t="s" s="11">
         <f>IF(I117&gt;0,I117,IF(I117=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H117" t="s" s="9">
         <f>IF(AND(G117&lt;&gt;" ",G117&lt;&gt;"ERROR",H116&lt;&gt;" ",H116&lt;&gt;"ERROR"),G117+H116," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I117" s="3">
         <f>((D117+E117)-(B117+C117))*24</f>
@@ -4144,11 +4183,11 @@
       <c r="F118" s="3"/>
       <c r="G118" t="s" s="11">
         <f>IF(I118&gt;0,I118,IF(I118=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H118" t="s" s="9">
         <f>IF(AND(G118&lt;&gt;" ",G118&lt;&gt;"ERROR",H117&lt;&gt;" ",H117&lt;&gt;"ERROR"),G118+H117," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I118" s="3">
         <f>((D118+E118)-(B118+C118))*24</f>
@@ -4166,11 +4205,11 @@
       <c r="F119" s="3"/>
       <c r="G119" t="s" s="11">
         <f>IF(I119&gt;0,I119,IF(I119=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H119" t="s" s="9">
         <f>IF(AND(G119&lt;&gt;" ",G119&lt;&gt;"ERROR",H118&lt;&gt;" ",H118&lt;&gt;"ERROR"),G119+H118," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I119" s="3">
         <f>((D119+E119)-(B119+C119))*24</f>
@@ -4188,11 +4227,11 @@
       <c r="F120" s="3"/>
       <c r="G120" t="s" s="11">
         <f>IF(I120&gt;0,I120,IF(I120=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H120" t="s" s="9">
         <f>IF(AND(G120&lt;&gt;" ",G120&lt;&gt;"ERROR",H119&lt;&gt;" ",H119&lt;&gt;"ERROR"),G120+H119," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I120" s="3">
         <f>((D120+E120)-(B120+C120))*24</f>
@@ -4210,11 +4249,11 @@
       <c r="F121" s="3"/>
       <c r="G121" t="s" s="11">
         <f>IF(I121&gt;0,I121,IF(I121=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H121" t="s" s="9">
         <f>IF(AND(G121&lt;&gt;" ",G121&lt;&gt;"ERROR",H120&lt;&gt;" ",H120&lt;&gt;"ERROR"),G121+H120," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I121" s="3">
         <f>((D121+E121)-(B121+C121))*24</f>
@@ -4232,11 +4271,11 @@
       <c r="F122" s="3"/>
       <c r="G122" t="s" s="11">
         <f>IF(I122&gt;0,I122,IF(I122=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H122" t="s" s="9">
         <f>IF(AND(G122&lt;&gt;" ",G122&lt;&gt;"ERROR",H121&lt;&gt;" ",H121&lt;&gt;"ERROR"),G122+H121," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I122" s="3">
         <f>((D122+E122)-(B122+C122))*24</f>
@@ -4254,11 +4293,11 @@
       <c r="F123" s="3"/>
       <c r="G123" t="s" s="11">
         <f>IF(I123&gt;0,I123,IF(I123=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H123" t="s" s="9">
         <f>IF(AND(G123&lt;&gt;" ",G123&lt;&gt;"ERROR",H122&lt;&gt;" ",H122&lt;&gt;"ERROR"),G123+H122," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I123" s="3">
         <f>((D123+E123)-(B123+C123))*24</f>
@@ -4276,11 +4315,11 @@
       <c r="F124" s="3"/>
       <c r="G124" t="s" s="11">
         <f>IF(I124&gt;0,I124,IF(I124=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H124" t="s" s="9">
         <f>IF(AND(G124&lt;&gt;" ",G124&lt;&gt;"ERROR",H123&lt;&gt;" ",H123&lt;&gt;"ERROR"),G124+H123," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I124" s="3">
         <f>((D124+E124)-(B124+C124))*24</f>
@@ -4298,11 +4337,11 @@
       <c r="F125" s="3"/>
       <c r="G125" t="s" s="11">
         <f>IF(I125&gt;0,I125,IF(I125=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H125" t="s" s="9">
         <f>IF(AND(G125&lt;&gt;" ",G125&lt;&gt;"ERROR",H124&lt;&gt;" ",H124&lt;&gt;"ERROR"),G125+H124," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I125" s="3">
         <f>((D125+E125)-(B125+C125))*24</f>
@@ -4320,11 +4359,11 @@
       <c r="F126" s="3"/>
       <c r="G126" t="s" s="11">
         <f>IF(I126&gt;0,I126,IF(I126=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H126" t="s" s="9">
         <f>IF(AND(G126&lt;&gt;" ",G126&lt;&gt;"ERROR",H125&lt;&gt;" ",H125&lt;&gt;"ERROR"),G126+H125," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I126" s="3">
         <f>((D126+E126)-(B126+C126))*24</f>
@@ -4342,11 +4381,11 @@
       <c r="F127" s="3"/>
       <c r="G127" t="s" s="11">
         <f>IF(I127&gt;0,I127,IF(I127=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H127" t="s" s="9">
         <f>IF(AND(G127&lt;&gt;" ",G127&lt;&gt;"ERROR",H126&lt;&gt;" ",H126&lt;&gt;"ERROR"),G127+H126," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I127" s="3">
         <f>((D127+E127)-(B127+C127))*24</f>
@@ -4364,11 +4403,11 @@
       <c r="F128" s="3"/>
       <c r="G128" t="s" s="11">
         <f>IF(I128&gt;0,I128,IF(I128=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H128" t="s" s="9">
         <f>IF(AND(G128&lt;&gt;" ",G128&lt;&gt;"ERROR",H127&lt;&gt;" ",H127&lt;&gt;"ERROR"),G128+H127," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I128" s="3">
         <f>((D128+E128)-(B128+C128))*24</f>
@@ -4386,11 +4425,11 @@
       <c r="F129" s="3"/>
       <c r="G129" t="s" s="11">
         <f>IF(I129&gt;0,I129,IF(I129=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H129" t="s" s="9">
         <f>IF(AND(G129&lt;&gt;" ",G129&lt;&gt;"ERROR",H128&lt;&gt;" ",H128&lt;&gt;"ERROR"),G129+H128," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I129" s="3">
         <f>((D129+E129)-(B129+C129))*24</f>
@@ -4408,11 +4447,11 @@
       <c r="F130" s="3"/>
       <c r="G130" t="s" s="11">
         <f>IF(I130&gt;0,I130,IF(I130=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H130" t="s" s="9">
         <f>IF(AND(G130&lt;&gt;" ",G130&lt;&gt;"ERROR",H129&lt;&gt;" ",H129&lt;&gt;"ERROR"),G130+H129," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I130" s="3">
         <f>((D130+E130)-(B130+C130))*24</f>
@@ -4430,11 +4469,11 @@
       <c r="F131" s="3"/>
       <c r="G131" t="s" s="11">
         <f>IF(I131&gt;0,I131,IF(I131=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H131" t="s" s="9">
         <f>IF(AND(G131&lt;&gt;" ",G131&lt;&gt;"ERROR",H130&lt;&gt;" ",H130&lt;&gt;"ERROR"),G131+H130," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I131" s="3">
         <f>((D131+E131)-(B131+C131))*24</f>
@@ -4452,11 +4491,11 @@
       <c r="F132" s="3"/>
       <c r="G132" t="s" s="11">
         <f>IF(I132&gt;0,I132,IF(I132=0," ","ERROR"))</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H132" t="s" s="9">
         <f>IF(AND(G132&lt;&gt;" ",G132&lt;&gt;"ERROR",H131&lt;&gt;" ",H131&lt;&gt;"ERROR"),G132+H131," ")</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I132" s="3">
         <f>((D132+E132)-(B132+C132))*24</f>

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvereker/Documents/GitHub/hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12CE2DB-57B7-1A4B-B5C2-02E7A3A64C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7490164-91C0-3043-B4BB-FBB3B9ACEAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -143,6 +145,15 @@
   <si>
     <t>Blender Baking of elements</t>
   </si>
+  <si>
+    <t>Blender tutorial on UV Color baking + Unwrapping</t>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
+  </si>
+  <si>
+    <t>Troubleshooting + blender work into unity</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -242,13 +253,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,14 +1426,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="1" customWidth="1"/>
@@ -1433,39 +1447,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
@@ -1473,7 +1487,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1486,9 +1500,9 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2187,98 +2201,146 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8" t="str">
+      <c r="A25" s="2">
+        <v>10</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44480</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D25" s="11">
+        <v>44480</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" ref="G25:G30" si="2">IF(I25&gt;0,I25,IF(I25=0," ","ERROR"))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H25" s="6" t="str">
+        <v>1.9999999998835847</v>
+      </c>
+      <c r="H25" s="6">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>31.249999999883585</v>
       </c>
       <c r="I25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9999999998835847</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8" t="str">
+      <c r="A26" s="2">
+        <v>10</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44481</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="11">
+        <v>44481</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H26" s="6" t="str">
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="H26" s="6">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>32.249999999825377</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99999999994179234</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8" t="str">
+      <c r="A27" s="2">
+        <v>10</v>
+      </c>
+      <c r="B27" s="18">
+        <v>44482</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D27" s="11">
+        <v>44482</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H27" s="6" t="str">
+        <v>1.0000000001164153</v>
+      </c>
+      <c r="H27" s="6">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>33.249999999941792</v>
       </c>
       <c r="I27" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0000000001164153</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="8" t="str">
+      <c r="A28" s="2">
+        <v>10</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44483</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D28" s="11">
+        <v>44483</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="8">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H28" s="6" t="str">
+        <v>3.9999999999417923</v>
+      </c>
+      <c r="H28" s="6">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v>37.249999999883585</v>
       </c>
       <c r="I28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9999999999417923</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="12"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="5"/>
       <c r="F29" s="2"/>
       <c r="G29" s="8" t="str">
@@ -2319,24 +2381,24 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="15" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="2" t="e">
@@ -2347,7 +2409,7 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
@@ -2360,9 +2422,9 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -3075,24 +3137,24 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16" t="s">
+      <c r="C65" s="17"/>
+      <c r="D65" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="15" t="s">
+      <c r="E65" s="17"/>
+      <c r="F65" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I65" s="2" t="e">
@@ -3103,7 +3165,7 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="3" t="s">
         <v>7</v>
       </c>
@@ -3116,9 +3178,9 @@
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
       <c r="I66" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
@@ -3831,24 +3893,24 @@
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16" t="s">
+      <c r="C99" s="17"/>
+      <c r="D99" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="15" t="s">
+      <c r="E99" s="17"/>
+      <c r="F99" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="15" t="s">
+      <c r="G99" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="15" t="s">
+      <c r="H99" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I99" s="2" t="e">
@@ -3859,7 +3921,7 @@
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="3" t="s">
         <v>7</v>
       </c>
@@ -3872,9 +3934,9 @@
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
       <c r="I100" s="2" t="e">
         <f t="shared" ref="I100:I132" si="9">((D100+E100)-(B100+C100))*24</f>
         <v>#VALUE!</v>
@@ -4588,13 +4650,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:C65"/>
@@ -4607,12 +4668,13 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98472199999999999" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup orientation="landscape"/>

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvereker/Documents/GitHub/hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7490164-91C0-3043-B4BB-FBB3B9ACEAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E1D369-61CE-5947-A8D2-7DA652DEDADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,8 +252,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,8 +261,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F29"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1447,16 +1447,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="11">
         <v>44480</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="11">
         <v>44481</v>
@@ -2270,9 +2270,9 @@
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>10</v>
-      </c>
-      <c r="B27" s="18">
+        <v>11</v>
+      </c>
+      <c r="B27" s="15">
         <v>44482</v>
       </c>
       <c r="C27" s="5">
@@ -2304,7 +2304,7 @@
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="11">
         <v>44483</v>
@@ -4650,12 +4650,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:C65"/>
@@ -4668,13 +4669,12 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
   </mergeCells>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98472199999999999" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup orientation="landscape"/>

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvereker/Documents/GitHub/hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E1D369-61CE-5947-A8D2-7DA652DEDADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596682EB-5B48-E449-8D78-D18D7E834C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>Troubleshooting + blender work into unity</t>
+  </si>
+  <si>
+    <t>unity work with blender files</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Documentation + Blender work</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1436,7 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1563,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H30" si="1">IF(AND(G5&lt;&gt;" ",G5&lt;&gt;"ERROR",H4&lt;&gt;" ",H4&lt;&gt;"ERROR"),G5+H4," ")</f>
+        <f t="shared" ref="H5:H29" si="1">IF(AND(G5&lt;&gt;" ",G5&lt;&gt;"ERROR",H4&lt;&gt;" ",H4&lt;&gt;"ERROR"),G5+H4," ")</f>
         <v>2</v>
       </c>
       <c r="I5" s="2">
@@ -2202,41 +2211,41 @@
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="11">
-        <v>44480</v>
+        <v>44478</v>
       </c>
       <c r="C25" s="5">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D25" s="11">
-        <v>44480</v>
+        <v>44478</v>
       </c>
       <c r="E25" s="5">
         <v>0.47916666666666669</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25:G30" si="2">IF(I25&gt;0,I25,IF(I25=0," ","ERROR"))</f>
-        <v>1.9999999998835847</v>
+        <f>IF(I25&gt;0,I25,IF(I25=0," ","ERROR"))</f>
+        <v>1.5</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="1"/>
-        <v>31.249999999883585</v>
+        <f>IF(AND(G25&lt;&gt;" ",G25&lt;&gt;"ERROR",H24&lt;&gt;" ",H24&lt;&gt;"ERROR"),G25+H24," ")</f>
+        <v>30.75</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9999999998835847</v>
+        <f>((D25+E25)-(B25+C25))*24</f>
+        <v>1.5</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="11">
         <v>44481</v>
@@ -2254,15 +2263,15 @@
         <v>32</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="2"/>
+        <f>IF(I26&gt;0,I26,IF(I26=0," ","ERROR"))</f>
         <v>0.99999999994179234</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="1"/>
-        <v>32.249999999825377</v>
+        <f>IF(AND(G26&lt;&gt;" ",G26&lt;&gt;"ERROR",H25&lt;&gt;" ",H25&lt;&gt;"ERROR"),G26+H25," ")</f>
+        <v>31.749999999941792</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="0"/>
+        <f>((D26+E26)-(B26+C26))*24</f>
         <v>0.99999999994179234</v>
       </c>
       <c r="J26" s="2"/>
@@ -2272,32 +2281,32 @@
       <c r="A27" s="2">
         <v>11</v>
       </c>
-      <c r="B27" s="15">
-        <v>44482</v>
+      <c r="B27" s="11">
+        <v>44480</v>
       </c>
       <c r="C27" s="5">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D27" s="11">
-        <v>44482</v>
+        <v>44480</v>
       </c>
       <c r="E27" s="5">
-        <v>0.45833333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="2"/>
-        <v>1.0000000001164153</v>
+        <f>IF(I27&gt;0,I27,IF(I27=0," ","ERROR"))</f>
+        <v>1.9999999998835847</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="1"/>
-        <v>33.249999999941792</v>
+        <f>IF(AND(G27&lt;&gt;" ",G27&lt;&gt;"ERROR",H26&lt;&gt;" ",H26&lt;&gt;"ERROR"),G27+H26," ")</f>
+        <v>33.749999999825377</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0000000001164153</v>
+        <f>((D27+E27)-(B27+C27))*24</f>
+        <v>1.9999999998835847</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -2307,75 +2316,99 @@
         <v>11</v>
       </c>
       <c r="B28" s="11">
+        <v>44481</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="11">
+        <v>44481</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="8">
+        <f>IF(I28&gt;0,I28,IF(I28=0," ","ERROR"))</f>
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="H28" s="6">
+        <f>IF(AND(G28&lt;&gt;" ",G28&lt;&gt;"ERROR",H27&lt;&gt;" ",H27&lt;&gt;"ERROR"),G28+H27," ")</f>
+        <v>34.749999999767169</v>
+      </c>
+      <c r="I28" s="2">
+        <f>((D28+E28)-(B28+C28))*24</f>
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>11</v>
+      </c>
+      <c r="B29" s="15">
+        <v>44482</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D29" s="11">
+        <v>44482</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" ref="G29:G30" si="2">IF(I29&gt;0,I29,IF(I29=0," ","ERROR"))</f>
+        <v>1.0000000001164153</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="1"/>
+        <v>35.749999999883585</v>
+      </c>
+      <c r="I29" s="2">
+        <f>((D29+E29)-(B29+C29))*24</f>
+        <v>1.0000000001164153</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>11</v>
+      </c>
+      <c r="B30" s="11">
         <v>44483</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C30" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D30" s="11">
         <v>44483</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E30" s="5">
         <v>0.625</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G30" s="8">
         <f t="shared" si="2"/>
         <v>3.9999999999417923</v>
       </c>
-      <c r="H28" s="6">
-        <f t="shared" si="1"/>
-        <v>37.249999999883585</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="0"/>
+      <c r="H30" s="6">
+        <f>IF(AND(G30&lt;&gt;" ",G30&lt;&gt;"ERROR",H29&lt;&gt;" ",H29&lt;&gt;"ERROR"),G30+H29," ")</f>
+        <v>39.749999999825377</v>
+      </c>
+      <c r="I30" s="2">
+        <f>((D30+E30)-(B30+C30))*24</f>
         <v>3.9999999999417923</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2433,45 +2466,69 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="8" t="str">
+      <c r="A33" s="2">
+        <v>11</v>
+      </c>
+      <c r="B33" s="11">
+        <v>44485</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D33" s="11">
+        <v>44485</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="8">
         <f t="shared" ref="G33:G64" si="3">IF(I33&gt;0,I33,IF(I33=0," ","ERROR"))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H33" s="6" t="str">
+        <v>3.9999999999417923</v>
+      </c>
+      <c r="H33" s="6">
         <f>IF(AND(G33&lt;&gt;" ",G33&lt;&gt;"ERROR",H30&lt;&gt;" ",H30&lt;&gt;"ERROR"),G33+H30," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>43.749999999767169</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9999999999417923</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="8" t="str">
+      <c r="A34" s="2">
+        <v>11</v>
+      </c>
+      <c r="B34" s="11">
+        <v>44485</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D34" s="11">
+        <v>44485</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.8125</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="8">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H34" s="6" t="str">
+        <v>6.5000000000582077</v>
+      </c>
+      <c r="H34" s="6">
         <f t="shared" ref="H34:H64" si="4">IF(AND(G34&lt;&gt;" ",G34&lt;&gt;"ERROR",H33&lt;&gt;" ",H33&lt;&gt;"ERROR"),G34+H33," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>50.249999999825377</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5000000000582077</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvereker/Documents/GitHub/hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596682EB-5B48-E449-8D78-D18D7E834C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D7438-9363-E542-B7E1-368BA18A2DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -163,6 +163,15 @@
   <si>
     <t>Documentation + Blender work</t>
   </si>
+  <si>
+    <t xml:space="preserve">Unity Issues with Textures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Person Camera Movement + Tutorials </t>
+  </si>
+  <si>
+    <t>Coding Session</t>
+  </si>
 </sst>
 </file>
 
@@ -265,12 +274,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1436,7 +1445,7 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1456,39 +1465,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
@@ -1496,7 +1505,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1509,9 +1518,9 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2237,7 +2246,7 @@
         <v>30.75</v>
       </c>
       <c r="I25" s="2">
-        <f>((D25+E25)-(B25+C25))*24</f>
+        <f t="shared" ref="I25:I30" si="2">((D25+E25)-(B25+C25))*24</f>
         <v>1.5</v>
       </c>
       <c r="J25" s="2"/>
@@ -2271,7 +2280,7 @@
         <v>31.749999999941792</v>
       </c>
       <c r="I26" s="2">
-        <f>((D26+E26)-(B26+C26))*24</f>
+        <f t="shared" si="2"/>
         <v>0.99999999994179234</v>
       </c>
       <c r="J26" s="2"/>
@@ -2305,7 +2314,7 @@
         <v>33.749999999825377</v>
       </c>
       <c r="I27" s="2">
-        <f>((D27+E27)-(B27+C27))*24</f>
+        <f t="shared" si="2"/>
         <v>1.9999999998835847</v>
       </c>
       <c r="J27" s="2"/>
@@ -2339,7 +2348,7 @@
         <v>34.749999999767169</v>
       </c>
       <c r="I28" s="2">
-        <f>((D28+E28)-(B28+C28))*24</f>
+        <f t="shared" si="2"/>
         <v>0.99999999994179234</v>
       </c>
       <c r="J28" s="2"/>
@@ -2365,7 +2374,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" ref="G29:G30" si="2">IF(I29&gt;0,I29,IF(I29=0," ","ERROR"))</f>
+        <f t="shared" ref="G29:G30" si="3">IF(I29&gt;0,I29,IF(I29=0," ","ERROR"))</f>
         <v>1.0000000001164153</v>
       </c>
       <c r="H29" s="6">
@@ -2373,7 +2382,7 @@
         <v>35.749999999883585</v>
       </c>
       <c r="I29" s="2">
-        <f>((D29+E29)-(B29+C29))*24</f>
+        <f t="shared" si="2"/>
         <v>1.0000000001164153</v>
       </c>
       <c r="J29" s="2"/>
@@ -2399,7 +2408,7 @@
         <v>33</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.9999999999417923</v>
       </c>
       <c r="H30" s="6">
@@ -2407,31 +2416,31 @@
         <v>39.749999999825377</v>
       </c>
       <c r="I30" s="2">
-        <f>((D30+E30)-(B30+C30))*24</f>
+        <f t="shared" si="2"/>
         <v>3.9999999999417923</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="16" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="2" t="e">
@@ -2442,7 +2451,7 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
@@ -2455,9 +2464,9 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -2485,7 +2494,7 @@
         <v>36</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" ref="G33:G64" si="3">IF(I33&gt;0,I33,IF(I33=0," ","ERROR"))</f>
+        <f t="shared" ref="G33:G64" si="4">IF(I33&gt;0,I33,IF(I33=0," ","ERROR"))</f>
         <v>3.9999999999417923</v>
       </c>
       <c r="H33" s="6">
@@ -2519,11 +2528,11 @@
         <v>35</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5000000000582077</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H64" si="4">IF(AND(G34&lt;&gt;" ",G34&lt;&gt;"ERROR",H33&lt;&gt;" ",H33&lt;&gt;"ERROR"),G34+H33," ")</f>
+        <f t="shared" ref="H34:H64" si="5">IF(AND(G34&lt;&gt;" ",G34&lt;&gt;"ERROR",H33&lt;&gt;" ",H33&lt;&gt;"ERROR"),G34+H33," ")</f>
         <v>50.249999999825377</v>
       </c>
       <c r="I34" s="2">
@@ -2534,89 +2543,137 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H35" s="6" t="str">
+      <c r="A35" s="2">
+        <v>11</v>
+      </c>
+      <c r="B35" s="11">
+        <v>44486</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D35" s="11">
+        <v>44486</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>6</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="5"/>
+        <v>56.249999999825377</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H36" s="6" t="str">
+      <c r="A36" s="2">
+        <v>12</v>
+      </c>
+      <c r="B36" s="11">
+        <v>44487</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D36" s="11">
+        <v>44487</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>2.0000000000582077</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" si="5"/>
+        <v>58.249999999883585</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" ref="I36:I67" si="5">((D36+E36)-(B36+C36))*24</f>
-        <v>0</v>
+        <f t="shared" ref="I36:I67" si="6">((D36+E36)-(B36+C36))*24</f>
+        <v>2.0000000000582077</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H37" s="6" t="str">
+      <c r="A37" s="2">
+        <v>12</v>
+      </c>
+      <c r="B37" s="11">
+        <v>44487</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D37" s="11">
+        <v>44487</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="5"/>
+        <v>59.249999999825377</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.99999999994179234</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H38" s="6" t="str">
+      <c r="A38" s="2">
+        <v>12</v>
+      </c>
+      <c r="B38" s="11">
+        <v>44487</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D38" s="11">
+        <v>44487</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
+        <v>2.0000000000582077</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="5"/>
+        <v>61.249999999883585</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.0000000000582077</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2629,15 +2686,15 @@
       <c r="E39" s="5"/>
       <c r="F39" s="2"/>
       <c r="G39" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H39" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J39" s="2"/>
@@ -2651,15 +2708,15 @@
       <c r="E40" s="5"/>
       <c r="F40" s="2"/>
       <c r="G40" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H40" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J40" s="2"/>
@@ -2673,15 +2730,15 @@
       <c r="E41" s="5"/>
       <c r="F41" s="2"/>
       <c r="G41" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H41" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J41" s="2"/>
@@ -2695,15 +2752,15 @@
       <c r="E42" s="5"/>
       <c r="F42" s="2"/>
       <c r="G42" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H42" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J42" s="2"/>
@@ -2717,15 +2774,15 @@
       <c r="E43" s="5"/>
       <c r="F43" s="2"/>
       <c r="G43" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H43" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J43" s="2"/>
@@ -2739,15 +2796,15 @@
       <c r="E44" s="5"/>
       <c r="F44" s="2"/>
       <c r="G44" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H44" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J44" s="2"/>
@@ -2761,15 +2818,15 @@
       <c r="E45" s="5"/>
       <c r="F45" s="2"/>
       <c r="G45" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H45" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J45" s="2"/>
@@ -2783,15 +2840,15 @@
       <c r="E46" s="5"/>
       <c r="F46" s="2"/>
       <c r="G46" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H46" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J46" s="2"/>
@@ -2805,15 +2862,15 @@
       <c r="E47" s="5"/>
       <c r="F47" s="2"/>
       <c r="G47" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H47" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J47" s="2"/>
@@ -2827,15 +2884,15 @@
       <c r="E48" s="5"/>
       <c r="F48" s="2"/>
       <c r="G48" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H48" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J48" s="2"/>
@@ -2849,15 +2906,15 @@
       <c r="E49" s="5"/>
       <c r="F49" s="2"/>
       <c r="G49" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H49" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J49" s="2"/>
@@ -2871,15 +2928,15 @@
       <c r="E50" s="5"/>
       <c r="F50" s="2"/>
       <c r="G50" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H50" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J50" s="2"/>
@@ -2893,15 +2950,15 @@
       <c r="E51" s="5"/>
       <c r="F51" s="2"/>
       <c r="G51" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H51" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J51" s="2"/>
@@ -2915,15 +2972,15 @@
       <c r="E52" s="5"/>
       <c r="F52" s="2"/>
       <c r="G52" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H52" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J52" s="2"/>
@@ -2937,15 +2994,15 @@
       <c r="E53" s="5"/>
       <c r="F53" s="2"/>
       <c r="G53" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H53" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J53" s="2"/>
@@ -2959,15 +3016,15 @@
       <c r="E54" s="5"/>
       <c r="F54" s="2"/>
       <c r="G54" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H54" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J54" s="2"/>
@@ -2981,15 +3038,15 @@
       <c r="E55" s="5"/>
       <c r="F55" s="2"/>
       <c r="G55" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H55" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J55" s="2"/>
@@ -3003,15 +3060,15 @@
       <c r="E56" s="5"/>
       <c r="F56" s="2"/>
       <c r="G56" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H56" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J56" s="2"/>
@@ -3025,15 +3082,15 @@
       <c r="E57" s="5"/>
       <c r="F57" s="2"/>
       <c r="G57" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H57" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J57" s="2"/>
@@ -3047,15 +3104,15 @@
       <c r="E58" s="5"/>
       <c r="F58" s="2"/>
       <c r="G58" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H58" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J58" s="2"/>
@@ -3069,15 +3126,15 @@
       <c r="E59" s="5"/>
       <c r="F59" s="2"/>
       <c r="G59" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H59" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J59" s="2"/>
@@ -3091,15 +3148,15 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H60" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J60" s="2"/>
@@ -3113,15 +3170,15 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H61" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J61" s="2"/>
@@ -3135,15 +3192,15 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H62" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J62" s="2"/>
@@ -3157,15 +3214,15 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H63" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J63" s="2"/>
@@ -3179,50 +3236,50 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H64" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17" t="s">
+      <c r="C65" s="18"/>
+      <c r="D65" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="16" t="s">
+      <c r="E65" s="18"/>
+      <c r="F65" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I65" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="3" t="s">
         <v>7</v>
       </c>
@@ -3235,11 +3292,11 @@
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
       <c r="I66" s="2" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="J66" s="2"/>
@@ -3253,7 +3310,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="8" t="str">
-        <f t="shared" ref="G67:G98" si="6">IF(I67&gt;0,I67,IF(I67=0," ","ERROR"))</f>
+        <f t="shared" ref="G67:G98" si="7">IF(I67&gt;0,I67,IF(I67=0," ","ERROR"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H67" s="6" t="str">
@@ -3261,7 +3318,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J67" s="2"/>
@@ -3275,15 +3332,15 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H68" s="6" t="str">
-        <f t="shared" ref="H68:H98" si="7">IF(AND(G68&lt;&gt;" ",G68&lt;&gt;"ERROR",H67&lt;&gt;" ",H67&lt;&gt;"ERROR"),G68+H67," ")</f>
+        <f t="shared" ref="H68:H98" si="8">IF(AND(G68&lt;&gt;" ",G68&lt;&gt;"ERROR",H67&lt;&gt;" ",H67&lt;&gt;"ERROR"),G68+H67," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" ref="I68:I99" si="8">((D68+E68)-(B68+C68))*24</f>
+        <f t="shared" ref="I68:I99" si="9">((D68+E68)-(B68+C68))*24</f>
         <v>0</v>
       </c>
       <c r="J68" s="2"/>
@@ -3297,15 +3354,15 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H69" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="2"/>
@@ -3319,15 +3376,15 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H70" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J70" s="2"/>
@@ -3341,15 +3398,15 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H71" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="2"/>
@@ -3363,15 +3420,15 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H72" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J72" s="2"/>
@@ -3385,15 +3442,15 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H73" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J73" s="2"/>
@@ -3407,15 +3464,15 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H74" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J74" s="2"/>
@@ -3429,15 +3486,15 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H75" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J75" s="2"/>
@@ -3451,15 +3508,15 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H76" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J76" s="2"/>
@@ -3473,15 +3530,15 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H77" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J77" s="2"/>
@@ -3495,15 +3552,15 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H78" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J78" s="2"/>
@@ -3517,15 +3574,15 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H79" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J79" s="2"/>
@@ -3539,15 +3596,15 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H80" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J80" s="2"/>
@@ -3561,15 +3618,15 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H81" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J81" s="2"/>
@@ -3583,15 +3640,15 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H82" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J82" s="2"/>
@@ -3605,15 +3662,15 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H83" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83" s="2"/>
@@ -3627,15 +3684,15 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H84" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J84" s="2"/>
@@ -3649,15 +3706,15 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H85" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J85" s="2"/>
@@ -3671,15 +3728,15 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H86" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J86" s="2"/>
@@ -3693,15 +3750,15 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H87" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J87" s="2"/>
@@ -3715,15 +3772,15 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H88" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J88" s="2"/>
@@ -3737,15 +3794,15 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H89" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J89" s="2"/>
@@ -3759,15 +3816,15 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H90" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J90" s="2"/>
@@ -3781,15 +3838,15 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H91" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J91" s="2"/>
@@ -3803,15 +3860,15 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H92" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J92" s="2"/>
@@ -3825,15 +3882,15 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H93" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J93" s="2"/>
@@ -3847,15 +3904,15 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H94" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J94" s="2"/>
@@ -3869,15 +3926,15 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H95" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J95" s="2"/>
@@ -3891,15 +3948,15 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H96" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J96" s="2"/>
@@ -3913,15 +3970,15 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H97" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J97" s="2"/>
@@ -3935,50 +3992,50 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H98" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="17"/>
-      <c r="F99" s="16" t="s">
+      <c r="E99" s="18"/>
+      <c r="F99" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="16" t="s">
+      <c r="G99" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="16" t="s">
+      <c r="H99" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I99" s="2" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="16"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="3" t="s">
         <v>7</v>
       </c>
@@ -3991,11 +4048,11 @@
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
       <c r="I100" s="2" t="e">
-        <f t="shared" ref="I100:I132" si="9">((D100+E100)-(B100+C100))*24</f>
+        <f t="shared" ref="I100:I132" si="10">((D100+E100)-(B100+C100))*24</f>
         <v>#VALUE!</v>
       </c>
       <c r="J100" s="2"/>
@@ -4009,7 +4066,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="8" t="str">
-        <f t="shared" ref="G101:G132" si="10">IF(I101&gt;0,I101,IF(I101=0," ","ERROR"))</f>
+        <f t="shared" ref="G101:G132" si="11">IF(I101&gt;0,I101,IF(I101=0," ","ERROR"))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H101" s="6" t="str">
@@ -4017,7 +4074,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J101" s="2"/>
@@ -4031,15 +4088,15 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H102" s="6" t="str">
+        <f t="shared" ref="H102:H132" si="12">IF(AND(G102&lt;&gt;" ",G102&lt;&gt;"ERROR",H101&lt;&gt;" ",H101&lt;&gt;"ERROR"),G102+H101," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I102" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H102" s="6" t="str">
-        <f t="shared" ref="H102:H132" si="11">IF(AND(G102&lt;&gt;" ",G102&lt;&gt;"ERROR",H101&lt;&gt;" ",H101&lt;&gt;"ERROR"),G102+H101," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I102" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J102" s="2"/>
@@ -4053,15 +4110,15 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H103" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I103" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H103" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I103" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J103" s="2"/>
@@ -4075,15 +4132,15 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H104" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I104" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H104" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I104" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J104" s="2"/>
@@ -4097,15 +4154,15 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H105" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I105" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H105" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I105" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J105" s="2"/>
@@ -4119,15 +4176,15 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H106" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I106" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H106" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I106" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J106" s="2"/>
@@ -4141,15 +4198,15 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H107" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I107" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H107" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I107" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J107" s="2"/>
@@ -4163,15 +4220,15 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H108" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I108" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H108" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I108" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J108" s="2"/>
@@ -4185,15 +4242,15 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H109" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I109" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H109" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I109" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J109" s="2"/>
@@ -4207,15 +4264,15 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H110" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I110" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H110" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I110" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J110" s="2"/>
@@ -4229,15 +4286,15 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H111" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I111" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H111" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I111" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J111" s="2"/>
@@ -4251,15 +4308,15 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H112" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I112" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H112" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I112" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J112" s="2"/>
@@ -4273,15 +4330,15 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H113" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I113" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H113" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I113" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J113" s="2"/>
@@ -4295,15 +4352,15 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H114" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I114" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H114" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I114" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J114" s="2"/>
@@ -4317,15 +4374,15 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H115" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I115" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H115" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I115" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J115" s="2"/>
@@ -4339,15 +4396,15 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H116" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I116" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H116" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I116" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J116" s="2"/>
@@ -4361,15 +4418,15 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H117" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I117" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H117" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I117" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J117" s="2"/>
@@ -4383,15 +4440,15 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H118" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I118" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H118" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I118" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J118" s="2"/>
@@ -4405,15 +4462,15 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H119" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I119" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H119" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I119" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J119" s="2"/>
@@ -4427,15 +4484,15 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H120" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I120" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H120" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I120" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J120" s="2"/>
@@ -4449,15 +4506,15 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H121" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I121" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H121" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I121" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J121" s="2"/>
@@ -4471,15 +4528,15 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H122" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I122" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H122" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I122" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J122" s="2"/>
@@ -4493,15 +4550,15 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H123" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I123" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H123" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I123" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J123" s="2"/>
@@ -4515,15 +4572,15 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H124" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I124" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H124" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I124" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J124" s="2"/>
@@ -4537,15 +4594,15 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H125" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I125" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H125" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I125" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J125" s="2"/>
@@ -4559,15 +4616,15 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H126" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I126" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H126" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I126" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J126" s="2"/>
@@ -4581,15 +4638,15 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H127" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I127" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H127" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I127" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J127" s="2"/>
@@ -4603,15 +4660,15 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H128" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I128" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H128" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I128" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J128" s="2"/>
@@ -4625,15 +4682,15 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H129" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I129" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H129" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I129" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J129" s="2"/>
@@ -4647,15 +4704,15 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H130" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I130" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H130" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I130" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J130" s="2"/>
@@ -4669,15 +4726,15 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H131" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I131" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H131" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I131" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J131" s="2"/>
@@ -4691,15 +4748,15 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H132" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I132" s="2">
         <f t="shared" si="10"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H132" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I132" s="2">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J132" s="2"/>
@@ -4707,13 +4764,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:C65"/>
@@ -4726,12 +4782,13 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98472199999999999" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup orientation="landscape"/>

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvereker/Documents/GitHub/hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9D7438-9363-E542-B7E1-368BA18A2DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC6CCFE-5D33-EA44-9FF8-6BE6E2A3F33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <r>
       <rPr>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Coding Session</t>
+  </si>
+  <si>
+    <t>Documentation + Unity Merge</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1448,7 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2556,22 +2559,22 @@
         <v>44486</v>
       </c>
       <c r="E35" s="5">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7.0000000001164153</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="5"/>
-        <v>56.249999999825377</v>
+        <v>57.249999999941792</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7.0000000001164153</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2584,7 +2587,7 @@
         <v>44487</v>
       </c>
       <c r="C36" s="5">
-        <v>0.29166666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D36" s="11">
         <v>44487</v>
@@ -2597,15 +2600,15 @@
       </c>
       <c r="G36" s="8">
         <f t="shared" si="4"/>
-        <v>2.0000000000582077</v>
+        <v>2.4999999999417923</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="5"/>
-        <v>58.249999999883585</v>
+        <v>59.749999999883585</v>
       </c>
       <c r="I36" s="2">
         <f t="shared" ref="I36:I67" si="6">((D36+E36)-(B36+C36))*24</f>
-        <v>2.0000000000582077</v>
+        <v>2.4999999999417923</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2635,7 +2638,7 @@
       </c>
       <c r="H37" s="6">
         <f t="shared" si="5"/>
-        <v>59.249999999825377</v>
+        <v>60.749999999825377</v>
       </c>
       <c r="I37" s="2">
         <f t="shared" si="6"/>
@@ -2669,7 +2672,7 @@
       </c>
       <c r="H38" s="6">
         <f t="shared" si="5"/>
-        <v>61.249999999883585</v>
+        <v>62.749999999883585</v>
       </c>
       <c r="I38" s="2">
         <f t="shared" si="6"/>
@@ -2679,23 +2682,35 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="8" t="str">
+      <c r="A39" s="2">
+        <v>12</v>
+      </c>
+      <c r="B39" s="11">
+        <v>44487</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="11">
+        <v>44487</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H39" s="6" t="str">
+        <v>2.4999999999417923</v>
+      </c>
+      <c r="H39" s="6">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>65.249999999825377</v>
       </c>
       <c r="I39" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.4999999999417923</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvereker/Documents/GitHub/hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC6CCFE-5D33-EA44-9FF8-6BE6E2A3F33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4FE78-D7CD-1C4F-B787-93908F50AE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -175,6 +175,9 @@
   <si>
     <t>Documentation + Unity Merge</t>
   </si>
+  <si>
+    <t>User Guide</t>
+  </si>
 </sst>
 </file>
 
@@ -277,12 +280,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1448,7 +1451,7 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1468,39 +1471,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
@@ -1508,7 +1511,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1521,9 +1524,9 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2426,24 +2429,24 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="2" t="e">
@@ -2454,7 +2457,7 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
@@ -2467,9 +2470,9 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -2716,45 +2719,69 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="8" t="str">
+      <c r="A40" s="2">
+        <v>12</v>
+      </c>
+      <c r="B40" s="11">
+        <v>44488</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D40" s="11">
+        <v>44488</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H40" s="6" t="str">
+        <v>0.50000000005820766</v>
+      </c>
+      <c r="H40" s="6">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>65.749999999883585</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.50000000005820766</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="8" t="str">
+      <c r="A41" s="2">
+        <v>12</v>
+      </c>
+      <c r="B41" s="11">
+        <v>44488</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D41" s="11">
+        <v>44488</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H41" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="H41" s="6">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>68.749999999883585</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -3266,24 +3293,24 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18" t="s">
+      <c r="C65" s="17"/>
+      <c r="D65" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="17" t="s">
+      <c r="E65" s="17"/>
+      <c r="F65" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G65" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I65" s="2" t="e">
@@ -3294,7 +3321,7 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="3" t="s">
         <v>7</v>
       </c>
@@ -3307,9 +3334,9 @@
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
       <c r="I66" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4022,24 +4049,24 @@
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18" t="s">
+      <c r="C99" s="17"/>
+      <c r="D99" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="17" t="s">
+      <c r="E99" s="17"/>
+      <c r="F99" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="G99" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="17" t="s">
+      <c r="H99" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I99" s="2" t="e">
@@ -4050,7 +4077,7 @@
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="3" t="s">
         <v>7</v>
       </c>
@@ -4063,9 +4090,9 @@
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
       <c r="I100" s="2" t="e">
         <f t="shared" ref="I100:I132" si="10">((D100+E100)-(B100+C100))*24</f>
         <v>#VALUE!</v>
@@ -4779,12 +4806,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:C65"/>
@@ -4797,13 +4825,12 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
   </mergeCells>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98472199999999999" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup orientation="landscape"/>

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvereker/Documents/GitHub/hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4FE78-D7CD-1C4F-B787-93908F50AE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116E3ACA-5837-A748-AAA1-D6A8BD7797F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31940" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <r>
       <rPr>
@@ -178,6 +178,18 @@
   <si>
     <t>User Guide</t>
   </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Auditor Meeting</t>
+  </si>
+  <si>
+    <t>Client Meeting</t>
+  </si>
+  <si>
+    <t>Team Meeting + Work</t>
+  </si>
 </sst>
 </file>
 
@@ -280,12 +292,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1450,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1471,39 +1483,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
@@ -1511,7 +1523,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1524,9 +1536,9 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2429,24 +2441,24 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="16" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="2" t="e">
@@ -2457,7 +2469,7 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
@@ -2470,9 +2482,9 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -2787,89 +2799,137 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="8" t="str">
+      <c r="A42" s="2">
+        <v>12</v>
+      </c>
+      <c r="B42" s="11">
+        <v>44489</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D42" s="11">
+        <v>44489</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H42" s="6" t="str">
+        <v>0.50000000005820766</v>
+      </c>
+      <c r="H42" s="6">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>69.249999999941792</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.50000000005820766</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="8" t="str">
+      <c r="A43" s="2">
+        <v>12</v>
+      </c>
+      <c r="B43" s="11">
+        <v>44489</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D43" s="11">
+        <v>44489</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H43" s="6" t="str">
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="H43" s="6">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>70.249999999883585</v>
       </c>
       <c r="I43" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.99999999994179234</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="8" t="str">
+      <c r="A44" s="2">
+        <v>12</v>
+      </c>
+      <c r="B44" s="15">
+        <v>44489</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D44" s="11">
+        <v>44489</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H44" s="6" t="str">
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="H44" s="6">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>71.249999999825377</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.99999999994179234</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="8" t="str">
+      <c r="A45" s="2">
+        <v>12</v>
+      </c>
+      <c r="B45" s="11">
+        <v>44489</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="11">
+        <v>44489</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="8">
         <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H45" s="6" t="str">
+        <v>0.50000000005820766</v>
+      </c>
+      <c r="H45" s="6">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>71.749999999883585</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.50000000005820766</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -3293,24 +3353,24 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17" t="s">
+      <c r="C65" s="18"/>
+      <c r="D65" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="16" t="s">
+      <c r="E65" s="18"/>
+      <c r="F65" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I65" s="2" t="e">
@@ -3321,7 +3381,7 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="3" t="s">
         <v>7</v>
       </c>
@@ -3334,9 +3394,9 @@
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
       <c r="I66" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4049,24 +4109,24 @@
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="17"/>
-      <c r="F99" s="16" t="s">
+      <c r="E99" s="18"/>
+      <c r="F99" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="16" t="s">
+      <c r="G99" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="16" t="s">
+      <c r="H99" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I99" s="2" t="e">
@@ -4077,7 +4137,7 @@
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="16"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="3" t="s">
         <v>7</v>
       </c>
@@ -4090,9 +4150,9 @@
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
       <c r="I100" s="2" t="e">
         <f t="shared" ref="I100:I132" si="10">((D100+E100)-(B100+C100))*24</f>
         <v>#VALUE!</v>
@@ -4806,13 +4866,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:C65"/>
@@ -4825,12 +4884,13 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98472199999999999" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup orientation="landscape"/>

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvereker/Documents/GitHub/hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116E3ACA-5837-A748-AAA1-D6A8BD7797F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7DBDD6-86A8-6E49-A1CC-20E7D23CD53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>User Guide</t>
   </si>
   <si>
-    <t>Team Meeting</t>
-  </si>
-  <si>
     <t>Auditor Meeting</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Team Meeting + Work</t>
+  </si>
+  <si>
+    <t>Team Meeting + Retrospective</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2815,7 +2815,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" s="8">
         <f t="shared" si="4"/>
@@ -2849,7 +2849,7 @@
         <v>0.4375</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="4"/>
@@ -2883,7 +2883,7 @@
         <v>0.5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" s="8">
         <f t="shared" si="4"/>
@@ -2917,7 +2917,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="4"/>

--- a/Booked_Hours_Matthew.xlsx
+++ b/Booked_Hours_Matthew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewvereker/Documents/GitHub/hours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7DBDD6-86A8-6E49-A1CC-20E7D23CD53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABEE196-434B-074B-80FA-8868F9BFC838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,12 +292,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:K132"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1483,39 +1483,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="2"/>
@@ -1523,7 +1523,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1536,9 +1536,9 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2441,24 +2441,24 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17" t="s">
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="2" t="e">
@@ -2469,7 +2469,7 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
@@ -2482,9 +2482,9 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -2914,22 +2914,22 @@
         <v>44489</v>
       </c>
       <c r="E45" s="5">
-        <v>0.52083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="4"/>
-        <v>0.50000000005820766</v>
+        <v>0.99999999994179234</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" si="5"/>
-        <v>71.749999999883585</v>
+        <v>72.249999999767169</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" si="6"/>
-        <v>0.50000000005820766</v>
+        <v>0.99999999994179234</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -3353,24 +3353,24 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18" t="s">
+      <c r="C65" s="17"/>
+      <c r="D65" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="17" t="s">
+      <c r="E65" s="17"/>
+      <c r="F65" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G65" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I65" s="2" t="e">
@@ -3381,7 +3381,7 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="3" t="s">
         <v>7</v>
       </c>
@@ -3394,9 +3394,9 @@
       <c r="E66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
       <c r="I66" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
@@ -4109,24 +4109,24 @@
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18" t="s">
+      <c r="C99" s="17"/>
+      <c r="D99" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="18"/>
-      <c r="F99" s="17" t="s">
+      <c r="E99" s="17"/>
+      <c r="F99" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="G99" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H99" s="17" t="s">
+      <c r="H99" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I99" s="2" t="e">
@@ -4137,7 +4137,7 @@
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="3" t="s">
         <v>7</v>
       </c>
@@ -4150,9 +4150,9 @@
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
       <c r="I100" s="2" t="e">
         <f t="shared" ref="I100:I132" si="10">((D100+E100)-(B100+C100))*24</f>
         <v>#VALUE!</v>
@@ -4866,12 +4866,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:C65"/>
@@ -4884,13 +4885,12 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
   </mergeCells>
   <pageMargins left="0.74791700000000005" right="0.74791700000000005" top="0.98402800000000001" bottom="0.98472199999999999" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup orientation="landscape"/>
